--- a/Checklists/Mobile_App_Security_Checklist-English_1.1.0.xlsx
+++ b/Checklists/Mobile_App_Security_Checklist-English_1.1.0.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mitm/git-repos/owasp-mstg/Checklists/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A251BD1E-4CFB-BB41-BB1D-7D893C7D2938}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0D4CD9B-7B0B-7C49-95A1-3AFB57E83568}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-4200" yWindow="-21140" windowWidth="38400" windowHeight="21140" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-4200" yWindow="-21140" windowWidth="38400" windowHeight="21140" tabRatio="500" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="6" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="830" uniqueCount="376">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="821" uniqueCount="263">
   <si>
     <t>ID</t>
   </si>
@@ -172,33 +172,6 @@
     <t>7.8</t>
   </si>
   <si>
-    <t>Verify that error handling logic in security controls denies access by default.</t>
-  </si>
-  <si>
-    <t>Verify that security controls are never enforced only on the client side, but on the respective remote endpoints.</t>
-  </si>
-  <si>
-    <t>Verify that a high-level architecture for the mobile app and all connected remote services has been defined and security has been addressed in that architecture.</t>
-  </si>
-  <si>
-    <t>Verify that data considered sensitive in the context of the mobile app is clearly identified.</t>
-  </si>
-  <si>
-    <t>Verify that a threat model for the mobile app and the associated remote services, which identifies potential threats and countermeasures, has been produced.</t>
-  </si>
-  <si>
-    <t>Verify all app components are defined in terms of the business functions and/or security functions they provide.</t>
-  </si>
-  <si>
-    <t>Verify all application components are identified and are known to be needed.</t>
-  </si>
-  <si>
-    <t>Verify that all security controls have a centralized implementation.</t>
-  </si>
-  <si>
-    <t>Verify that there is an explicit policy for how cryptographic keys (if any) are managed, and the lifecycle of cryptographic keys is enforced. Ideally, follow a key management standard such as NIST SP 800-57.</t>
-  </si>
-  <si>
     <t>Data Storage and Privacy</t>
   </si>
   <si>
@@ -217,30 +190,6 @@
     <t>Impede Comprehension</t>
   </si>
   <si>
-    <t>Verify that the app implements two or more functionally independent methods of root detection and responds to the presence of a rooted device either by alerting the user or terminating the app.</t>
-  </si>
-  <si>
-    <t>Verify that the app implements multiple functionally independent debugging defenses that, in context of the overall protection scheme, force adversaries to invest significant manual effort to enable debugging. All available debugging protocols must be covered (e.g. JDWP and native).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify that the app detects, and responds to, tampering with executable files and critical data. </t>
-  </si>
-  <si>
-    <t>Verify that the app detects the presence of widely used reverse engineering tools, such as code injection tools, hooking frameworks and debugging servers.</t>
-  </si>
-  <si>
-    <t>Verify that the app detects, and response to, being run in an emulator using any method.</t>
-  </si>
-  <si>
-    <t>Verify that the app detects, and responds to, modifications of process memory, including relocation table patches and injected code.</t>
-  </si>
-  <si>
-    <t>Verify that obfuscating transformations and functional defenses are interdependent and well-integrated throughout the app.</t>
-  </si>
-  <si>
-    <t>Verify that the app implements a 'device binding' functionality when a mobile device is treated as being trusted. Verify that the device fingerprint is derived from multiple device properties.</t>
-  </si>
-  <si>
     <t>2.2</t>
   </si>
   <si>
@@ -256,45 +205,9 @@
     <t>2.11</t>
   </si>
   <si>
-    <t>Verify that no sensitive data is written to application logs.</t>
-  </si>
-  <si>
-    <t>Verify that no sensitive data is shared with third parties unless it is a necessary part of the architecture.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify that the keyboard cache is disabled on text inputs that process sensitive data. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify that no sensitive data is exposed via IPC mechanisms. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify that the app removes sensitive data from views when backgrounded. </t>
-  </si>
-  <si>
-    <t>Verify that the app does not hold sensitive data in memory longer than necessary, and memory is cleared explicitly after use.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify that the app enforces a minimum device-access-security policy, such as requiring the user to set a device passcode. </t>
-  </si>
-  <si>
     <t xml:space="preserve">Cryptography </t>
   </si>
   <si>
-    <t>Verify that the app does not rely on symmetric cryptography with hardcoded keys as a sole method of encryption.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify that the app uses proven implementations of cryptographic primitives. </t>
-  </si>
-  <si>
-    <t>Verify that the app uses cryptographic primitives that are appropriate for the particular use-case, configured with parameters that adhere to industry best practices.</t>
-  </si>
-  <si>
-    <t>Verify that the app doesn't re-use the same cryptographic key for multiple purposes.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify that all random values are generated using a sufficiently secure random number generator. </t>
-  </si>
-  <si>
     <t>Authentication and Session Management</t>
   </si>
   <si>
@@ -310,24 +223,6 @@
     <t>4.7</t>
   </si>
   <si>
-    <t>Verify that if the app provides users with access to a remote service, an acceptable form of authentication such as username/password authentication is performed at the remote endpoint.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify that a password policy exists and is enforced at the remote endpoint. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify that biometric authentication, if any, is not event-bound (i.e. using an API that simply returns "true" or "false"). Instead, it is based on unlocking the keychain/keystore. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify that a second factor of authentication exists at the remote endpoint and the 2FA requirement is consistently enforced. </t>
-  </si>
-  <si>
-    <t>Verify that step-up authentication is required to enable actions that deal with sensitive data or transactions.</t>
-  </si>
-  <si>
-    <t>Verify that the app informs the user of all login activities with his or her account. Users are able view a list of devices used to access the account, and to block specific devices.</t>
-  </si>
-  <si>
     <t>Network Communication</t>
   </si>
   <si>
@@ -337,18 +232,6 @@
     <t>5.4</t>
   </si>
   <si>
-    <t>Verify that data is encrypted on the network using TLS. The secure channel is used consistently throughout the app.</t>
-  </si>
-  <si>
-    <t>Verify that the app verifies the X.509 certificate of the remote endpoint when the secure channel is established. Only certificates signed by a valid CA are accepted.</t>
-  </si>
-  <si>
-    <t>Verify that the app either uses its own certificate store, or pins the endpoint certificate or public key, and subsequently does not establish connections with endpoints that offer a different certificate or key, even if signed by a trusted CA.</t>
-  </si>
-  <si>
-    <t>Verify that the app doesn't rely on a single insecure communication channel (email or SMS) for critical operations, such as enrollments and account recovery.</t>
-  </si>
-  <si>
     <t>6.1</t>
   </si>
   <si>
@@ -367,27 +250,6 @@
     <t>6.6</t>
   </si>
   <si>
-    <t xml:space="preserve">Verify that the app only requires the minimum set of permissions necessary. </t>
-  </si>
-  <si>
-    <t>Verify that all inputs from external sources and the user are validated and if necessary sanitized. This includes data received via the UI, IPC mechanisms such as intents, custom URLs, and network sources.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify that the app does not export sensitive functionality via custom URL schemes, unless these mechanisms are properly protected. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify that the app does not export sensitive functionality through IPC facilities, unless these mechanisms are properly protected. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify that JavaScript is disabled in WebViews unless explicitly required. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify that WebViews are configured to allow only the minimum set of protocol handlers required (ideally, only https). Potentially dangerous handlers, such as file, tel and app-id, are disabled. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify that object serialization, if any, is implemented using safe serialization APIs. </t>
-  </si>
-  <si>
     <t>7.1</t>
   </si>
   <si>
@@ -403,33 +265,6 @@
     <t>Code Quality and Build Settings</t>
   </si>
   <si>
-    <t>Verify that the app is signed and provisioned with valid certificate.</t>
-  </si>
-  <si>
-    <t>Verify that the app has been built in release mode, with settings appropriate for a release build (e.g. non-debuggable).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify that debugging symbols have been removed from native binaries. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify that debugging code has been removed, and the app does not log verbose errors or debugging messages. </t>
-  </si>
-  <si>
-    <t>Verify that the app catches and handles possible exceptions.</t>
-  </si>
-  <si>
-    <t>Verify that in unmanaged code, memory is allocated, freed and used securely.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify that the app educates the user about the types of personally identifiable information processed, as well as security best practices the user should follow in using the app. </t>
-  </si>
-  <si>
-    <t>Verify that the app does not use cryptographic protocols or algorithms that are widely considered depreciated for security purposes.</t>
-  </si>
-  <si>
-    <t>Verify that the TLS settings are in line with current best practices, as far as they are supported by the mobile operating system.</t>
-  </si>
-  <si>
     <t>8.10</t>
   </si>
   <si>
@@ -604,129 +439,12 @@
     <t>V8: Resiliency Against Reverse Engineering</t>
   </si>
   <si>
-    <t>Testing For Sensitive Data in Local Data Storage</t>
-  </si>
-  <si>
-    <t>Testing For Sensitive Data in Logs</t>
-  </si>
-  <si>
-    <t>Testing Whether Sensitive Data Is Sent To Third Parties</t>
-  </si>
-  <si>
-    <t>Testing Whether the Keyboard Cache Is Disabled for Text Input Fields</t>
-  </si>
-  <si>
     <t>-</t>
   </si>
   <si>
-    <t>Testing Whether Sensitive Data Is Exposed via IPC Mechanisms</t>
-  </si>
-  <si>
-    <t>Testing for Sensitive Data in Backups</t>
-  </si>
-  <si>
-    <t>Testing for Sensitive Information in Auto-Generated Screenshots</t>
-  </si>
-  <si>
-    <t>Testing for Sensitive Data in Memory</t>
-  </si>
-  <si>
-    <t>Verifying Key Management</t>
-  </si>
-  <si>
-    <t>Testing for Custom Implementations of Cryptography</t>
-  </si>
-  <si>
-    <t>Verifying the Configuration of Cryptographic Standard Algorithms</t>
-  </si>
-  <si>
-    <t>Testing for Insecure and/or Deprecated Cryptographic Algorithms</t>
-  </si>
-  <si>
-    <t>Testing Random Number Generation</t>
-  </si>
-  <si>
-    <t>Verifying that Users Are Properly Authenticated</t>
-  </si>
-  <si>
-    <t>Testing Session Management</t>
-  </si>
-  <si>
-    <t>Testing the Password Policy</t>
-  </si>
-  <si>
-    <t>Testing the Logout Functionality</t>
-  </si>
-  <si>
-    <t>Testing Excessive Login Attempts</t>
-  </si>
-  <si>
-    <t>Testing Biometric Authentication</t>
-  </si>
-  <si>
-    <t>Testing the Session Timeout</t>
-  </si>
-  <si>
-    <t>Testing 2-Factor Authentication</t>
-  </si>
-  <si>
-    <t>Testing Step-up Authentication</t>
-  </si>
-  <si>
-    <t>Testing for Unencrypted Sensitive Data on the Network</t>
-  </si>
-  <si>
-    <t>Verifying the TLS Settings</t>
-  </si>
-  <si>
-    <t>Testing Endpoint Identify Verification</t>
-  </si>
-  <si>
-    <t>Testing Custom Certificate Stores and SSL Pinning</t>
-  </si>
-  <si>
-    <t>Verifying that Critical Operations Use Secure Communication Channels</t>
-  </si>
-  <si>
-    <t>Testing Input Validation and Sanitization</t>
-  </si>
-  <si>
-    <t>Testing Custom URL Schemes</t>
-  </si>
-  <si>
-    <t>Testing JavaScript Execution in WebViews</t>
-  </si>
-  <si>
-    <t>Verifying That the App is Properly Signed</t>
-  </si>
-  <si>
-    <t>Testing for Debugging Symbols</t>
-  </si>
-  <si>
-    <t>Testing for Debugging Code and Verbose Error Logging</t>
-  </si>
-  <si>
-    <t>Verifying Compiler Settings</t>
-  </si>
-  <si>
-    <t>Testing Exception Handling</t>
-  </si>
-  <si>
     <t>Platform Interaction</t>
   </si>
   <si>
-    <t>Testing Advanced Root Detection</t>
-  </si>
-  <si>
-    <t>Testing Debugging Defenses</t>
-  </si>
-  <si>
-    <t>Testing File Integrity Checks</t>
-  </si>
-  <si>
-    <t>Testing Device Binding</t>
-  </si>
-  <si>
     <t>Resiliency Against Reverse Engineering - iOS</t>
   </si>
   <si>
@@ -736,9 +454,6 @@
     <t>Mobile Application Security Requirements - iOS</t>
   </si>
   <si>
-    <t>Testing for Sensitive Data Disclosure Through the User Interface</t>
-  </si>
-  <si>
     <t>0.8.1</t>
   </si>
   <si>
@@ -790,63 +505,18 @@
     <t>If native methods of the app are exposed to a WebView, verify that the WebView only renders JavaScript contained within the app package.</t>
   </si>
   <si>
-    <t>Verify that the app only depends on up to date connectivity- and security libraries.</t>
-  </si>
-  <si>
-    <t>Verify that the remote endpoint uses server side signed tokens, if stateless authentication is used, to authenticate client requests without sending the user's credentials.</t>
-  </si>
-  <si>
     <t>4.11</t>
   </si>
   <si>
-    <t>Verify that the remote endpoint uses randomly generated session identifiers, if classical server side session management is used, to authenticate client requests without sending the user's credentials.</t>
-  </si>
-  <si>
-    <t>Verify that the app implements multiple different responses to tampering, debugging and emulation (requirements 8.1 - 8.6), including stealthy responses that don't simply terminate the app.</t>
-  </si>
-  <si>
-    <t>Verify that the detection mechanisms trigger responses of different types, including delayed and stealthy responses.</t>
-  </si>
-  <si>
-    <t>Verify that all executable files and libraries belonging to the app are either encrypted on the file level and/or important code and data segments inside the executables are encrypted or packed. Trivial static analysis does not reveal important code or data.</t>
-  </si>
-  <si>
-    <t>Verify that if the goal of obfuscation is to protect sensitive computations, an obfuscation scheme is used that is both appropriate for the particular task and robust against manual and automated de-obfuscation methods, considering currently published research. The effectiveness of the obfuscation scheme must be verified through manual testing. Note that hardware-based isolation features are prefered over obfuscation whenever possible.</t>
-  </si>
-  <si>
     <t>Sync with MASVS (update requirements of domain 4 and R)</t>
   </si>
   <si>
     <t>7.9</t>
   </si>
   <si>
-    <t>Verify that all third party components used by the mobile app, such as libraries and frameworks, are identified, and checked for known vulnerabilities.</t>
-  </si>
-  <si>
-    <t>Verify that a mechanism for enforcing updates of the mobile app exists.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify that security is addressed within all parts of the software development lifecycle. </t>
-  </si>
-  <si>
-    <t>Verify that no sensitive data, such as passwords or pins, is exposed through the user interface.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify that no sensitive data is included in backups generated by the mobile operating system. </t>
-  </si>
-  <si>
-    <t>Verify that the remote endpoint terminates the existing session when the user logs out.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify that sessions are terminated at the remote endpoint or tokens expire after a predefined period of inactivity. </t>
-  </si>
-  <si>
     <t>Sync with MASVS (update requirements of domain 1, 4 and 6)</t>
   </si>
   <si>
-    <t>Verify that the remote endpoint implements a mechanism to protect against the submission of credentials an excessive number of times.</t>
-  </si>
-  <si>
     <t>8.9</t>
   </si>
   <si>
@@ -859,16 +529,7 @@
     <t>Sync with MASVS (update requirements of domain 3 and 8)</t>
   </si>
   <si>
-    <t>Verify that system credential storage facilities are used appropriately to store sensitive data, such as PII, user credentials or cryptographic keys.</t>
-  </si>
-  <si>
-    <t>Verify that no sensitive data is stored outside of the app container or system credential storage facilities.</t>
-  </si>
-  <si>
     <t>Sync with MASVS (update requirements of domain 2), change links to new Gitbook</t>
-  </si>
-  <si>
-    <t>Testing Stateless Authentication</t>
   </si>
   <si>
     <t>All app components are identified and known to be needed.</t>
@@ -1201,7 +862,11 @@
       </rPr>
       <t xml:space="preserve">
 - Rewriting the "Detailed Verification Requirement" columns to match the wording of the MASVS
-- Add hyperlink to MSTG chapters for V7.5 on Android
+- Adding 0x05/0x06 hyperlinks to MSTG for V3.3+3.5 (previously both 0x04)
+- Adding 0x05 hyperlink to MSTG for Android-V7.5 (previously blank)
+- Adding 0x06 hyperlink to MSTG for iOS-V6.1+6.6+6.7+6.8+7.5+7.8 (previously blank)
+- Updates the linktext of iOS-V5.3 to "Testing Custom Certificate Stores and SSL Pinning" as there's no separate paragraph for "Testing Endpoint Identify Verification"
+- Updates the linktext of iOS-V8.1 to "Testing Jailbreak Detection" (previously "Advanced Root Detection" which is the wrong term for the platform)
 </t>
     </r>
     <r>
@@ -1212,7 +877,8 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>Coupling the checklist version to a specific MASVS/MSTG version</t>
+      <t xml:space="preserve">
+Coupling the checklist version to a specific MASVS/MSTG versio</t>
     </r>
     <r>
       <rPr>
@@ -1220,10 +886,11 @@
         <color theme="1"/>
         <rFont val="Calibri"/>
       </rPr>
-      <t xml:space="preserve">
-- Reflecting MASVS/MSTG version in the "Dashboard" tab in cell
-- Rewriting links to Github instead of Gitbook to be able to link the checklist to a specific version by github tag
-- Adding a column "MASVS version" to this "version history" worksheet to reflect the link between checklist- and MASVS/MSTG versions
+      <t xml:space="preserve">n and shifting to github.com instead of gitbook.io
+- Reflecting MASVS/MSTG version in the "Dashboard" worksheet in cell D11 (named range "MASVS_VERSION")
+- Reflecting the "root" of the MSTG version on github.com in the "Dashboard" worksheet in cell D12 (named range "BASE_URL")
+- Composing the hyperlinks to the MSTG dynamically with formulas to simplify future maintenance and multilingual support by referencing the two named ranges above
+- Adding a column "MASVS version" to this "version history" worksheet to reflect the link between versioning of this checklist and MASVS/MSTG
 </t>
     </r>
     <r>
@@ -1234,8 +901,8 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">Syncing "Anti-RE" worksheets to match the L1/L2 "Security Requirements" worksheets
-</t>
+      <t xml:space="preserve">
+Syncing "Anti-RE" worksheets to better match the L1/L2 "Security Requirements" worksheets</t>
     </r>
     <r>
       <rPr>
@@ -1244,15 +911,37 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>- Adding "ID" header to "Anti-RE" worksheets
-- Removing inner cell borders of the "Anti-RE" worksheets
-Housekeeping/Misc
+      <t xml:space="preserve">
+- Adding "ID" header
+- Removing inner cell borders
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+Housekeeping/Mis</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>c
 - Adding missing "-" in the "Testing procedure" columns for where there is no testcase in the MSTG
-- Composing the links dynamically with formulas to simplify future maintenance and multilingual support
 - Adding missing cell-border lines
 - Setting all ID's to "x.y" formatting. Was previously a mix of "x.y" and "x,y"
-- Setting the cell type of the ID column to "Text" to prevent Excel from forcing the decimal point from a period to a comma
-- Resetting all sheets' zoom levels to 100%</t>
+- Setting the cell type of the ID columns to "Text" to prevent Excel from forcing the decimal point from a period to a comma
+- Enabled gridlines on both Android worksheets to improve readability (inspired by the iOS worksheets)
+- Resetting all worksheets' zoom levels to 100%
+- Presetting iOS-2.11 to "N/A" (previously unset)</t>
     </r>
   </si>
 </sst>
@@ -1561,7 +1250,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="39">
+  <borders count="36">
     <border>
       <left/>
       <right/>
@@ -1960,37 +1649,6 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -2057,7 +1715,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="139">
+  <cellXfs count="147">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
@@ -2185,15 +1843,6 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -2245,9 +1894,6 @@
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="9" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2357,27 +2003,14 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="7" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -2418,15 +2051,44 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="33" fillId="2" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="33" fillId="4" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="33" fillId="4" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="9" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="9" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="63">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -2493,7 +2155,94 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 3" xfId="62" xr:uid="{34BD3A51-AA52-F643-9E6A-B40E3FA0D56F}"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="14">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -3669,7 +3418,7 @@
   <dimension ref="B1:D47"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:D8"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3681,71 +3430,71 @@
   <sheetData>
     <row r="1" spans="2:4" ht="8" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B2" s="84" t="s">
-        <v>335</v>
-      </c>
-      <c r="C2" s="85"/>
-      <c r="D2" s="86"/>
+      <c r="B2" s="80" t="s">
+        <v>222</v>
+      </c>
+      <c r="C2" s="81"/>
+      <c r="D2" s="82"/>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B3" s="87"/>
-      <c r="C3" s="88"/>
-      <c r="D3" s="89"/>
+      <c r="B3" s="83"/>
+      <c r="C3" s="84"/>
+      <c r="D3" s="85"/>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B4" s="87"/>
-      <c r="C4" s="88"/>
-      <c r="D4" s="89"/>
+      <c r="B4" s="83"/>
+      <c r="C4" s="84"/>
+      <c r="D4" s="85"/>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B5" s="87"/>
-      <c r="C5" s="88"/>
-      <c r="D5" s="89"/>
+      <c r="B5" s="83"/>
+      <c r="C5" s="84"/>
+      <c r="D5" s="85"/>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B6" s="87"/>
-      <c r="C6" s="88"/>
-      <c r="D6" s="89"/>
+      <c r="B6" s="83"/>
+      <c r="C6" s="84"/>
+      <c r="D6" s="85"/>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B7" s="87"/>
-      <c r="C7" s="88"/>
-      <c r="D7" s="89"/>
+      <c r="B7" s="83"/>
+      <c r="C7" s="84"/>
+      <c r="D7" s="85"/>
     </row>
     <row r="8" spans="2:4" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="90"/>
-      <c r="C8" s="91"/>
-      <c r="D8" s="92"/>
+      <c r="B8" s="86"/>
+      <c r="C8" s="87"/>
+      <c r="D8" s="88"/>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B9" s="93" t="s">
-        <v>162</v>
-      </c>
-      <c r="C9" s="81"/>
-      <c r="D9" s="82"/>
+      <c r="B9" s="89" t="s">
+        <v>107</v>
+      </c>
+      <c r="C9" s="77"/>
+      <c r="D9" s="78"/>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
-        <v>139</v>
+        <v>84</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="3"/>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B11" s="79" t="s">
-        <v>336</v>
-      </c>
-      <c r="C11" s="80"/>
+      <c r="B11" s="75" t="s">
+        <v>223</v>
+      </c>
+      <c r="C11" s="76"/>
       <c r="D11" s="12" t="s">
-        <v>337</v>
+        <v>224</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B12" s="67" t="s">
-        <v>338</v>
-      </c>
-      <c r="C12" s="68"/>
-      <c r="D12" s="71" t="str">
+      <c r="B12" s="64" t="s">
+        <v>225</v>
+      </c>
+      <c r="C12" s="65"/>
+      <c r="D12" s="68" t="str">
         <f>HYPERLINK(
 _xlfn.CONCAT(
 "https://github.com/OWASP/owasp-mstg/blob/",
@@ -3755,243 +3504,243 @@
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B13" s="79" t="s">
-        <v>140</v>
-      </c>
-      <c r="C13" s="80"/>
+      <c r="B13" s="75" t="s">
+        <v>85</v>
+      </c>
+      <c r="C13" s="76"/>
       <c r="D13" s="12"/>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B14" s="74" t="s">
-        <v>141</v>
-      </c>
-      <c r="C14" s="83"/>
+      <c r="B14" s="70" t="s">
+        <v>86</v>
+      </c>
+      <c r="C14" s="79"/>
       <c r="D14" s="12"/>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B15" s="79" t="s">
-        <v>151</v>
-      </c>
-      <c r="C15" s="80"/>
+      <c r="B15" s="75" t="s">
+        <v>96</v>
+      </c>
+      <c r="C15" s="76"/>
       <c r="D15" s="12"/>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B16" s="79" t="s">
-        <v>142</v>
-      </c>
-      <c r="C16" s="80"/>
+      <c r="B16" s="75" t="s">
+        <v>87</v>
+      </c>
+      <c r="C16" s="76"/>
       <c r="D16" s="12"/>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B17" s="79" t="s">
-        <v>232</v>
-      </c>
-      <c r="C17" s="80"/>
+      <c r="B17" s="75" t="s">
+        <v>137</v>
+      </c>
+      <c r="C17" s="76"/>
       <c r="D17" s="12"/>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B18" s="79" t="s">
-        <v>161</v>
-      </c>
-      <c r="C18" s="80"/>
+      <c r="B18" s="75" t="s">
+        <v>106</v>
+      </c>
+      <c r="C18" s="76"/>
       <c r="D18" s="12" t="s">
-        <v>234</v>
+        <v>139</v>
       </c>
     </row>
     <row r="19" spans="2:4" ht="70.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="79" t="s">
-        <v>163</v>
-      </c>
-      <c r="C19" s="80"/>
+      <c r="B19" s="75" t="s">
+        <v>108</v>
+      </c>
+      <c r="C19" s="76"/>
       <c r="D19" s="12" t="s">
-        <v>233</v>
+        <v>138</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B20" s="81"/>
-      <c r="C20" s="81"/>
-      <c r="D20" s="82"/>
+      <c r="B20" s="77"/>
+      <c r="C20" s="77"/>
+      <c r="D20" s="78"/>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B21" s="1" t="s">
-        <v>152</v>
+        <v>97</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="3"/>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B22" s="4" t="s">
-        <v>143</v>
+        <v>88</v>
       </c>
       <c r="C22" s="5"/>
       <c r="D22" s="12"/>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B23" s="79" t="s">
-        <v>153</v>
-      </c>
-      <c r="C23" s="80"/>
+      <c r="B23" s="75" t="s">
+        <v>98</v>
+      </c>
+      <c r="C23" s="76"/>
       <c r="D23" s="12"/>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B24" s="79" t="s">
-        <v>154</v>
-      </c>
-      <c r="C24" s="80"/>
+      <c r="B24" s="75" t="s">
+        <v>99</v>
+      </c>
+      <c r="C24" s="76"/>
       <c r="D24" s="12"/>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B25" s="79" t="s">
-        <v>155</v>
-      </c>
-      <c r="C25" s="80"/>
+      <c r="B25" s="75" t="s">
+        <v>100</v>
+      </c>
+      <c r="C25" s="76"/>
       <c r="D25" s="12"/>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B26" s="79" t="s">
-        <v>156</v>
-      </c>
-      <c r="C26" s="80"/>
+      <c r="B26" s="75" t="s">
+        <v>101</v>
+      </c>
+      <c r="C26" s="76"/>
       <c r="D26" s="12"/>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B27" s="81"/>
-      <c r="C27" s="81"/>
-      <c r="D27" s="82"/>
+      <c r="B27" s="77"/>
+      <c r="C27" s="77"/>
+      <c r="D27" s="78"/>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B28" s="1" t="s">
-        <v>157</v>
+        <v>102</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="3"/>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B29" s="62" t="s">
-        <v>143</v>
-      </c>
-      <c r="C29" s="63"/>
+      <c r="B29" s="59" t="s">
+        <v>88</v>
+      </c>
+      <c r="C29" s="60"/>
       <c r="D29" s="12"/>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B30" s="79" t="s">
-        <v>144</v>
-      </c>
-      <c r="C30" s="80"/>
+      <c r="B30" s="75" t="s">
+        <v>89</v>
+      </c>
+      <c r="C30" s="76"/>
       <c r="D30" s="12"/>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B31" s="79" t="s">
-        <v>154</v>
-      </c>
-      <c r="C31" s="80"/>
+      <c r="B31" s="75" t="s">
+        <v>99</v>
+      </c>
+      <c r="C31" s="76"/>
       <c r="D31" s="12"/>
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B32" s="79" t="s">
-        <v>155</v>
-      </c>
-      <c r="C32" s="80"/>
+      <c r="B32" s="75" t="s">
+        <v>100</v>
+      </c>
+      <c r="C32" s="76"/>
       <c r="D32" s="12"/>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B33" s="79" t="s">
-        <v>158</v>
-      </c>
-      <c r="C33" s="80"/>
+      <c r="B33" s="75" t="s">
+        <v>103</v>
+      </c>
+      <c r="C33" s="76"/>
       <c r="D33" s="12"/>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B34" s="81"/>
-      <c r="C34" s="81"/>
-      <c r="D34" s="82"/>
+      <c r="B34" s="77"/>
+      <c r="C34" s="77"/>
+      <c r="D34" s="78"/>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B35" s="1" t="s">
-        <v>145</v>
+        <v>90</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" s="3"/>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B36" s="76"/>
-      <c r="C36" s="77"/>
-      <c r="D36" s="78"/>
+      <c r="B36" s="72"/>
+      <c r="C36" s="73"/>
+      <c r="D36" s="74"/>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B37" s="74" t="s">
-        <v>146</v>
-      </c>
-      <c r="C37" s="75"/>
-      <c r="D37" s="53"/>
+      <c r="B37" s="70" t="s">
+        <v>91</v>
+      </c>
+      <c r="C37" s="71"/>
+      <c r="D37" s="50"/>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B38" s="74" t="s">
-        <v>147</v>
-      </c>
-      <c r="C38" s="75"/>
-      <c r="D38" s="53"/>
+      <c r="B38" s="70" t="s">
+        <v>92</v>
+      </c>
+      <c r="C38" s="71"/>
+      <c r="D38" s="50"/>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B39" s="74" t="s">
-        <v>148</v>
-      </c>
-      <c r="C39" s="75"/>
-      <c r="D39" s="53"/>
+      <c r="B39" s="70" t="s">
+        <v>93</v>
+      </c>
+      <c r="C39" s="71"/>
+      <c r="D39" s="50"/>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B40" s="74" t="s">
-        <v>149</v>
-      </c>
-      <c r="C40" s="75"/>
-      <c r="D40" s="54"/>
+      <c r="B40" s="70" t="s">
+        <v>94</v>
+      </c>
+      <c r="C40" s="71"/>
+      <c r="D40" s="51"/>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B41" s="74" t="s">
-        <v>150</v>
-      </c>
-      <c r="C41" s="75"/>
-      <c r="D41" s="53"/>
+      <c r="B41" s="70" t="s">
+        <v>95</v>
+      </c>
+      <c r="C41" s="71"/>
+      <c r="D41" s="50"/>
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B42" s="76"/>
-      <c r="C42" s="77"/>
-      <c r="D42" s="78"/>
+      <c r="B42" s="72"/>
+      <c r="C42" s="73"/>
+      <c r="D42" s="74"/>
     </row>
     <row r="43" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B43" s="74" t="s">
-        <v>146</v>
-      </c>
-      <c r="C43" s="75"/>
-      <c r="D43" s="53"/>
+      <c r="B43" s="70" t="s">
+        <v>91</v>
+      </c>
+      <c r="C43" s="71"/>
+      <c r="D43" s="50"/>
     </row>
     <row r="44" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B44" s="74" t="s">
-        <v>147</v>
-      </c>
-      <c r="C44" s="75"/>
-      <c r="D44" s="53"/>
+      <c r="B44" s="70" t="s">
+        <v>92</v>
+      </c>
+      <c r="C44" s="71"/>
+      <c r="D44" s="50"/>
     </row>
     <row r="45" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B45" s="74" t="s">
-        <v>148</v>
-      </c>
-      <c r="C45" s="75"/>
-      <c r="D45" s="53"/>
+      <c r="B45" s="70" t="s">
+        <v>93</v>
+      </c>
+      <c r="C45" s="71"/>
+      <c r="D45" s="50"/>
     </row>
     <row r="46" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B46" s="74" t="s">
-        <v>149</v>
-      </c>
-      <c r="C46" s="75"/>
-      <c r="D46" s="54"/>
+      <c r="B46" s="70" t="s">
+        <v>94</v>
+      </c>
+      <c r="C46" s="71"/>
+      <c r="D46" s="51"/>
     </row>
     <row r="47" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B47" s="74" t="s">
-        <v>150</v>
-      </c>
-      <c r="C47" s="75"/>
-      <c r="D47" s="53"/>
+      <c r="B47" s="70" t="s">
+        <v>95</v>
+      </c>
+      <c r="C47" s="71"/>
+      <c r="D47" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="33">
@@ -4060,7 +3809,7 @@
     <row r="2" spans="2:24" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B2" s="7"/>
       <c r="C2" s="22" t="s">
-        <v>160</v>
+        <v>105</v>
       </c>
       <c r="D2" s="8"/>
       <c r="E2" s="8"/>
@@ -4074,11 +3823,11 @@
       <c r="F3" s="8"/>
     </row>
     <row r="4" spans="2:24" x14ac:dyDescent="0.15">
-      <c r="B4" s="98"/>
-      <c r="C4" s="98"/>
-      <c r="D4" s="98"/>
-      <c r="E4" s="98"/>
-      <c r="F4" s="98"/>
+      <c r="B4" s="94"/>
+      <c r="C4" s="94"/>
+      <c r="D4" s="94"/>
+      <c r="E4" s="94"/>
+      <c r="F4" s="94"/>
     </row>
     <row r="5" spans="2:24" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B5" s="20"/>
@@ -4093,16 +3842,16 @@
       <c r="D6" s="21"/>
       <c r="E6" s="21"/>
       <c r="F6" s="21"/>
-      <c r="G6" s="108" t="s">
-        <v>174</v>
-      </c>
-      <c r="H6" s="109"/>
-      <c r="I6" s="110"/>
-      <c r="V6" s="108" t="s">
-        <v>174</v>
-      </c>
-      <c r="W6" s="109"/>
-      <c r="X6" s="110"/>
+      <c r="G6" s="104" t="s">
+        <v>119</v>
+      </c>
+      <c r="H6" s="105"/>
+      <c r="I6" s="106"/>
+      <c r="V6" s="104" t="s">
+        <v>119</v>
+      </c>
+      <c r="W6" s="105"/>
+      <c r="X6" s="106"/>
     </row>
     <row r="7" spans="2:24" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B7" s="13"/>
@@ -4117,18 +3866,18 @@
       <c r="D8" s="20"/>
       <c r="E8" s="20"/>
       <c r="F8" s="20"/>
-      <c r="G8" s="99">
+      <c r="G8" s="95">
         <f>AVERAGE(G43:G50)*5</f>
         <v>2.5258318070818078</v>
       </c>
-      <c r="H8" s="100"/>
-      <c r="I8" s="101"/>
-      <c r="V8" s="99">
+      <c r="H8" s="96"/>
+      <c r="I8" s="97"/>
+      <c r="V8" s="95">
         <f>AVERAGE(K43:K50)*5</f>
         <v>0</v>
       </c>
-      <c r="W8" s="100"/>
-      <c r="X8" s="101"/>
+      <c r="W8" s="96"/>
+      <c r="X8" s="97"/>
     </row>
     <row r="9" spans="2:24" ht="91" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="21"/>
@@ -4136,12 +3885,12 @@
       <c r="D9" s="21"/>
       <c r="E9" s="21"/>
       <c r="F9" s="21"/>
-      <c r="G9" s="102"/>
-      <c r="H9" s="103"/>
-      <c r="I9" s="104"/>
-      <c r="V9" s="102"/>
-      <c r="W9" s="103"/>
-      <c r="X9" s="104"/>
+      <c r="G9" s="98"/>
+      <c r="H9" s="99"/>
+      <c r="I9" s="100"/>
+      <c r="V9" s="98"/>
+      <c r="W9" s="99"/>
+      <c r="X9" s="100"/>
     </row>
     <row r="10" spans="2:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="13"/>
@@ -4149,12 +3898,12 @@
       <c r="D10" s="13"/>
       <c r="E10" s="13"/>
       <c r="F10" s="13"/>
-      <c r="G10" s="102"/>
-      <c r="H10" s="103"/>
-      <c r="I10" s="104"/>
-      <c r="V10" s="102"/>
-      <c r="W10" s="103"/>
-      <c r="X10" s="104"/>
+      <c r="G10" s="98"/>
+      <c r="H10" s="99"/>
+      <c r="I10" s="100"/>
+      <c r="V10" s="98"/>
+      <c r="W10" s="99"/>
+      <c r="X10" s="100"/>
     </row>
     <row r="11" spans="2:24" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B11" s="13"/>
@@ -4162,19 +3911,19 @@
       <c r="D11" s="13"/>
       <c r="E11" s="13"/>
       <c r="F11" s="13"/>
-      <c r="G11" s="105"/>
-      <c r="H11" s="106"/>
-      <c r="I11" s="107"/>
-      <c r="V11" s="105"/>
-      <c r="W11" s="106"/>
-      <c r="X11" s="107"/>
+      <c r="G11" s="101"/>
+      <c r="H11" s="102"/>
+      <c r="I11" s="103"/>
+      <c r="V11" s="101"/>
+      <c r="W11" s="102"/>
+      <c r="X11" s="103"/>
     </row>
     <row r="12" spans="2:24" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="94"/>
-      <c r="C12" s="94"/>
-      <c r="D12" s="94"/>
-      <c r="E12" s="94"/>
-      <c r="F12" s="94"/>
+      <c r="B12" s="90"/>
+      <c r="C12" s="90"/>
+      <c r="D12" s="90"/>
+      <c r="E12" s="90"/>
+      <c r="F12" s="90"/>
     </row>
     <row r="13" spans="2:24" x14ac:dyDescent="0.15">
       <c r="B13" s="14"/>
@@ -4198,11 +3947,11 @@
       <c r="F15" s="13"/>
     </row>
     <row r="16" spans="2:24" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B16" s="94"/>
-      <c r="C16" s="94"/>
-      <c r="D16" s="94"/>
-      <c r="E16" s="94"/>
-      <c r="F16" s="94"/>
+      <c r="B16" s="90"/>
+      <c r="C16" s="90"/>
+      <c r="D16" s="90"/>
+      <c r="E16" s="90"/>
+      <c r="F16" s="90"/>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B17" s="14"/>
@@ -4220,7 +3969,7 @@
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B20" s="6" t="s">
-        <v>159</v>
+        <v>104</v>
       </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.15">
@@ -4255,48 +4004,48 @@
     </row>
     <row r="35" spans="3:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="41" spans="3:11" x14ac:dyDescent="0.15">
-      <c r="D41" s="95" t="s">
-        <v>172</v>
-      </c>
-      <c r="E41" s="96"/>
-      <c r="F41" s="96"/>
-      <c r="G41" s="97"/>
-      <c r="H41" s="95" t="s">
-        <v>173</v>
-      </c>
-      <c r="I41" s="96"/>
-      <c r="J41" s="96"/>
-      <c r="K41" s="97"/>
+      <c r="D41" s="91" t="s">
+        <v>117</v>
+      </c>
+      <c r="E41" s="92"/>
+      <c r="F41" s="92"/>
+      <c r="G41" s="93"/>
+      <c r="H41" s="91" t="s">
+        <v>118</v>
+      </c>
+      <c r="I41" s="92"/>
+      <c r="J41" s="92"/>
+      <c r="K41" s="93"/>
     </row>
     <row r="42" spans="3:11" x14ac:dyDescent="0.15">
       <c r="D42" s="17" t="s">
-        <v>168</v>
+        <v>113</v>
       </c>
       <c r="E42" s="17" t="s">
-        <v>169</v>
+        <v>114</v>
       </c>
       <c r="F42" s="17" t="s">
-        <v>170</v>
+        <v>115</v>
       </c>
       <c r="G42" s="17" t="s">
-        <v>171</v>
+        <v>116</v>
       </c>
       <c r="H42" s="17" t="s">
-        <v>168</v>
+        <v>113</v>
       </c>
       <c r="I42" s="17" t="s">
-        <v>169</v>
+        <v>114</v>
       </c>
       <c r="J42" s="17" t="s">
-        <v>170</v>
+        <v>115</v>
       </c>
       <c r="K42" s="17" t="s">
-        <v>171</v>
+        <v>116</v>
       </c>
     </row>
     <row r="43" spans="3:11" x14ac:dyDescent="0.15">
       <c r="C43" s="11" t="s">
-        <v>179</v>
+        <v>124</v>
       </c>
       <c r="D43" s="9">
         <v>5</v>
@@ -4331,7 +4080,7 @@
     </row>
     <row r="44" spans="3:11" x14ac:dyDescent="0.15">
       <c r="C44" s="11" t="s">
-        <v>180</v>
+        <v>125</v>
       </c>
       <c r="D44" s="9">
         <v>5</v>
@@ -4357,7 +4106,7 @@
       </c>
       <c r="J44" s="9">
         <f>COUNTIFS('Security Requirements - iOS'!F16:F27,'Security Requirements - Android'!B81)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K44" s="19">
         <f t="shared" si="1"/>
@@ -4366,7 +4115,7 @@
     </row>
     <row r="45" spans="3:11" x14ac:dyDescent="0.15">
       <c r="C45" s="11" t="s">
-        <v>181</v>
+        <v>126</v>
       </c>
       <c r="D45" s="9">
         <v>3</v>
@@ -4401,7 +4150,7 @@
     </row>
     <row r="46" spans="3:11" x14ac:dyDescent="0.15">
       <c r="C46" s="11" t="s">
-        <v>182</v>
+        <v>127</v>
       </c>
       <c r="D46" s="9">
         <v>2</v>
@@ -4436,7 +4185,7 @@
     </row>
     <row r="47" spans="3:11" x14ac:dyDescent="0.15">
       <c r="C47" s="11" t="s">
-        <v>183</v>
+        <v>128</v>
       </c>
       <c r="D47" s="9">
         <v>4</v>
@@ -4471,7 +4220,7 @@
     </row>
     <row r="48" spans="3:11" x14ac:dyDescent="0.15">
       <c r="C48" s="11" t="s">
-        <v>246</v>
+        <v>151</v>
       </c>
       <c r="D48" s="9">
         <v>6</v>
@@ -4506,7 +4255,7 @@
     </row>
     <row r="49" spans="3:11" x14ac:dyDescent="0.15">
       <c r="C49" s="11" t="s">
-        <v>184</v>
+        <v>129</v>
       </c>
       <c r="D49" s="9">
         <v>6</v>
@@ -4541,7 +4290,7 @@
     </row>
     <row r="50" spans="3:11" x14ac:dyDescent="0.15">
       <c r="C50" s="11" t="s">
-        <v>185</v>
+        <v>130</v>
       </c>
       <c r="D50" s="9">
         <v>5</v>
@@ -4596,7 +4345,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F14">
-    <cfRule type="expression" dxfId="1" priority="4">
+    <cfRule type="expression" dxfId="13" priority="4">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4610,7 +4359,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F18">
-    <cfRule type="expression" dxfId="0" priority="2">
+    <cfRule type="expression" dxfId="12" priority="2">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4625,44 +4374,46 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="B1:J85"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A30" zoomScaleNormal="100" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="G46" sqref="G46"/>
+    <sheetView topLeftCell="A56" zoomScaleNormal="100" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="G71" sqref="G71:H71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="1.83203125" customWidth="1"/>
-    <col min="2" max="2" width="8" style="120" customWidth="1"/>
-    <col min="3" max="3" width="96.6640625" style="52" customWidth="1"/>
-    <col min="4" max="5" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="53.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="30.83203125" customWidth="1"/>
-    <col min="10" max="11" width="10.83203125" customWidth="1"/>
+    <col min="1" max="1" width="1.83203125" style="130" customWidth="1"/>
+    <col min="2" max="2" width="8" style="144" customWidth="1"/>
+    <col min="3" max="3" width="96.6640625" style="145" customWidth="1"/>
+    <col min="4" max="5" width="6.6640625" style="130" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.83203125" style="130" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="60.33203125" style="130" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="30.83203125" style="130" customWidth="1"/>
+    <col min="9" max="9" width="11" style="130"/>
+    <col min="10" max="11" width="10.83203125" style="130" customWidth="1"/>
+    <col min="12" max="16384" width="11" style="130"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="19" x14ac:dyDescent="0.2">
-      <c r="B1" s="111" t="s">
-        <v>175</v>
-      </c>
-      <c r="C1" s="111"/>
-      <c r="D1" s="111"/>
-      <c r="E1" s="111"/>
-      <c r="F1" s="111"/>
-      <c r="G1" s="111"/>
-      <c r="H1" s="111"/>
+      <c r="B1" s="129" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1" s="129"/>
+      <c r="D1" s="129"/>
+      <c r="E1" s="129"/>
+      <c r="F1" s="129"/>
+      <c r="G1" s="129"/>
+      <c r="H1" s="129"/>
     </row>
     <row r="2" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B2" s="131"/>
-      <c r="C2" s="50"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43"/>
+      <c r="C2" s="132"/>
+      <c r="D2" s="133"/>
+      <c r="E2" s="133"/>
+      <c r="F2" s="133"/>
+      <c r="G2" s="133"/>
+      <c r="H2" s="133"/>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B3" s="132" t="s">
+      <c r="B3" s="123" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="26" t="s">
@@ -4675,17 +4426,17 @@
         <v>3</v>
       </c>
       <c r="F3" s="27" t="s">
-        <v>164</v>
+        <v>109</v>
       </c>
       <c r="G3" s="27" t="s">
-        <v>178</v>
+        <v>123</v>
       </c>
       <c r="H3" s="28" t="s">
-        <v>165</v>
+        <v>110</v>
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B4" s="133" t="s">
+      <c r="B4" s="124" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="29" t="s">
@@ -4698,11 +4449,11 @@
       <c r="H4" s="31"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B5" s="123" t="s">
+      <c r="B5" s="114" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="69" t="s">
-        <v>275</v>
+      <c r="C5" s="66" t="s">
+        <v>162</v>
       </c>
       <c r="D5" s="25" t="s">
         <v>7</v>
@@ -4712,16 +4463,16 @@
       </c>
       <c r="F5" s="33"/>
       <c r="G5" s="45" t="s">
-        <v>190</v>
-      </c>
-      <c r="H5" s="64"/>
+        <v>131</v>
+      </c>
+      <c r="H5" s="61"/>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B6" s="137" t="s">
-        <v>352</v>
-      </c>
-      <c r="C6" s="69" t="s">
-        <v>276</v>
+      <c r="B6" s="127" t="s">
+        <v>239</v>
+      </c>
+      <c r="C6" s="66" t="s">
+        <v>163</v>
       </c>
       <c r="D6" s="25" t="s">
         <v>7</v>
@@ -4731,16 +4482,16 @@
       </c>
       <c r="F6" s="33"/>
       <c r="G6" s="45" t="s">
-        <v>190</v>
-      </c>
-      <c r="H6" s="64"/>
+        <v>131</v>
+      </c>
+      <c r="H6" s="61"/>
     </row>
     <row r="7" spans="2:8" ht="32" x14ac:dyDescent="0.2">
-      <c r="B7" s="137" t="s">
-        <v>351</v>
-      </c>
-      <c r="C7" s="69" t="s">
-        <v>277</v>
+      <c r="B7" s="127" t="s">
+        <v>238</v>
+      </c>
+      <c r="C7" s="66" t="s">
+        <v>164</v>
       </c>
       <c r="D7" s="25" t="s">
         <v>7</v>
@@ -4750,16 +4501,16 @@
       </c>
       <c r="F7" s="33"/>
       <c r="G7" s="45" t="s">
-        <v>190</v>
-      </c>
-      <c r="H7" s="64"/>
+        <v>131</v>
+      </c>
+      <c r="H7" s="61"/>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B8" s="137" t="s">
-        <v>350</v>
-      </c>
-      <c r="C8" s="69" t="s">
-        <v>278</v>
+      <c r="B8" s="127" t="s">
+        <v>237</v>
+      </c>
+      <c r="C8" s="66" t="s">
+        <v>165</v>
       </c>
       <c r="D8" s="25" t="s">
         <v>7</v>
@@ -4769,130 +4520,130 @@
       </c>
       <c r="F8" s="33"/>
       <c r="G8" s="45" t="s">
-        <v>190</v>
-      </c>
-      <c r="H8" s="64"/>
+        <v>131</v>
+      </c>
+      <c r="H8" s="61"/>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B9" s="137" t="s">
-        <v>349</v>
-      </c>
-      <c r="C9" s="69" t="s">
-        <v>279</v>
+      <c r="B9" s="127" t="s">
+        <v>236</v>
+      </c>
+      <c r="C9" s="66" t="s">
+        <v>166</v>
       </c>
       <c r="D9" s="32"/>
       <c r="E9" s="44" t="s">
         <v>7</v>
       </c>
       <c r="F9" s="33" t="s">
-        <v>136</v>
+        <v>81</v>
       </c>
       <c r="G9" s="45" t="s">
-        <v>190</v>
-      </c>
-      <c r="H9" s="64"/>
+        <v>131</v>
+      </c>
+      <c r="H9" s="61"/>
     </row>
     <row r="10" spans="2:8" ht="32" x14ac:dyDescent="0.2">
-      <c r="B10" s="137" t="s">
-        <v>348</v>
-      </c>
-      <c r="C10" s="69" t="s">
-        <v>280</v>
+      <c r="B10" s="127" t="s">
+        <v>235</v>
+      </c>
+      <c r="C10" s="66" t="s">
+        <v>167</v>
       </c>
       <c r="D10" s="32"/>
       <c r="E10" s="44" t="s">
         <v>7</v>
       </c>
       <c r="F10" s="33" t="s">
-        <v>136</v>
+        <v>81</v>
       </c>
       <c r="G10" s="45" t="s">
-        <v>190</v>
-      </c>
-      <c r="H10" s="64"/>
+        <v>131</v>
+      </c>
+      <c r="H10" s="61"/>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B11" s="123" t="s">
+      <c r="B11" s="114" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="69" t="s">
-        <v>281</v>
+      <c r="C11" s="66" t="s">
+        <v>168</v>
       </c>
       <c r="D11" s="46"/>
       <c r="E11" s="44" t="s">
         <v>7</v>
       </c>
       <c r="F11" s="33" t="s">
-        <v>136</v>
+        <v>81</v>
       </c>
       <c r="G11" s="45" t="s">
-        <v>190</v>
-      </c>
-      <c r="H11" s="64"/>
+        <v>131</v>
+      </c>
+      <c r="H11" s="61"/>
     </row>
     <row r="12" spans="2:8" ht="32" x14ac:dyDescent="0.2">
-      <c r="B12" s="137" t="s">
-        <v>347</v>
-      </c>
-      <c r="C12" s="69" t="s">
-        <v>282</v>
+      <c r="B12" s="127" t="s">
+        <v>234</v>
+      </c>
+      <c r="C12" s="66" t="s">
+        <v>169</v>
       </c>
       <c r="D12" s="32"/>
       <c r="E12" s="44" t="s">
         <v>7</v>
       </c>
       <c r="F12" s="33" t="s">
-        <v>136</v>
+        <v>81</v>
       </c>
       <c r="G12" s="45" t="s">
-        <v>190</v>
-      </c>
-      <c r="H12" s="64"/>
+        <v>131</v>
+      </c>
+      <c r="H12" s="61"/>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B13" s="137" t="s">
-        <v>346</v>
-      </c>
-      <c r="C13" s="69" t="s">
-        <v>283</v>
+      <c r="B13" s="127" t="s">
+        <v>233</v>
+      </c>
+      <c r="C13" s="66" t="s">
+        <v>170</v>
       </c>
       <c r="D13" s="32"/>
       <c r="E13" s="44" t="s">
         <v>7</v>
       </c>
       <c r="F13" s="33" t="s">
-        <v>136</v>
+        <v>81</v>
       </c>
       <c r="G13" s="45" t="s">
-        <v>190</v>
-      </c>
-      <c r="H13" s="64"/>
+        <v>131</v>
+      </c>
+      <c r="H13" s="61"/>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B14" s="124" t="s">
+      <c r="B14" s="115" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="69" t="s">
-        <v>284</v>
+      <c r="C14" s="66" t="s">
+        <v>171</v>
       </c>
       <c r="D14" s="32"/>
       <c r="E14" s="44" t="s">
         <v>7</v>
       </c>
       <c r="F14" s="33" t="s">
-        <v>136</v>
+        <v>81</v>
       </c>
       <c r="G14" s="45" t="s">
-        <v>190</v>
-      </c>
-      <c r="H14" s="64"/>
+        <v>131</v>
+      </c>
+      <c r="H14" s="61"/>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B15" s="122" t="s">
+      <c r="B15" s="113" t="s">
         <v>10</v>
       </c>
       <c r="C15" s="34" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="D15" s="34"/>
       <c r="E15" s="47"/>
@@ -4901,11 +4652,11 @@
       <c r="H15" s="35"/>
     </row>
     <row r="16" spans="2:8" ht="32" x14ac:dyDescent="0.2">
-      <c r="B16" s="134" t="s">
+      <c r="B16" s="125" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="69" t="s">
-        <v>285</v>
+      <c r="C16" s="66" t="s">
+        <v>172</v>
       </c>
       <c r="D16" s="25" t="s">
         <v>7</v>
@@ -4914,7 +4665,7 @@
         <v>7</v>
       </c>
       <c r="F16" s="33"/>
-      <c r="G16" s="70" t="str">
+      <c r="G16" s="134" t="str">
         <f>HYPERLINK(
 _xlfn.CONCAT(
 BASE_URL,
@@ -4922,19 +4673,19 @@
 "Testing For Sensitive Data in Local Data Storage")</f>
         <v>Testing For Sensitive Data in Local Data Storage</v>
       </c>
-      <c r="H16" s="64"/>
+      <c r="H16" s="61"/>
     </row>
     <row r="17" spans="2:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="B17" s="134" t="s">
-        <v>65</v>
-      </c>
-      <c r="C17" s="69" t="s">
-        <v>286</v>
+      <c r="B17" s="125" t="s">
+        <v>48</v>
+      </c>
+      <c r="C17" s="66" t="s">
+        <v>173</v>
       </c>
       <c r="D17" s="25"/>
       <c r="E17" s="44"/>
       <c r="F17" s="33"/>
-      <c r="G17" s="66" t="str">
+      <c r="G17" s="63" t="str">
         <f>HYPERLINK(
 _xlfn.CONCAT(
 BASE_URL,
@@ -4942,14 +4693,14 @@
 "Testing For Sensitive Data in Local Data Storage")</f>
         <v>Testing For Sensitive Data in Local Data Storage</v>
       </c>
-      <c r="H17" s="64"/>
+      <c r="H17" s="61"/>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B18" s="134" t="s">
-        <v>66</v>
-      </c>
-      <c r="C18" s="69" t="s">
-        <v>287</v>
+      <c r="B18" s="125" t="s">
+        <v>49</v>
+      </c>
+      <c r="C18" s="66" t="s">
+        <v>174</v>
       </c>
       <c r="D18" s="25" t="s">
         <v>7</v>
@@ -4958,7 +4709,7 @@
         <v>7</v>
       </c>
       <c r="F18" s="33"/>
-      <c r="G18" s="70" t="str">
+      <c r="G18" s="134" t="str">
         <f>HYPERLINK(
 _xlfn.CONCAT(
 BASE_URL,
@@ -4966,14 +4717,14 @@
 "Testing For Sensitive Data in Logs")</f>
         <v>Testing For Sensitive Data in Logs</v>
       </c>
-      <c r="H18" s="64"/>
+      <c r="H18" s="61"/>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B19" s="134" t="s">
+      <c r="B19" s="125" t="s">
         <v>12</v>
       </c>
-      <c r="C19" s="69" t="s">
-        <v>288</v>
+      <c r="C19" s="66" t="s">
+        <v>175</v>
       </c>
       <c r="D19" s="25" t="s">
         <v>7</v>
@@ -4982,7 +4733,7 @@
         <v>7</v>
       </c>
       <c r="F19" s="33"/>
-      <c r="G19" s="70" t="str">
+      <c r="G19" s="134" t="str">
         <f>HYPERLINK(
 _xlfn.CONCAT(
 BASE_URL,
@@ -4990,14 +4741,14 @@
 "Testing Whether Sensitive Data Is Sent To Third Parties")</f>
         <v>Testing Whether Sensitive Data Is Sent To Third Parties</v>
       </c>
-      <c r="H19" s="64"/>
+      <c r="H19" s="61"/>
     </row>
     <row r="20" spans="2:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="B20" s="134" t="s">
-        <v>67</v>
-      </c>
-      <c r="C20" s="69" t="s">
-        <v>289</v>
+      <c r="B20" s="125" t="s">
+        <v>50</v>
+      </c>
+      <c r="C20" s="66" t="s">
+        <v>176</v>
       </c>
       <c r="D20" s="25" t="s">
         <v>7</v>
@@ -5006,7 +4757,7 @@
         <v>7</v>
       </c>
       <c r="F20" s="33"/>
-      <c r="G20" s="73" t="str">
+      <c r="G20" s="135" t="str">
         <f>HYPERLINK(
 _xlfn.CONCAT(
 BASE_URL,
@@ -5014,14 +4765,14 @@
 "Testing Whether the Keyboard Cache Is Disabled for Text Input Fields")</f>
         <v>Testing Whether the Keyboard Cache Is Disabled for Text Input Fields</v>
       </c>
-      <c r="H20" s="64"/>
+      <c r="H20" s="61"/>
     </row>
     <row r="21" spans="2:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="B21" s="134" t="s">
+      <c r="B21" s="125" t="s">
         <v>13</v>
       </c>
-      <c r="C21" s="69" t="s">
-        <v>290</v>
+      <c r="C21" s="66" t="s">
+        <v>177</v>
       </c>
       <c r="D21" s="25" t="s">
         <v>7</v>
@@ -5030,7 +4781,7 @@
         <v>7</v>
       </c>
       <c r="F21" s="33"/>
-      <c r="G21" s="73" t="str">
+      <c r="G21" s="135" t="str">
         <f>HYPERLINK(
 _xlfn.CONCAT(
 BASE_URL,
@@ -5038,14 +4789,14 @@
 "Testing Whether Sensitive Data Is Exposed via IPC Mechanisms")</f>
         <v>Testing Whether Sensitive Data Is Exposed via IPC Mechanisms</v>
       </c>
-      <c r="H21" s="64"/>
+      <c r="H21" s="61"/>
     </row>
     <row r="22" spans="2:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="B22" s="134" t="s">
+      <c r="B22" s="125" t="s">
         <v>14</v>
       </c>
-      <c r="C22" s="69" t="s">
-        <v>291</v>
+      <c r="C22" s="66" t="s">
+        <v>178</v>
       </c>
       <c r="D22" s="25" t="s">
         <v>7</v>
@@ -5054,7 +4805,7 @@
         <v>7</v>
       </c>
       <c r="F22" s="33"/>
-      <c r="G22" s="73" t="str">
+      <c r="G22" s="135" t="str">
         <f>HYPERLINK(
 _xlfn.CONCAT(
 BASE_URL,
@@ -5062,23 +4813,23 @@
 "Testing for Sensitive Data Disclosure Through the User Interface")</f>
         <v>Testing for Sensitive Data Disclosure Through the User Interface</v>
       </c>
-      <c r="H22" s="64"/>
+      <c r="H22" s="61"/>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B23" s="134" t="s">
+      <c r="B23" s="125" t="s">
         <v>15</v>
       </c>
-      <c r="C23" s="69" t="s">
-        <v>292</v>
+      <c r="C23" s="66" t="s">
+        <v>179</v>
       </c>
       <c r="D23" s="48"/>
       <c r="E23" s="44" t="s">
         <v>7</v>
       </c>
       <c r="F23" s="33" t="s">
-        <v>136</v>
-      </c>
-      <c r="G23" s="70" t="str">
+        <v>81</v>
+      </c>
+      <c r="G23" s="134" t="str">
         <f>HYPERLINK(
 _xlfn.CONCAT(
 BASE_URL,
@@ -5086,23 +4837,23 @@
 "Testing for Sensitive Data in Backups")</f>
         <v>Testing for Sensitive Data in Backups</v>
       </c>
-      <c r="H23" s="64"/>
+      <c r="H23" s="61"/>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B24" s="134" t="s">
+      <c r="B24" s="125" t="s">
         <v>16</v>
       </c>
-      <c r="C24" s="69" t="s">
-        <v>293</v>
+      <c r="C24" s="66" t="s">
+        <v>180</v>
       </c>
       <c r="D24" s="48"/>
       <c r="E24" s="44" t="s">
         <v>7</v>
       </c>
       <c r="F24" s="33" t="s">
-        <v>136</v>
-      </c>
-      <c r="G24" s="70" t="str">
+        <v>81</v>
+      </c>
+      <c r="G24" s="134" t="str">
         <f>HYPERLINK(
 _xlfn.CONCAT(
 BASE_URL,
@@ -5110,23 +4861,23 @@
 "Testing for Sensitive Information in Auto-Generated Screenshots")</f>
         <v>Testing for Sensitive Information in Auto-Generated Screenshots</v>
       </c>
-      <c r="H24" s="64"/>
+      <c r="H24" s="61"/>
     </row>
     <row r="25" spans="2:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="B25" s="134" t="s">
-        <v>68</v>
-      </c>
-      <c r="C25" s="69" t="s">
-        <v>294</v>
+      <c r="B25" s="125" t="s">
+        <v>51</v>
+      </c>
+      <c r="C25" s="66" t="s">
+        <v>181</v>
       </c>
       <c r="D25" s="48"/>
       <c r="E25" s="44" t="s">
         <v>7</v>
       </c>
       <c r="F25" s="33" t="s">
-        <v>136</v>
-      </c>
-      <c r="G25" s="73" t="str">
+        <v>81</v>
+      </c>
+      <c r="G25" s="135" t="str">
         <f>HYPERLINK(
 _xlfn.CONCAT(
 BASE_URL,
@@ -5134,23 +4885,23 @@
 "Testing for Sensitive Data in Memory")</f>
         <v>Testing for Sensitive Data in Memory</v>
       </c>
-      <c r="H25" s="64"/>
+      <c r="H25" s="61"/>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B26" s="134" t="s">
-        <v>69</v>
-      </c>
-      <c r="C26" s="69" t="s">
-        <v>295</v>
+      <c r="B26" s="125" t="s">
+        <v>52</v>
+      </c>
+      <c r="C26" s="66" t="s">
+        <v>182</v>
       </c>
       <c r="D26" s="48"/>
       <c r="E26" s="44" t="s">
         <v>7</v>
       </c>
       <c r="F26" s="33" t="s">
-        <v>136</v>
-      </c>
-      <c r="G26" s="70" t="str">
+        <v>81</v>
+      </c>
+      <c r="G26" s="134" t="str">
         <f>HYPERLINK(
 _xlfn.CONCAT(
 BASE_URL,
@@ -5158,33 +4909,33 @@
 "Testing the Device-Access-Security Policy")</f>
         <v>Testing the Device-Access-Security Policy</v>
       </c>
-      <c r="H26" s="64"/>
+      <c r="H26" s="61"/>
     </row>
     <row r="27" spans="2:8" ht="32" x14ac:dyDescent="0.2">
-      <c r="B27" s="134" t="s">
+      <c r="B27" s="125" t="s">
         <v>17</v>
       </c>
-      <c r="C27" s="69" t="s">
-        <v>296</v>
+      <c r="C27" s="66" t="s">
+        <v>183</v>
       </c>
       <c r="D27" s="48"/>
       <c r="E27" s="44" t="s">
         <v>7</v>
       </c>
       <c r="F27" s="33" t="s">
-        <v>136</v>
+        <v>81</v>
       </c>
       <c r="G27" s="45" t="s">
-        <v>190</v>
-      </c>
-      <c r="H27" s="64"/>
+        <v>131</v>
+      </c>
+      <c r="H27" s="61"/>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B28" s="122" t="s">
+      <c r="B28" s="113" t="s">
         <v>18</v>
       </c>
       <c r="C28" s="34" t="s">
-        <v>77</v>
+        <v>53</v>
       </c>
       <c r="D28" s="34"/>
       <c r="E28" s="47"/>
@@ -5193,11 +4944,11 @@
       <c r="H28" s="35"/>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B29" s="134" t="s">
+      <c r="B29" s="125" t="s">
         <v>19</v>
       </c>
-      <c r="C29" s="69" t="s">
-        <v>297</v>
+      <c r="C29" s="66" t="s">
+        <v>184</v>
       </c>
       <c r="D29" s="25" t="s">
         <v>7</v>
@@ -5206,7 +4957,7 @@
         <v>7</v>
       </c>
       <c r="F29" s="33"/>
-      <c r="G29" s="70" t="str">
+      <c r="G29" s="134" t="str">
         <f>HYPERLINK(
 _xlfn.CONCAT(
 BASE_URL,
@@ -5214,14 +4965,14 @@
 "Verifying Key Management")</f>
         <v>Verifying Key Management</v>
       </c>
-      <c r="H29" s="64"/>
+      <c r="H29" s="61"/>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B30" s="134" t="s">
+      <c r="B30" s="125" t="s">
         <v>20</v>
       </c>
-      <c r="C30" s="69" t="s">
-        <v>298</v>
+      <c r="C30" s="66" t="s">
+        <v>185</v>
       </c>
       <c r="D30" s="25" t="s">
         <v>7</v>
@@ -5230,7 +4981,7 @@
         <v>7</v>
       </c>
       <c r="F30" s="33"/>
-      <c r="G30" s="70" t="str">
+      <c r="G30" s="134" t="str">
         <f>HYPERLINK(
 _xlfn.CONCAT(
 BASE_URL,
@@ -5238,14 +4989,14 @@
 "Testing for Custom Implementations of Cryptography")</f>
         <v>Testing for Custom Implementations of Cryptography</v>
       </c>
-      <c r="H30" s="64"/>
+      <c r="H30" s="61"/>
     </row>
     <row r="31" spans="2:8" ht="32" x14ac:dyDescent="0.2">
-      <c r="B31" s="134" t="s">
+      <c r="B31" s="125" t="s">
         <v>21</v>
       </c>
-      <c r="C31" s="69" t="s">
-        <v>299</v>
+      <c r="C31" s="66" t="s">
+        <v>186</v>
       </c>
       <c r="D31" s="25" t="s">
         <v>7</v>
@@ -5254,7 +5005,7 @@
         <v>7</v>
       </c>
       <c r="F31" s="33"/>
-      <c r="G31" s="70" t="str">
+      <c r="G31" s="134" t="str">
         <f>HYPERLINK(
 _xlfn.CONCAT(
 BASE_URL,
@@ -5262,14 +5013,14 @@
 "Verifying the Configuration of Cryptographic Standard Algorithms")</f>
         <v>Verifying the Configuration of Cryptographic Standard Algorithms</v>
       </c>
-      <c r="H31" s="64"/>
+      <c r="H31" s="61"/>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B32" s="134" t="s">
+      <c r="B32" s="125" t="s">
         <v>22</v>
       </c>
-      <c r="C32" s="69" t="s">
-        <v>300</v>
+      <c r="C32" s="66" t="s">
+        <v>187</v>
       </c>
       <c r="D32" s="25" t="s">
         <v>7</v>
@@ -5278,7 +5029,7 @@
         <v>7</v>
       </c>
       <c r="F32" s="33"/>
-      <c r="G32" s="70" t="str">
+      <c r="G32" s="134" t="str">
         <f>HYPERLINK(
 _xlfn.CONCAT(
 BASE_URL,
@@ -5286,14 +5037,14 @@
 "Testing for Insecure and/or Deprecated Cryptographic Algorithms")</f>
         <v>Testing for Insecure and/or Deprecated Cryptographic Algorithms</v>
       </c>
-      <c r="H32" s="64"/>
+      <c r="H32" s="61"/>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B33" s="134" t="s">
+      <c r="B33" s="125" t="s">
         <v>23</v>
       </c>
-      <c r="C33" s="69" t="s">
-        <v>301</v>
+      <c r="C33" s="66" t="s">
+        <v>188</v>
       </c>
       <c r="D33" s="25" t="s">
         <v>7</v>
@@ -5302,22 +5053,22 @@
         <v>7</v>
       </c>
       <c r="F33" s="33"/>
-      <c r="G33" s="70" t="str">
-        <f>HYPERLINK(
-_xlfn.CONCAT(
-BASE_URL,
-"0x05e-Testing-Cryptography.md#testing-key-management"),
+      <c r="G33" s="134" t="str">
+        <f>HYPERLINK(
+_xlfn.CONCAT(
+BASE_URL,
+"0x06e-Testing-Cryptography.md#testing-key-management"),
 "Verifying Key Management")</f>
         <v>Verifying Key Management</v>
       </c>
-      <c r="H33" s="64"/>
+      <c r="H33" s="61"/>
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B34" s="134" t="s">
+      <c r="B34" s="125" t="s">
         <v>24</v>
       </c>
-      <c r="C34" s="69" t="s">
-        <v>302</v>
+      <c r="C34" s="66" t="s">
+        <v>189</v>
       </c>
       <c r="D34" s="25" t="s">
         <v>7</v>
@@ -5326,22 +5077,22 @@
         <v>7</v>
       </c>
       <c r="F34" s="33"/>
-      <c r="G34" s="70" t="str">
-        <f>HYPERLINK(
-_xlfn.CONCAT(
-BASE_URL,
-"0x05e-Testing-Cryptography.md#testing-random-number-generation"),
+      <c r="G34" s="134" t="str">
+        <f>HYPERLINK(
+_xlfn.CONCAT(
+BASE_URL,
+"0x06e-Testing-Cryptography.md#testing-random-number-generation"),
 "Testing Random Number Generation")</f>
         <v>Testing Random Number Generation</v>
       </c>
-      <c r="H34" s="64"/>
+      <c r="H34" s="61"/>
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B35" s="122" t="s">
+      <c r="B35" s="113" t="s">
         <v>25</v>
       </c>
       <c r="C35" s="34" t="s">
-        <v>83</v>
+        <v>54</v>
       </c>
       <c r="D35" s="34"/>
       <c r="E35" s="47"/>
@@ -5350,11 +5101,11 @@
       <c r="H35" s="35"/>
     </row>
     <row r="36" spans="2:10" ht="32" x14ac:dyDescent="0.2">
-      <c r="B36" s="134" t="s">
+      <c r="B36" s="125" t="s">
         <v>26</v>
       </c>
       <c r="C36" s="48" t="s">
-        <v>303</v>
+        <v>190</v>
       </c>
       <c r="D36" s="25" t="s">
         <v>7</v>
@@ -5363,7 +5114,7 @@
         <v>7</v>
       </c>
       <c r="F36" s="33"/>
-      <c r="G36" s="73" t="str">
+      <c r="G36" s="135" t="str">
         <f>HYPERLINK(
 _xlfn.CONCAT(
 BASE_URL,
@@ -5371,14 +5122,14 @@
 "Verifying that Users Are Properly Authenticated")</f>
         <v>Verifying that Users Are Properly Authenticated</v>
       </c>
-      <c r="H36" s="64"/>
+      <c r="H36" s="61"/>
     </row>
     <row r="37" spans="2:10" ht="32" x14ac:dyDescent="0.2">
-      <c r="B37" s="134" t="s">
-        <v>84</v>
+      <c r="B37" s="125" t="s">
+        <v>55</v>
       </c>
       <c r="C37" s="48" t="s">
-        <v>304</v>
+        <v>191</v>
       </c>
       <c r="D37" s="25" t="s">
         <v>7</v>
@@ -5387,7 +5138,7 @@
         <v>7</v>
       </c>
       <c r="F37" s="33"/>
-      <c r="G37" s="73" t="str">
+      <c r="G37" s="135" t="str">
         <f>HYPERLINK(
 _xlfn.CONCAT(
 BASE_URL,
@@ -5395,14 +5146,14 @@
 "Testing Session Management")</f>
         <v>Testing Session Management</v>
       </c>
-      <c r="H37" s="64"/>
+      <c r="H37" s="61"/>
     </row>
     <row r="38" spans="2:10" ht="17" x14ac:dyDescent="0.2">
-      <c r="B38" s="134" t="s">
-        <v>85</v>
+      <c r="B38" s="125" t="s">
+        <v>56</v>
       </c>
       <c r="C38" s="48" t="s">
-        <v>305</v>
+        <v>192</v>
       </c>
       <c r="D38" s="25" t="s">
         <v>7</v>
@@ -5411,7 +5162,7 @@
         <v>7</v>
       </c>
       <c r="F38" s="33"/>
-      <c r="G38" s="73" t="str">
+      <c r="G38" s="135" t="str">
         <f>HYPERLINK(
 _xlfn.CONCAT(
 BASE_URL,
@@ -5419,20 +5170,20 @@
 "Testing Stateless Authentication")</f>
         <v>Testing Stateless Authentication</v>
       </c>
-      <c r="H38" s="64"/>
+      <c r="H38" s="61"/>
       <c r="J38" s="49"/>
     </row>
     <row r="39" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B39" s="134" t="s">
+      <c r="B39" s="125" t="s">
         <v>27</v>
       </c>
       <c r="C39" s="48" t="s">
-        <v>306</v>
+        <v>193</v>
       </c>
       <c r="D39" s="25"/>
       <c r="E39" s="44"/>
       <c r="F39" s="33"/>
-      <c r="G39" s="70" t="str">
+      <c r="G39" s="134" t="str">
         <f>HYPERLINK(
 _xlfn.CONCAT(
 BASE_URL,
@@ -5440,15 +5191,15 @@
 "Testing the Logout Functionality")</f>
         <v>Testing the Logout Functionality</v>
       </c>
-      <c r="H39" s="64"/>
+      <c r="H39" s="61"/>
       <c r="J39" s="49"/>
     </row>
     <row r="40" spans="2:10" ht="17" x14ac:dyDescent="0.2">
-      <c r="B40" s="134" t="s">
+      <c r="B40" s="125" t="s">
         <v>28</v>
       </c>
       <c r="C40" s="48" t="s">
-        <v>307</v>
+        <v>194</v>
       </c>
       <c r="D40" s="25" t="s">
         <v>7</v>
@@ -5457,7 +5208,7 @@
         <v>7</v>
       </c>
       <c r="F40" s="33"/>
-      <c r="G40" s="73" t="str">
+      <c r="G40" s="135" t="str">
         <f>HYPERLINK(
 _xlfn.CONCAT(
 BASE_URL,
@@ -5465,14 +5216,14 @@
 "Testing the Password Policy")</f>
         <v>Testing the Password Policy</v>
       </c>
-      <c r="H40" s="64"/>
+      <c r="H40" s="61"/>
     </row>
     <row r="41" spans="2:10" ht="32" x14ac:dyDescent="0.2">
-      <c r="B41" s="134" t="s">
-        <v>86</v>
+      <c r="B41" s="125" t="s">
+        <v>57</v>
       </c>
       <c r="C41" s="48" t="s">
-        <v>308</v>
+        <v>195</v>
       </c>
       <c r="D41" s="25" t="s">
         <v>7</v>
@@ -5481,7 +5232,7 @@
         <v>7</v>
       </c>
       <c r="F41" s="33"/>
-      <c r="G41" s="73" t="str">
+      <c r="G41" s="135" t="str">
         <f>HYPERLINK(
 _xlfn.CONCAT(
 BASE_URL,
@@ -5489,14 +5240,14 @@
 "Testing Excessive Login Attempts")</f>
         <v>Testing Excessive Login Attempts</v>
       </c>
-      <c r="H41" s="64"/>
+      <c r="H41" s="61"/>
     </row>
     <row r="42" spans="2:10" ht="17" x14ac:dyDescent="0.2">
-      <c r="B42" s="134" t="s">
-        <v>87</v>
+      <c r="B42" s="125" t="s">
+        <v>58</v>
       </c>
       <c r="C42" s="48" t="s">
-        <v>310</v>
+        <v>197</v>
       </c>
       <c r="D42" s="25" t="s">
         <v>7</v>
@@ -5505,7 +5256,7 @@
         <v>7</v>
       </c>
       <c r="F42" s="33"/>
-      <c r="G42" s="73" t="str">
+      <c r="G42" s="135" t="str">
         <f>HYPERLINK(
 _xlfn.CONCAT(
 BASE_URL,
@@ -5513,23 +5264,23 @@
 "Testing the Session Timeout")</f>
         <v>Testing the Session Timeout</v>
       </c>
-      <c r="H42" s="115"/>
+      <c r="H42" s="109"/>
     </row>
     <row r="43" spans="2:10" ht="32" x14ac:dyDescent="0.2">
-      <c r="B43" s="134" t="s">
+      <c r="B43" s="125" t="s">
         <v>29</v>
       </c>
       <c r="C43" s="48" t="s">
-        <v>309</v>
+        <v>196</v>
       </c>
       <c r="D43" s="48"/>
       <c r="E43" s="44" t="s">
         <v>7</v>
       </c>
       <c r="F43" s="33" t="s">
-        <v>136</v>
-      </c>
-      <c r="G43" s="70" t="str">
+        <v>81</v>
+      </c>
+      <c r="G43" s="134" t="str">
         <f>HYPERLINK(
 _xlfn.CONCAT(
 BASE_URL,
@@ -5537,23 +5288,23 @@
 "Testing Biometric Authentication")</f>
         <v>Testing Biometric Authentication</v>
       </c>
-      <c r="H43" s="64"/>
+      <c r="H43" s="61"/>
     </row>
     <row r="44" spans="2:10" ht="17" x14ac:dyDescent="0.2">
-      <c r="B44" s="134" t="s">
+      <c r="B44" s="125" t="s">
         <v>30</v>
       </c>
       <c r="C44" s="48" t="s">
-        <v>311</v>
+        <v>198</v>
       </c>
       <c r="D44" s="48"/>
       <c r="E44" s="44" t="s">
         <v>7</v>
       </c>
       <c r="F44" s="33" t="s">
-        <v>136</v>
-      </c>
-      <c r="G44" s="73" t="str">
+        <v>81</v>
+      </c>
+      <c r="G44" s="135" t="str">
         <f>HYPERLINK(
 _xlfn.CONCAT(
 BASE_URL,
@@ -5561,23 +5312,23 @@
 "Testing 2-Factor Authentication")</f>
         <v>Testing 2-Factor Authentication</v>
       </c>
-      <c r="H44" s="64"/>
+      <c r="H44" s="61"/>
     </row>
     <row r="45" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B45" s="134" t="s">
+      <c r="B45" s="125" t="s">
         <v>31</v>
       </c>
       <c r="C45" s="48" t="s">
-        <v>312</v>
+        <v>199</v>
       </c>
       <c r="D45" s="48"/>
       <c r="E45" s="44" t="s">
         <v>7</v>
       </c>
       <c r="F45" s="33" t="s">
-        <v>136</v>
-      </c>
-      <c r="G45" s="70" t="str">
+        <v>81</v>
+      </c>
+      <c r="G45" s="134" t="str">
         <f>HYPERLINK(
 _xlfn.CONCAT(
 BASE_URL,
@@ -5585,33 +5336,33 @@
 "Testing Step-up Authentication")</f>
         <v>Testing Step-up Authentication</v>
       </c>
-      <c r="H45" s="64"/>
+      <c r="H45" s="61"/>
     </row>
     <row r="46" spans="2:10" ht="32" x14ac:dyDescent="0.2">
-      <c r="B46" s="134" t="s">
-        <v>250</v>
+      <c r="B46" s="125" t="s">
+        <v>153</v>
       </c>
       <c r="C46" s="48" t="s">
-        <v>313</v>
+        <v>200</v>
       </c>
       <c r="D46" s="48"/>
       <c r="E46" s="44" t="s">
         <v>7</v>
       </c>
       <c r="F46" s="33" t="s">
-        <v>136</v>
+        <v>81</v>
       </c>
       <c r="G46" s="45" t="s">
-        <v>190</v>
-      </c>
-      <c r="H46" s="64"/>
+        <v>131</v>
+      </c>
+      <c r="H46" s="61"/>
     </row>
     <row r="47" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B47" s="122" t="s">
+      <c r="B47" s="113" t="s">
         <v>32</v>
       </c>
       <c r="C47" s="34" t="s">
-        <v>94</v>
+        <v>59</v>
       </c>
       <c r="D47" s="34"/>
       <c r="E47" s="47"/>
@@ -5620,11 +5371,11 @@
       <c r="H47" s="35"/>
     </row>
     <row r="48" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B48" s="134" t="s">
+      <c r="B48" s="125" t="s">
         <v>33</v>
       </c>
       <c r="C48" s="48" t="s">
-        <v>314</v>
+        <v>201</v>
       </c>
       <c r="D48" s="25" t="s">
         <v>7</v>
@@ -5633,7 +5384,7 @@
         <v>7</v>
       </c>
       <c r="F48" s="33"/>
-      <c r="G48" s="70" t="str">
+      <c r="G48" s="134" t="str">
         <f>HYPERLINK(
 _xlfn.CONCAT(
 BASE_URL,
@@ -5641,14 +5392,14 @@
 "Testing for Unencrypted Sensitive Data on the Network")</f>
         <v>Testing for Unencrypted Sensitive Data on the Network</v>
       </c>
-      <c r="H48" s="64"/>
+      <c r="H48" s="61"/>
     </row>
     <row r="49" spans="2:8" ht="32" x14ac:dyDescent="0.2">
-      <c r="B49" s="134" t="s">
-        <v>95</v>
+      <c r="B49" s="125" t="s">
+        <v>60</v>
       </c>
       <c r="C49" s="48" t="s">
-        <v>315</v>
+        <v>202</v>
       </c>
       <c r="D49" s="25" t="s">
         <v>7</v>
@@ -5657,7 +5408,7 @@
         <v>7</v>
       </c>
       <c r="F49" s="33"/>
-      <c r="G49" s="70" t="str">
+      <c r="G49" s="134" t="str">
         <f>HYPERLINK(
 _xlfn.CONCAT(
 BASE_URL,
@@ -5665,14 +5416,14 @@
 "Verifying the TLS Settings")</f>
         <v>Verifying the TLS Settings</v>
       </c>
-      <c r="H49" s="64"/>
+      <c r="H49" s="61"/>
     </row>
     <row r="50" spans="2:8" ht="32" x14ac:dyDescent="0.2">
-      <c r="B50" s="134" t="s">
+      <c r="B50" s="125" t="s">
         <v>34</v>
       </c>
       <c r="C50" s="48" t="s">
-        <v>316</v>
+        <v>203</v>
       </c>
       <c r="D50" s="25" t="s">
         <v>7</v>
@@ -5681,7 +5432,7 @@
         <v>7</v>
       </c>
       <c r="F50" s="33"/>
-      <c r="G50" s="70" t="str">
+      <c r="G50" s="134" t="str">
         <f>HYPERLINK(
 _xlfn.CONCAT(
 BASE_URL,
@@ -5689,23 +5440,23 @@
 "Testing Endpoint Identify Verification")</f>
         <v>Testing Endpoint Identify Verification</v>
       </c>
-      <c r="H50" s="64"/>
+      <c r="H50" s="61"/>
     </row>
     <row r="51" spans="2:8" ht="32" x14ac:dyDescent="0.2">
-      <c r="B51" s="134" t="s">
-        <v>96</v>
+      <c r="B51" s="125" t="s">
+        <v>61</v>
       </c>
       <c r="C51" s="48" t="s">
-        <v>317</v>
+        <v>204</v>
       </c>
       <c r="D51" s="48"/>
       <c r="E51" s="44" t="s">
         <v>7</v>
       </c>
       <c r="F51" s="33" t="s">
-        <v>136</v>
-      </c>
-      <c r="G51" s="70" t="str">
+        <v>81</v>
+      </c>
+      <c r="G51" s="134" t="str">
         <f>HYPERLINK(
 _xlfn.CONCAT(
 BASE_URL,
@@ -5713,23 +5464,23 @@
 "Testing Custom Certificate Stores and SSL Pinning")</f>
         <v>Testing Custom Certificate Stores and SSL Pinning</v>
       </c>
-      <c r="H51" s="64"/>
+      <c r="H51" s="61"/>
     </row>
     <row r="52" spans="2:8" ht="32" x14ac:dyDescent="0.2">
-      <c r="B52" s="134" t="s">
+      <c r="B52" s="125" t="s">
         <v>35</v>
       </c>
       <c r="C52" s="48" t="s">
-        <v>318</v>
+        <v>205</v>
       </c>
       <c r="D52" s="48"/>
       <c r="E52" s="44" t="s">
         <v>7</v>
       </c>
       <c r="F52" s="33" t="s">
-        <v>136</v>
-      </c>
-      <c r="G52" s="70" t="str">
+        <v>81</v>
+      </c>
+      <c r="G52" s="134" t="str">
         <f>HYPERLINK(
 _xlfn.CONCAT(
 BASE_URL,
@@ -5737,23 +5488,23 @@
 "Verifying that Critical Operations Use Secure Communication Channels")</f>
         <v>Verifying that Critical Operations Use Secure Communication Channels</v>
       </c>
-      <c r="H52" s="64"/>
+      <c r="H52" s="61"/>
     </row>
     <row r="53" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B53" s="138" t="s">
-        <v>345</v>
+      <c r="B53" s="128" t="s">
+        <v>232</v>
       </c>
       <c r="C53" s="48" t="s">
-        <v>319</v>
+        <v>206</v>
       </c>
       <c r="D53" s="48"/>
       <c r="E53" s="44" t="s">
         <v>7</v>
       </c>
       <c r="F53" s="33" t="s">
-        <v>136</v>
-      </c>
-      <c r="G53" s="70" t="str">
+        <v>81</v>
+      </c>
+      <c r="G53" s="134" t="str">
         <f>HYPERLINK(
 _xlfn.CONCAT(
 BASE_URL,
@@ -5761,14 +5512,14 @@
 "Verifying the Security Provider")</f>
         <v>Verifying the Security Provider</v>
       </c>
-      <c r="H53" s="64"/>
+      <c r="H53" s="61"/>
     </row>
     <row r="54" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B54" s="122" t="s">
+      <c r="B54" s="113" t="s">
         <v>36</v>
       </c>
       <c r="C54" s="34" t="s">
-        <v>222</v>
+        <v>132</v>
       </c>
       <c r="D54" s="34"/>
       <c r="E54" s="47"/>
@@ -5777,11 +5528,11 @@
       <c r="H54" s="35"/>
     </row>
     <row r="55" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B55" s="134" t="s">
-        <v>101</v>
+      <c r="B55" s="125" t="s">
+        <v>62</v>
       </c>
       <c r="C55" s="48" t="s">
-        <v>320</v>
+        <v>207</v>
       </c>
       <c r="D55" s="25" t="s">
         <v>7</v>
@@ -5790,7 +5541,7 @@
         <v>7</v>
       </c>
       <c r="F55" s="33"/>
-      <c r="G55" s="70" t="str">
+      <c r="G55" s="134" t="str">
         <f>HYPERLINK(
 _xlfn.CONCAT(
 BASE_URL,
@@ -5798,14 +5549,14 @@
 "Testing App Permissions")</f>
         <v>Testing App Permissions</v>
       </c>
-      <c r="H55" s="64"/>
+      <c r="H55" s="61"/>
     </row>
     <row r="56" spans="2:8" ht="32" x14ac:dyDescent="0.2">
-      <c r="B56" s="134" t="s">
-        <v>102</v>
+      <c r="B56" s="125" t="s">
+        <v>63</v>
       </c>
       <c r="C56" s="48" t="s">
-        <v>321</v>
+        <v>208</v>
       </c>
       <c r="D56" s="25" t="s">
         <v>7</v>
@@ -5814,7 +5565,7 @@
         <v>7</v>
       </c>
       <c r="F56" s="33"/>
-      <c r="G56" s="70" t="str">
+      <c r="G56" s="134" t="str">
         <f>HYPERLINK(
 _xlfn.CONCAT(
 BASE_URL,
@@ -5822,14 +5573,14 @@
 "Testing Input Validation and Sanitization")</f>
         <v>Testing Input Validation and Sanitization</v>
       </c>
-      <c r="H56" s="64"/>
+      <c r="H56" s="61"/>
     </row>
     <row r="57" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B57" s="134" t="s">
-        <v>103</v>
+      <c r="B57" s="125" t="s">
+        <v>64</v>
       </c>
       <c r="C57" s="48" t="s">
-        <v>322</v>
+        <v>209</v>
       </c>
       <c r="D57" s="25" t="s">
         <v>7</v>
@@ -5838,7 +5589,7 @@
         <v>7</v>
       </c>
       <c r="F57" s="33"/>
-      <c r="G57" s="70" t="str">
+      <c r="G57" s="134" t="str">
         <f>HYPERLINK(
 _xlfn.CONCAT(
 BASE_URL,
@@ -5846,14 +5597,14 @@
 "Testing Custom URL Schemes")</f>
         <v>Testing Custom URL Schemes</v>
       </c>
-      <c r="H57" s="64"/>
+      <c r="H57" s="61"/>
     </row>
     <row r="58" spans="2:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B58" s="134" t="s">
-        <v>104</v>
+      <c r="B58" s="125" t="s">
+        <v>65</v>
       </c>
       <c r="C58" s="48" t="s">
-        <v>323</v>
+        <v>210</v>
       </c>
       <c r="D58" s="25" t="s">
         <v>7</v>
@@ -5862,7 +5613,7 @@
         <v>7</v>
       </c>
       <c r="F58" s="33"/>
-      <c r="G58" s="70" t="str">
+      <c r="G58" s="134" t="str">
         <f>HYPERLINK(
 _xlfn.CONCAT(
 BASE_URL,
@@ -5870,14 +5621,14 @@
 "Testing For Sensitive Functionality Exposure Through IPC")</f>
         <v>Testing For Sensitive Functionality Exposure Through IPC</v>
       </c>
-      <c r="H58" s="64"/>
+      <c r="H58" s="61"/>
     </row>
     <row r="59" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B59" s="134" t="s">
-        <v>105</v>
+      <c r="B59" s="125" t="s">
+        <v>66</v>
       </c>
       <c r="C59" s="48" t="s">
-        <v>324</v>
+        <v>211</v>
       </c>
       <c r="D59" s="25" t="s">
         <v>7</v>
@@ -5886,7 +5637,7 @@
         <v>7</v>
       </c>
       <c r="F59" s="33"/>
-      <c r="G59" s="70" t="str">
+      <c r="G59" s="134" t="str">
         <f>HYPERLINK(
 _xlfn.CONCAT(
 BASE_URL,
@@ -5894,14 +5645,14 @@
 "Testing JavaScript Execution in WebViews")</f>
         <v>Testing JavaScript Execution in WebViews</v>
       </c>
-      <c r="H59" s="64"/>
+      <c r="H59" s="61"/>
     </row>
     <row r="60" spans="2:8" ht="32" x14ac:dyDescent="0.2">
-      <c r="B60" s="134" t="s">
-        <v>106</v>
+      <c r="B60" s="125" t="s">
+        <v>67</v>
       </c>
       <c r="C60" s="48" t="s">
-        <v>325</v>
+        <v>212</v>
       </c>
       <c r="D60" s="25" t="s">
         <v>7</v>
@@ -5910,7 +5661,7 @@
         <v>7</v>
       </c>
       <c r="F60" s="33"/>
-      <c r="G60" s="70" t="str">
+      <c r="G60" s="134" t="str">
         <f>HYPERLINK(
 _xlfn.CONCAT(
 BASE_URL,
@@ -5918,14 +5669,14 @@
 "Testing WebView Protocol Handlers")</f>
         <v>Testing WebView Protocol Handlers</v>
       </c>
-      <c r="H60" s="64"/>
+      <c r="H60" s="61"/>
     </row>
     <row r="61" spans="2:8" ht="32" x14ac:dyDescent="0.2">
-      <c r="B61" s="138" t="s">
-        <v>344</v>
+      <c r="B61" s="128" t="s">
+        <v>231</v>
       </c>
       <c r="C61" s="48" t="s">
-        <v>247</v>
+        <v>152</v>
       </c>
       <c r="D61" s="25" t="s">
         <v>7</v>
@@ -5934,7 +5685,7 @@
         <v>7</v>
       </c>
       <c r="F61" s="33"/>
-      <c r="G61" s="70" t="str">
+      <c r="G61" s="134" t="str">
         <f>HYPERLINK(
 _xlfn.CONCAT(
 BASE_URL,
@@ -5942,14 +5693,14 @@
 "Testing Whether Java Objects Are Exposed Through WebViews")</f>
         <v>Testing Whether Java Objects Are Exposed Through WebViews</v>
       </c>
-      <c r="H61" s="64"/>
+      <c r="H61" s="61"/>
     </row>
     <row r="62" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B62" s="138" t="s">
-        <v>343</v>
+      <c r="B62" s="128" t="s">
+        <v>230</v>
       </c>
       <c r="C62" s="48" t="s">
-        <v>326</v>
+        <v>213</v>
       </c>
       <c r="D62" s="25" t="s">
         <v>7</v>
@@ -5958,7 +5709,7 @@
         <v>7</v>
       </c>
       <c r="F62" s="33"/>
-      <c r="G62" s="70" t="str">
+      <c r="G62" s="134" t="str">
         <f>HYPERLINK(
 _xlfn.CONCAT(
 BASE_URL,
@@ -5966,14 +5717,14 @@
 "Testing Object (De-)Serialization")</f>
         <v>Testing Object (De-)Serialization</v>
       </c>
-      <c r="H62" s="64"/>
+      <c r="H62" s="61"/>
     </row>
     <row r="63" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B63" s="122" t="s">
+      <c r="B63" s="113" t="s">
         <v>37</v>
       </c>
       <c r="C63" s="34" t="s">
-        <v>118</v>
+        <v>72</v>
       </c>
       <c r="D63" s="34"/>
       <c r="E63" s="47"/>
@@ -5982,11 +5733,11 @@
       <c r="H63" s="35"/>
     </row>
     <row r="64" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B64" s="134" t="s">
-        <v>114</v>
-      </c>
-      <c r="C64" s="69" t="s">
-        <v>327</v>
+      <c r="B64" s="125" t="s">
+        <v>68</v>
+      </c>
+      <c r="C64" s="66" t="s">
+        <v>214</v>
       </c>
       <c r="D64" s="25" t="s">
         <v>7</v>
@@ -5995,7 +5746,7 @@
         <v>7</v>
       </c>
       <c r="F64" s="33"/>
-      <c r="G64" s="70" t="str">
+      <c r="G64" s="134" t="str">
         <f>HYPERLINK(
 _xlfn.CONCAT(
 BASE_URL,
@@ -6003,14 +5754,14 @@
 "Verifying That the App is Properly Signed")</f>
         <v>Verifying That the App is Properly Signed</v>
       </c>
-      <c r="H64" s="64"/>
+      <c r="H64" s="61"/>
     </row>
     <row r="65" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B65" s="134" t="s">
+      <c r="B65" s="125" t="s">
         <v>38</v>
       </c>
-      <c r="C65" s="69" t="s">
-        <v>328</v>
+      <c r="C65" s="66" t="s">
+        <v>215</v>
       </c>
       <c r="D65" s="25" t="s">
         <v>7</v>
@@ -6019,7 +5770,7 @@
         <v>7</v>
       </c>
       <c r="F65" s="33"/>
-      <c r="G65" s="70" t="str">
+      <c r="G65" s="134" t="str">
         <f>HYPERLINK(
 _xlfn.CONCAT(
 BASE_URL,
@@ -6027,14 +5778,14 @@
 "Testing If the App is Debuggable")</f>
         <v>Testing If the App is Debuggable</v>
       </c>
-      <c r="H65" s="64"/>
+      <c r="H65" s="61"/>
     </row>
     <row r="66" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B66" s="134" t="s">
-        <v>115</v>
-      </c>
-      <c r="C66" s="69" t="s">
-        <v>329</v>
+      <c r="B66" s="125" t="s">
+        <v>69</v>
+      </c>
+      <c r="C66" s="66" t="s">
+        <v>216</v>
       </c>
       <c r="D66" s="25" t="s">
         <v>7</v>
@@ -6043,7 +5794,7 @@
         <v>7</v>
       </c>
       <c r="F66" s="33"/>
-      <c r="G66" s="70" t="str">
+      <c r="G66" s="134" t="str">
         <f>HYPERLINK(
 _xlfn.CONCAT(
 BASE_URL,
@@ -6051,14 +5802,14 @@
 "Testing for Debugging Symbols")</f>
         <v>Testing for Debugging Symbols</v>
       </c>
-      <c r="H66" s="64"/>
+      <c r="H66" s="61"/>
     </row>
     <row r="67" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B67" s="134" t="s">
-        <v>116</v>
-      </c>
-      <c r="C67" s="69" t="s">
-        <v>330</v>
+      <c r="B67" s="125" t="s">
+        <v>70</v>
+      </c>
+      <c r="C67" s="66" t="s">
+        <v>217</v>
       </c>
       <c r="D67" s="25" t="s">
         <v>7</v>
@@ -6067,7 +5818,7 @@
         <v>7</v>
       </c>
       <c r="F67" s="33"/>
-      <c r="G67" s="70" t="str">
+      <c r="G67" s="134" t="str">
         <f>HYPERLINK(
 _xlfn.CONCAT(
 BASE_URL,
@@ -6075,14 +5826,14 @@
 "Testing for Debugging Code and Verbose Error Logging")</f>
         <v>Testing for Debugging Code and Verbose Error Logging</v>
       </c>
-      <c r="H67" s="64"/>
+      <c r="H67" s="61"/>
     </row>
     <row r="68" spans="2:9" ht="32" x14ac:dyDescent="0.2">
-      <c r="B68" s="134" t="s">
-        <v>117</v>
-      </c>
-      <c r="C68" s="69" t="s">
-        <v>331</v>
+      <c r="B68" s="125" t="s">
+        <v>71</v>
+      </c>
+      <c r="C68" s="66" t="s">
+        <v>218</v>
       </c>
       <c r="D68" s="25" t="s">
         <v>7</v>
@@ -6091,7 +5842,7 @@
         <v>7</v>
       </c>
       <c r="F68" s="33"/>
-      <c r="G68" s="66" t="str">
+      <c r="G68" s="63" t="str">
         <f>HYPERLINK(
 _xlfn.CONCAT(
 BASE_URL,
@@ -6099,14 +5850,14 @@
 "Testing for Weaknesses in Third Party Libraries")</f>
         <v>Testing for Weaknesses in Third Party Libraries</v>
       </c>
-      <c r="H68" s="64"/>
+      <c r="H68" s="61"/>
     </row>
     <row r="69" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B69" s="134" t="s">
+      <c r="B69" s="125" t="s">
         <v>39</v>
       </c>
-      <c r="C69" s="69" t="s">
-        <v>332</v>
+      <c r="C69" s="66" t="s">
+        <v>219</v>
       </c>
       <c r="D69" s="25" t="s">
         <v>7</v>
@@ -6115,7 +5866,7 @@
         <v>7</v>
       </c>
       <c r="F69" s="33"/>
-      <c r="G69" s="70" t="str">
+      <c r="G69" s="134" t="str">
         <f>HYPERLINK(
 _xlfn.CONCAT(
 BASE_URL,
@@ -6123,14 +5874,14 @@
 "Testing Exception Handling")</f>
         <v>Testing Exception Handling</v>
       </c>
-      <c r="H69" s="64"/>
+      <c r="H69" s="61"/>
     </row>
     <row r="70" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B70" s="134" t="s">
+      <c r="B70" s="125" t="s">
         <v>40</v>
       </c>
-      <c r="C70" s="69" t="s">
-        <v>333</v>
+      <c r="C70" s="66" t="s">
+        <v>220</v>
       </c>
       <c r="D70" s="25" t="s">
         <v>7</v>
@@ -6139,7 +5890,7 @@
         <v>7</v>
       </c>
       <c r="F70" s="33"/>
-      <c r="G70" s="70" t="str">
+      <c r="G70" s="134" t="str">
         <f>HYPERLINK(
 _xlfn.CONCAT(
 BASE_URL,
@@ -6147,14 +5898,14 @@
 "Testing  Error Handling in Security Controls")</f>
         <v>Testing  Error Handling in Security Controls</v>
       </c>
-      <c r="H70" s="64"/>
+      <c r="H70" s="61"/>
     </row>
     <row r="71" spans="2:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="B71" s="134" t="s">
+      <c r="B71" s="125" t="s">
         <v>41</v>
       </c>
-      <c r="C71" s="69" t="s">
-        <v>334</v>
+      <c r="C71" s="66" t="s">
+        <v>221</v>
       </c>
       <c r="D71" s="25" t="s">
         <v>7</v>
@@ -6163,7 +5914,7 @@
         <v>7</v>
       </c>
       <c r="F71" s="33"/>
-      <c r="G71" s="73" t="str">
+      <c r="G71" s="135" t="str">
         <f>HYPERLINK(
 _xlfn.CONCAT(
 BASE_URL,
@@ -6171,17 +5922,17 @@
 "Testing for Memory Management Bugs")</f>
         <v>Testing for Memory Management Bugs</v>
       </c>
-      <c r="H71" s="114" t="s">
-        <v>342</v>
-      </c>
-      <c r="I71" s="114"/>
+      <c r="H71" s="136" t="s">
+        <v>229</v>
+      </c>
+      <c r="I71" s="136"/>
     </row>
     <row r="72" spans="2:9" ht="32" x14ac:dyDescent="0.2">
-      <c r="B72" s="134" t="s">
-        <v>257</v>
-      </c>
-      <c r="C72" s="69" t="s">
-        <v>243</v>
+      <c r="B72" s="125" t="s">
+        <v>155</v>
+      </c>
+      <c r="C72" s="66" t="s">
+        <v>148</v>
       </c>
       <c r="D72" s="25" t="s">
         <v>7</v>
@@ -6190,7 +5941,7 @@
         <v>7</v>
       </c>
       <c r="F72" s="33"/>
-      <c r="G72" s="70" t="str">
+      <c r="G72" s="134" t="str">
         <f>HYPERLINK(
 _xlfn.CONCAT(
 BASE_URL,
@@ -6198,10 +5949,10 @@
 "Verifying usage of Free Security Features")</f>
         <v>Verifying usage of Free Security Features</v>
       </c>
-      <c r="H72" s="64"/>
+      <c r="H72" s="61"/>
     </row>
     <row r="73" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B73" s="125"/>
+      <c r="B73" s="116"/>
       <c r="C73" s="36"/>
       <c r="D73" s="37"/>
       <c r="E73" s="37"/>
@@ -6210,130 +5961,130 @@
       <c r="H73" s="38"/>
     </row>
     <row r="74" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B74" s="126"/>
-      <c r="C74" s="40"/>
-      <c r="D74" s="39"/>
-      <c r="E74" s="39"/>
-      <c r="F74" s="39"/>
-      <c r="G74" s="39"/>
-      <c r="H74" s="39"/>
+      <c r="B74" s="137"/>
+      <c r="C74" s="138"/>
+      <c r="D74" s="139"/>
+      <c r="E74" s="139"/>
+      <c r="F74" s="139"/>
+      <c r="G74" s="139"/>
+      <c r="H74" s="139"/>
     </row>
     <row r="75" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B75" s="126"/>
+      <c r="B75" s="137"/>
       <c r="C75" s="48"/>
-      <c r="D75" s="39"/>
-      <c r="E75" s="39"/>
-      <c r="F75" s="39"/>
-      <c r="G75" s="39"/>
-      <c r="H75" s="39"/>
+      <c r="D75" s="139"/>
+      <c r="E75" s="139"/>
+      <c r="F75" s="139"/>
+      <c r="G75" s="139"/>
+      <c r="H75" s="139"/>
     </row>
     <row r="76" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B76" s="126"/>
-      <c r="C76" s="40"/>
-      <c r="D76" s="39"/>
-      <c r="E76" s="39"/>
-      <c r="F76" s="39"/>
-      <c r="G76" s="39"/>
-      <c r="H76" s="39"/>
+      <c r="B76" s="137"/>
+      <c r="C76" s="138"/>
+      <c r="D76" s="139"/>
+      <c r="E76" s="139"/>
+      <c r="F76" s="139"/>
+      <c r="G76" s="139"/>
+      <c r="H76" s="139"/>
     </row>
     <row r="77" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B77" s="127" t="s">
-        <v>132</v>
-      </c>
-      <c r="C77" s="40"/>
-      <c r="D77" s="39"/>
-      <c r="E77" s="39"/>
-      <c r="F77" s="39"/>
-      <c r="G77" s="39"/>
-      <c r="H77" s="39"/>
+      <c r="B77" s="140" t="s">
+        <v>77</v>
+      </c>
+      <c r="C77" s="138"/>
+      <c r="D77" s="139"/>
+      <c r="E77" s="139"/>
+      <c r="F77" s="139"/>
+      <c r="G77" s="139"/>
+      <c r="H77" s="139"/>
     </row>
     <row r="78" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B78" s="128" t="s">
-        <v>133</v>
+      <c r="B78" s="119" t="s">
+        <v>78</v>
       </c>
       <c r="C78" s="41" t="s">
-        <v>134</v>
-      </c>
-      <c r="D78" s="39"/>
-      <c r="E78" s="39"/>
-      <c r="F78" s="39"/>
-      <c r="G78" s="39"/>
-      <c r="H78" s="39"/>
+        <v>79</v>
+      </c>
+      <c r="D78" s="139"/>
+      <c r="E78" s="139"/>
+      <c r="F78" s="139"/>
+      <c r="G78" s="139"/>
+      <c r="H78" s="139"/>
     </row>
     <row r="79" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B79" s="129" t="s">
-        <v>166</v>
+      <c r="B79" s="120" t="s">
+        <v>111</v>
       </c>
       <c r="C79" s="42" t="s">
-        <v>135</v>
-      </c>
-      <c r="D79" s="39"/>
-      <c r="E79" s="39"/>
-      <c r="F79" s="39"/>
-      <c r="G79" s="39"/>
-      <c r="H79" s="39"/>
+        <v>80</v>
+      </c>
+      <c r="D79" s="139"/>
+      <c r="E79" s="139"/>
+      <c r="F79" s="139"/>
+      <c r="G79" s="139"/>
+      <c r="H79" s="139"/>
     </row>
     <row r="80" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B80" s="129" t="s">
-        <v>167</v>
+      <c r="B80" s="120" t="s">
+        <v>112</v>
       </c>
       <c r="C80" s="42" t="s">
-        <v>138</v>
-      </c>
-      <c r="D80" s="39"/>
-      <c r="E80" s="39"/>
-      <c r="F80" s="39"/>
-      <c r="G80" s="39"/>
-      <c r="H80" s="39"/>
+        <v>83</v>
+      </c>
+      <c r="D80" s="139"/>
+      <c r="E80" s="139"/>
+      <c r="F80" s="139"/>
+      <c r="G80" s="139"/>
+      <c r="H80" s="139"/>
     </row>
     <row r="81" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B81" s="129" t="s">
-        <v>136</v>
+      <c r="B81" s="120" t="s">
+        <v>81</v>
       </c>
       <c r="C81" s="42" t="s">
-        <v>137</v>
-      </c>
-      <c r="D81" s="39"/>
-      <c r="E81" s="39"/>
-      <c r="F81" s="39"/>
-      <c r="G81" s="39"/>
-      <c r="H81" s="39"/>
+        <v>82</v>
+      </c>
+      <c r="D81" s="139"/>
+      <c r="E81" s="139"/>
+      <c r="F81" s="139"/>
+      <c r="G81" s="139"/>
+      <c r="H81" s="139"/>
     </row>
     <row r="82" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B82" s="126"/>
-      <c r="C82" s="40"/>
-      <c r="D82" s="39"/>
-      <c r="E82" s="39"/>
-      <c r="F82" s="39"/>
-      <c r="G82" s="39"/>
-      <c r="H82" s="23"/>
+      <c r="B82" s="137"/>
+      <c r="C82" s="138"/>
+      <c r="D82" s="139"/>
+      <c r="E82" s="139"/>
+      <c r="F82" s="139"/>
+      <c r="G82" s="139"/>
+      <c r="H82" s="141"/>
     </row>
     <row r="83" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B83" s="126"/>
-      <c r="C83" s="40"/>
-      <c r="D83" s="39"/>
-      <c r="E83" s="39"/>
-      <c r="F83" s="39"/>
-      <c r="G83" s="39"/>
-      <c r="H83" s="23"/>
+      <c r="B83" s="137"/>
+      <c r="C83" s="138"/>
+      <c r="D83" s="139"/>
+      <c r="E83" s="139"/>
+      <c r="F83" s="139"/>
+      <c r="G83" s="139"/>
+      <c r="H83" s="141"/>
     </row>
     <row r="84" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B84" s="126"/>
-      <c r="C84" s="40"/>
-      <c r="D84" s="39"/>
-      <c r="E84" s="39"/>
-      <c r="F84" s="39"/>
-      <c r="G84" s="39"/>
-      <c r="H84" s="23"/>
+      <c r="B84" s="137"/>
+      <c r="C84" s="138"/>
+      <c r="D84" s="139"/>
+      <c r="E84" s="139"/>
+      <c r="F84" s="139"/>
+      <c r="G84" s="139"/>
+      <c r="H84" s="141"/>
     </row>
     <row r="85" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B85" s="135"/>
-      <c r="C85" s="51"/>
-      <c r="D85" s="23"/>
-      <c r="E85" s="23"/>
-      <c r="F85" s="23"/>
-      <c r="G85" s="23"/>
-      <c r="H85" s="23"/>
+      <c r="B85" s="142"/>
+      <c r="C85" s="143"/>
+      <c r="D85" s="141"/>
+      <c r="E85" s="141"/>
+      <c r="F85" s="141"/>
+      <c r="G85" s="141"/>
+      <c r="H85" s="141"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -6360,63 +6111,64 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="B1:G29"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="1.83203125" customWidth="1"/>
-    <col min="2" max="2" width="7.33203125" style="120" customWidth="1"/>
-    <col min="3" max="3" width="93.33203125" customWidth="1"/>
-    <col min="4" max="4" width="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="37.5" customWidth="1"/>
-    <col min="7" max="7" width="30.6640625" customWidth="1"/>
+    <col min="1" max="1" width="1.83203125" style="130" customWidth="1"/>
+    <col min="2" max="2" width="7.33203125" style="144" customWidth="1"/>
+    <col min="3" max="3" width="93.33203125" style="130" customWidth="1"/>
+    <col min="4" max="4" width="3" style="130" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.83203125" style="130" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="42.5" style="130" customWidth="1"/>
+    <col min="7" max="7" width="30.6640625" style="130" customWidth="1"/>
+    <col min="8" max="16384" width="11" style="130"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:7" ht="19" x14ac:dyDescent="0.25">
-      <c r="B1" s="119" t="s">
-        <v>228</v>
-      </c>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
+      <c r="B1" s="146" t="s">
+        <v>134</v>
+      </c>
+      <c r="C1" s="141"/>
+      <c r="D1" s="141"/>
+      <c r="E1" s="141"/>
+      <c r="F1" s="141"/>
+      <c r="G1" s="141"/>
     </row>
     <row r="2" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B2" s="135"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
+      <c r="B2" s="142"/>
+      <c r="C2" s="141"/>
+      <c r="D2" s="141"/>
+      <c r="E2" s="141"/>
+      <c r="F2" s="141"/>
+      <c r="G2" s="141"/>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B3" s="136" t="s">
+      <c r="B3" s="112" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="116" t="s">
-        <v>52</v>
-      </c>
-      <c r="D3" s="117" t="s">
-        <v>53</v>
-      </c>
-      <c r="E3" s="117" t="s">
-        <v>164</v>
-      </c>
-      <c r="F3" s="117" t="s">
-        <v>178</v>
-      </c>
-      <c r="G3" s="118" t="s">
-        <v>165</v>
+      <c r="C3" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="D3" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="E3" s="27" t="s">
+        <v>109</v>
+      </c>
+      <c r="F3" s="27" t="s">
+        <v>123</v>
+      </c>
+      <c r="G3" s="28" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B4" s="122"/>
+      <c r="B4" s="113"/>
       <c r="C4" s="34" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="D4" s="34"/>
       <c r="E4" s="34"/>
@@ -6424,19 +6176,19 @@
       <c r="G4" s="35"/>
     </row>
     <row r="5" spans="2:7" ht="32" x14ac:dyDescent="0.2">
-      <c r="B5" s="137" t="s">
-        <v>353</v>
+      <c r="B5" s="127" t="s">
+        <v>240</v>
       </c>
       <c r="C5" s="32" t="s">
-        <v>363</v>
+        <v>250</v>
       </c>
       <c r="D5" s="24" t="s">
         <v>7</v>
       </c>
       <c r="E5" s="33" t="s">
-        <v>136</v>
-      </c>
-      <c r="F5" s="70" t="str">
+        <v>81</v>
+      </c>
+      <c r="F5" s="134" t="str">
         <f>HYPERLINK(
 _xlfn.CONCAT(
 BASE_URL,
@@ -6444,22 +6196,22 @@
 "Testing Root Detection")</f>
         <v>Testing Root Detection</v>
       </c>
-      <c r="G5" s="64"/>
+      <c r="G5" s="61"/>
     </row>
     <row r="6" spans="2:7" ht="32" x14ac:dyDescent="0.2">
-      <c r="B6" s="137" t="s">
-        <v>354</v>
+      <c r="B6" s="127" t="s">
+        <v>241</v>
       </c>
       <c r="C6" s="32" t="s">
-        <v>364</v>
+        <v>251</v>
       </c>
       <c r="D6" s="24" t="s">
         <v>7</v>
       </c>
       <c r="E6" s="33" t="s">
-        <v>136</v>
-      </c>
-      <c r="F6" s="73" t="str">
+        <v>81</v>
+      </c>
+      <c r="F6" s="135" t="str">
         <f>HYPERLINK(
 _xlfn.CONCAT(
 BASE_URL,
@@ -6467,22 +6219,22 @@
 "Testing Debugging Defenses")</f>
         <v>Testing Debugging Defenses</v>
       </c>
-      <c r="G6" s="64"/>
+      <c r="G6" s="61"/>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B7" s="137" t="s">
-        <v>355</v>
+      <c r="B7" s="127" t="s">
+        <v>242</v>
       </c>
       <c r="C7" s="32" t="s">
-        <v>365</v>
+        <v>252</v>
       </c>
       <c r="D7" s="24" t="s">
         <v>7</v>
       </c>
       <c r="E7" s="33" t="s">
-        <v>136</v>
-      </c>
-      <c r="F7" s="70" t="str">
+        <v>81</v>
+      </c>
+      <c r="F7" s="134" t="str">
         <f>HYPERLINK(
 _xlfn.CONCAT(
 BASE_URL,
@@ -6490,22 +6242,22 @@
 "Testing File Integrity Checks")</f>
         <v>Testing File Integrity Checks</v>
       </c>
-      <c r="G7" s="64"/>
+      <c r="G7" s="61"/>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B8" s="137" t="s">
-        <v>356</v>
+      <c r="B8" s="127" t="s">
+        <v>243</v>
       </c>
       <c r="C8" s="32" t="s">
-        <v>366</v>
+        <v>253</v>
       </c>
       <c r="D8" s="24" t="s">
         <v>7</v>
       </c>
       <c r="E8" s="33" t="s">
-        <v>136</v>
-      </c>
-      <c r="F8" s="70" t="str">
+        <v>81</v>
+      </c>
+      <c r="F8" s="134" t="str">
         <f>HYPERLINK(
 _xlfn.CONCAT(
 BASE_URL,
@@ -6513,22 +6265,22 @@
 "Testing Detection of Reverse Engineering Tools")</f>
         <v>Testing Detection of Reverse Engineering Tools</v>
       </c>
-      <c r="G8" s="64"/>
+      <c r="G8" s="61"/>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B9" s="137" t="s">
-        <v>357</v>
+      <c r="B9" s="127" t="s">
+        <v>244</v>
       </c>
       <c r="C9" s="32" t="s">
-        <v>367</v>
+        <v>254</v>
       </c>
       <c r="D9" s="24" t="s">
         <v>7</v>
       </c>
       <c r="E9" s="33" t="s">
-        <v>136</v>
-      </c>
-      <c r="F9" s="70" t="str">
+        <v>81</v>
+      </c>
+      <c r="F9" s="134" t="str">
         <f>HYPERLINK(
 _xlfn.CONCAT(
 BASE_URL,
@@ -6536,22 +6288,22 @@
 "Testing Simple Emulator Detection")</f>
         <v>Testing Simple Emulator Detection</v>
       </c>
-      <c r="G9" s="64"/>
+      <c r="G9" s="61"/>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B10" s="137" t="s">
-        <v>358</v>
+      <c r="B10" s="127" t="s">
+        <v>245</v>
       </c>
       <c r="C10" s="32" t="s">
-        <v>368</v>
+        <v>255</v>
       </c>
       <c r="D10" s="24" t="s">
         <v>7</v>
       </c>
       <c r="E10" s="33" t="s">
-        <v>136</v>
-      </c>
-      <c r="F10" s="70" t="str">
+        <v>81</v>
+      </c>
+      <c r="F10" s="134" t="str">
         <f>HYPERLINK(
 _xlfn.CONCAT(
 BASE_URL,
@@ -6559,58 +6311,58 @@
 "Testing Run-Time Integrity Checks")</f>
         <v>Testing Run-Time Integrity Checks</v>
       </c>
-      <c r="G10" s="64"/>
+      <c r="G10" s="61"/>
     </row>
     <row r="11" spans="2:7" ht="32" x14ac:dyDescent="0.2">
-      <c r="B11" s="137" t="s">
-        <v>359</v>
+      <c r="B11" s="127" t="s">
+        <v>246</v>
       </c>
       <c r="C11" s="32" t="s">
-        <v>369</v>
+        <v>256</v>
       </c>
       <c r="D11" s="24" t="s">
         <v>7</v>
       </c>
       <c r="E11" s="33" t="s">
-        <v>136</v>
+        <v>81</v>
       </c>
       <c r="F11" s="45" t="s">
-        <v>190</v>
-      </c>
-      <c r="G11" s="64"/>
+        <v>131</v>
+      </c>
+      <c r="G11" s="61"/>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B12" s="137" t="s">
-        <v>360</v>
+      <c r="B12" s="127" t="s">
+        <v>247</v>
       </c>
       <c r="C12" s="32" t="s">
-        <v>370</v>
+        <v>257</v>
       </c>
       <c r="D12" s="24" t="s">
         <v>7</v>
       </c>
       <c r="E12" s="33" t="s">
-        <v>136</v>
+        <v>81</v>
       </c>
       <c r="F12" s="45" t="s">
-        <v>190</v>
-      </c>
-      <c r="G12" s="64"/>
+        <v>131</v>
+      </c>
+      <c r="G12" s="61"/>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B13" s="137" t="s">
-        <v>267</v>
+      <c r="B13" s="127" t="s">
+        <v>157</v>
       </c>
       <c r="C13" s="32" t="s">
-        <v>371</v>
+        <v>258</v>
       </c>
       <c r="D13" s="24" t="s">
         <v>7</v>
       </c>
       <c r="E13" s="33" t="s">
-        <v>136</v>
-      </c>
-      <c r="F13" s="73" t="str">
+        <v>81</v>
+      </c>
+      <c r="F13" s="135" t="str">
         <f>HYPERLINK(
 _xlfn.CONCAT(
 BASE_URL,
@@ -6618,12 +6370,12 @@
 "Testing Simple Obfuscation")</f>
         <v>Testing Simple Obfuscation</v>
       </c>
-      <c r="G13" s="64"/>
+      <c r="G13" s="61"/>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B14" s="122"/>
+      <c r="B14" s="113"/>
       <c r="C14" s="34" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="D14" s="34"/>
       <c r="E14" s="34"/>
@@ -6631,19 +6383,19 @@
       <c r="G14" s="35"/>
     </row>
     <row r="15" spans="2:7" ht="32" x14ac:dyDescent="0.2">
-      <c r="B15" s="124" t="s">
-        <v>128</v>
+      <c r="B15" s="115" t="s">
+        <v>73</v>
       </c>
       <c r="C15" s="32" t="s">
-        <v>372</v>
+        <v>259</v>
       </c>
       <c r="D15" s="24" t="s">
         <v>7</v>
       </c>
       <c r="E15" s="33" t="s">
-        <v>136</v>
-      </c>
-      <c r="F15" s="73" t="str">
+        <v>81</v>
+      </c>
+      <c r="F15" s="135" t="str">
         <f>HYPERLINK(
 _xlfn.CONCAT(
 BASE_URL,
@@ -6651,56 +6403,56 @@
 "Testing Device Binding")</f>
         <v>Testing Device Binding</v>
       </c>
-      <c r="G15" s="64"/>
+      <c r="G15" s="61"/>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B16" s="122"/>
+      <c r="B16" s="113"/>
       <c r="C16" s="34" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="D16" s="34"/>
       <c r="E16" s="34"/>
       <c r="F16" s="34"/>
       <c r="G16" s="35"/>
     </row>
-    <row r="17" spans="2:7" ht="48" x14ac:dyDescent="0.2">
-      <c r="B17" s="137" t="s">
-        <v>361</v>
+    <row r="17" spans="2:7" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="127" t="s">
+        <v>248</v>
       </c>
       <c r="C17" s="32" t="s">
-        <v>373</v>
+        <v>260</v>
       </c>
       <c r="D17" s="24" t="s">
         <v>7</v>
       </c>
       <c r="E17" s="33" t="s">
-        <v>136</v>
+        <v>81</v>
       </c>
       <c r="F17" s="45" t="s">
-        <v>190</v>
-      </c>
-      <c r="G17" s="64"/>
+        <v>131</v>
+      </c>
+      <c r="G17" s="61"/>
     </row>
     <row r="18" spans="2:7" ht="64" x14ac:dyDescent="0.2">
-      <c r="B18" s="137" t="s">
-        <v>362</v>
+      <c r="B18" s="127" t="s">
+        <v>249</v>
       </c>
       <c r="C18" s="32" t="s">
-        <v>374</v>
+        <v>261</v>
       </c>
       <c r="D18" s="24" t="s">
         <v>7</v>
       </c>
       <c r="E18" s="33" t="s">
-        <v>136</v>
+        <v>81</v>
       </c>
       <c r="F18" s="45" t="s">
-        <v>190</v>
-      </c>
-      <c r="G18" s="64"/>
+        <v>131</v>
+      </c>
+      <c r="G18" s="61"/>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B19" s="125"/>
+      <c r="B19" s="116"/>
       <c r="C19" s="36"/>
       <c r="D19" s="37"/>
       <c r="E19" s="37"/>
@@ -6708,102 +6460,102 @@
       <c r="G19" s="38"/>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B20" s="126"/>
-      <c r="C20" s="39"/>
-      <c r="D20" s="39"/>
-      <c r="E20" s="39"/>
-      <c r="F20" s="39"/>
-      <c r="G20" s="39"/>
+      <c r="B20" s="137"/>
+      <c r="C20" s="139"/>
+      <c r="D20" s="139"/>
+      <c r="E20" s="139"/>
+      <c r="F20" s="139"/>
+      <c r="G20" s="139"/>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B21" s="126"/>
-      <c r="C21" s="39"/>
-      <c r="D21" s="39"/>
-      <c r="E21" s="39"/>
-      <c r="F21" s="39"/>
-      <c r="G21" s="39"/>
+      <c r="B21" s="137"/>
+      <c r="C21" s="139"/>
+      <c r="D21" s="139"/>
+      <c r="E21" s="139"/>
+      <c r="F21" s="139"/>
+      <c r="G21" s="139"/>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B22" s="127" t="s">
-        <v>132</v>
-      </c>
-      <c r="C22" s="40"/>
-      <c r="D22" s="39"/>
-      <c r="E22" s="39"/>
-      <c r="F22" s="39"/>
-      <c r="G22" s="39"/>
+      <c r="B22" s="140" t="s">
+        <v>77</v>
+      </c>
+      <c r="C22" s="138"/>
+      <c r="D22" s="139"/>
+      <c r="E22" s="139"/>
+      <c r="F22" s="139"/>
+      <c r="G22" s="139"/>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B23" s="128" t="s">
-        <v>133</v>
+      <c r="B23" s="119" t="s">
+        <v>78</v>
       </c>
       <c r="C23" s="41" t="s">
-        <v>134</v>
-      </c>
-      <c r="D23" s="39"/>
-      <c r="E23" s="39"/>
-      <c r="F23" s="39"/>
-      <c r="G23" s="39"/>
+        <v>79</v>
+      </c>
+      <c r="D23" s="139"/>
+      <c r="E23" s="139"/>
+      <c r="F23" s="139"/>
+      <c r="G23" s="139"/>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B24" s="129" t="s">
-        <v>166</v>
+      <c r="B24" s="120" t="s">
+        <v>111</v>
       </c>
       <c r="C24" s="42" t="s">
-        <v>135</v>
-      </c>
-      <c r="D24" s="39"/>
-      <c r="E24" s="39"/>
-      <c r="F24" s="39"/>
-      <c r="G24" s="39"/>
+        <v>80</v>
+      </c>
+      <c r="D24" s="139"/>
+      <c r="E24" s="139"/>
+      <c r="F24" s="139"/>
+      <c r="G24" s="139"/>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B25" s="129" t="s">
-        <v>167</v>
+      <c r="B25" s="120" t="s">
+        <v>112</v>
       </c>
       <c r="C25" s="42" t="s">
-        <v>138</v>
-      </c>
-      <c r="D25" s="39"/>
-      <c r="E25" s="39"/>
-      <c r="F25" s="39"/>
-      <c r="G25" s="39"/>
+        <v>83</v>
+      </c>
+      <c r="D25" s="139"/>
+      <c r="E25" s="139"/>
+      <c r="F25" s="139"/>
+      <c r="G25" s="139"/>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B26" s="129" t="s">
-        <v>136</v>
+      <c r="B26" s="120" t="s">
+        <v>81</v>
       </c>
       <c r="C26" s="42" t="s">
-        <v>137</v>
-      </c>
-      <c r="D26" s="39"/>
-      <c r="E26" s="39"/>
-      <c r="F26" s="39"/>
-      <c r="G26" s="39"/>
+        <v>82</v>
+      </c>
+      <c r="D26" s="139"/>
+      <c r="E26" s="139"/>
+      <c r="F26" s="139"/>
+      <c r="G26" s="139"/>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B27" s="135"/>
-      <c r="C27" s="23"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="23"/>
-      <c r="F27" s="23"/>
-      <c r="G27" s="23"/>
+      <c r="B27" s="142"/>
+      <c r="C27" s="141"/>
+      <c r="D27" s="141"/>
+      <c r="E27" s="141"/>
+      <c r="F27" s="141"/>
+      <c r="G27" s="141"/>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B28" s="135"/>
-      <c r="C28" s="23"/>
-      <c r="D28" s="23"/>
-      <c r="E28" s="23"/>
-      <c r="F28" s="23"/>
-      <c r="G28" s="23"/>
+      <c r="B28" s="142"/>
+      <c r="C28" s="141"/>
+      <c r="D28" s="141"/>
+      <c r="E28" s="141"/>
+      <c r="F28" s="141"/>
+      <c r="G28" s="141"/>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B29" s="135"/>
-      <c r="C29" s="23"/>
-      <c r="D29" s="23"/>
-      <c r="E29" s="23"/>
-      <c r="F29" s="23"/>
-      <c r="G29" s="23"/>
+      <c r="B29" s="142"/>
+      <c r="C29" s="141"/>
+      <c r="D29" s="141"/>
+      <c r="E29" s="141"/>
+      <c r="F29" s="141"/>
+      <c r="G29" s="141"/>
     </row>
   </sheetData>
   <dataValidations disablePrompts="1" count="1">
@@ -6821,25 +6573,25 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="B1:J85"/>
   <sheetViews>
-    <sheetView topLeftCell="A38" zoomScaleNormal="100" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="B38" sqref="B1:B1048576"/>
+    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="1.83203125" customWidth="1"/>
-    <col min="2" max="2" width="8" style="120" customWidth="1"/>
+    <col min="2" max="2" width="8" style="111" customWidth="1"/>
     <col min="3" max="3" width="97.33203125" customWidth="1"/>
     <col min="4" max="5" width="6.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="5.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="51.33203125" customWidth="1"/>
+    <col min="7" max="7" width="60.33203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="30.83203125" customWidth="1"/>
     <col min="10" max="11" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="19" x14ac:dyDescent="0.25">
-      <c r="B1" s="130" t="s">
-        <v>229</v>
+      <c r="B1" s="121" t="s">
+        <v>135</v>
       </c>
       <c r="C1" s="43"/>
       <c r="D1" s="43"/>
@@ -6849,7 +6601,7 @@
       <c r="H1" s="43"/>
     </row>
     <row r="2" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B2" s="131"/>
+      <c r="B2" s="122"/>
       <c r="C2" s="43"/>
       <c r="D2" s="43"/>
       <c r="E2" s="43"/>
@@ -6858,7 +6610,7 @@
       <c r="H2" s="43"/>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B3" s="132" t="s">
+      <c r="B3" s="123" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="26" t="s">
@@ -6871,17 +6623,17 @@
         <v>3</v>
       </c>
       <c r="F3" s="27" t="s">
-        <v>164</v>
+        <v>109</v>
       </c>
       <c r="G3" s="27" t="s">
-        <v>178</v>
+        <v>123</v>
       </c>
       <c r="H3" s="28" t="s">
-        <v>165</v>
+        <v>110</v>
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B4" s="133" t="s">
+      <c r="B4" s="124" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="29" t="s">
@@ -6894,11 +6646,11 @@
       <c r="H4" s="31"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B5" s="123" t="s">
+      <c r="B5" s="114" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="32" t="s">
-        <v>48</v>
+      <c r="C5" s="66" t="s">
+        <v>162</v>
       </c>
       <c r="D5" s="25" t="s">
         <v>7</v>
@@ -6908,16 +6660,16 @@
       </c>
       <c r="F5" s="33"/>
       <c r="G5" s="45" t="s">
-        <v>190</v>
-      </c>
-      <c r="H5" s="64"/>
+        <v>131</v>
+      </c>
+      <c r="H5" s="61"/>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B6" s="123">
-        <v>1.2</v>
-      </c>
-      <c r="C6" s="32" t="s">
-        <v>43</v>
+      <c r="B6" s="114" t="s">
+        <v>239</v>
+      </c>
+      <c r="C6" s="66" t="s">
+        <v>163</v>
       </c>
       <c r="D6" s="25" t="s">
         <v>7</v>
@@ -6927,16 +6679,16 @@
       </c>
       <c r="F6" s="33"/>
       <c r="G6" s="45" t="s">
-        <v>190</v>
-      </c>
-      <c r="H6" s="64"/>
+        <v>131</v>
+      </c>
+      <c r="H6" s="61"/>
     </row>
     <row r="7" spans="2:8" ht="32" x14ac:dyDescent="0.2">
-      <c r="B7" s="123">
-        <v>1.3</v>
-      </c>
-      <c r="C7" s="32" t="s">
-        <v>44</v>
+      <c r="B7" s="114" t="s">
+        <v>238</v>
+      </c>
+      <c r="C7" s="66" t="s">
+        <v>164</v>
       </c>
       <c r="D7" s="25" t="s">
         <v>7</v>
@@ -6946,16 +6698,16 @@
       </c>
       <c r="F7" s="33"/>
       <c r="G7" s="45" t="s">
-        <v>190</v>
-      </c>
-      <c r="H7" s="64"/>
+        <v>131</v>
+      </c>
+      <c r="H7" s="61"/>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B8" s="123">
-        <v>1.4</v>
-      </c>
-      <c r="C8" s="32" t="s">
-        <v>45</v>
+      <c r="B8" s="114" t="s">
+        <v>237</v>
+      </c>
+      <c r="C8" s="66" t="s">
+        <v>165</v>
       </c>
       <c r="D8" s="25" t="s">
         <v>7</v>
@@ -6965,130 +6717,130 @@
       </c>
       <c r="F8" s="33"/>
       <c r="G8" s="45" t="s">
-        <v>190</v>
-      </c>
-      <c r="H8" s="64"/>
+        <v>131</v>
+      </c>
+      <c r="H8" s="61"/>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B9" s="123">
-        <v>1.5</v>
-      </c>
-      <c r="C9" s="32" t="s">
-        <v>47</v>
+      <c r="B9" s="114" t="s">
+        <v>236</v>
+      </c>
+      <c r="C9" s="66" t="s">
+        <v>166</v>
       </c>
       <c r="D9" s="32"/>
       <c r="E9" s="44" t="s">
         <v>7</v>
       </c>
       <c r="F9" s="33" t="s">
-        <v>136</v>
+        <v>81</v>
       </c>
       <c r="G9" s="45" t="s">
-        <v>190</v>
-      </c>
-      <c r="H9" s="64"/>
+        <v>131</v>
+      </c>
+      <c r="H9" s="61"/>
     </row>
     <row r="10" spans="2:8" ht="32" x14ac:dyDescent="0.2">
-      <c r="B10" s="123">
-        <v>1.6</v>
-      </c>
-      <c r="C10" s="32" t="s">
-        <v>46</v>
+      <c r="B10" s="114" t="s">
+        <v>235</v>
+      </c>
+      <c r="C10" s="66" t="s">
+        <v>167</v>
       </c>
       <c r="D10" s="32"/>
       <c r="E10" s="44" t="s">
         <v>7</v>
       </c>
       <c r="F10" s="33" t="s">
-        <v>136</v>
+        <v>81</v>
       </c>
       <c r="G10" s="45" t="s">
-        <v>190</v>
-      </c>
-      <c r="H10" s="64"/>
+        <v>131</v>
+      </c>
+      <c r="H10" s="61"/>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B11" s="123">
-        <v>1.7</v>
-      </c>
-      <c r="C11" s="46" t="s">
-        <v>49</v>
+      <c r="B11" s="114" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="66" t="s">
+        <v>168</v>
       </c>
       <c r="D11" s="46"/>
       <c r="E11" s="44" t="s">
         <v>7</v>
       </c>
       <c r="F11" s="33" t="s">
-        <v>136</v>
+        <v>81</v>
       </c>
       <c r="G11" s="45" t="s">
-        <v>190</v>
-      </c>
-      <c r="H11" s="64"/>
+        <v>131</v>
+      </c>
+      <c r="H11" s="61"/>
     </row>
     <row r="12" spans="2:8" ht="32" x14ac:dyDescent="0.2">
-      <c r="B12" s="123">
-        <v>1.8</v>
-      </c>
-      <c r="C12" s="32" t="s">
-        <v>50</v>
+      <c r="B12" s="114" t="s">
+        <v>234</v>
+      </c>
+      <c r="C12" s="66" t="s">
+        <v>169</v>
       </c>
       <c r="D12" s="32"/>
       <c r="E12" s="44" t="s">
         <v>7</v>
       </c>
       <c r="F12" s="33" t="s">
-        <v>136</v>
+        <v>81</v>
       </c>
       <c r="G12" s="45" t="s">
-        <v>190</v>
-      </c>
-      <c r="H12" s="64"/>
+        <v>131</v>
+      </c>
+      <c r="H12" s="61"/>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B13" s="123">
-        <v>1.9</v>
-      </c>
-      <c r="C13" s="32" t="s">
-        <v>259</v>
+      <c r="B13" s="114" t="s">
+        <v>233</v>
+      </c>
+      <c r="C13" s="66" t="s">
+        <v>170</v>
       </c>
       <c r="D13" s="32"/>
       <c r="E13" s="44" t="s">
         <v>7</v>
       </c>
       <c r="F13" s="33" t="s">
-        <v>136</v>
+        <v>81</v>
       </c>
       <c r="G13" s="45" t="s">
-        <v>190</v>
-      </c>
-      <c r="H13" s="64"/>
+        <v>131</v>
+      </c>
+      <c r="H13" s="61"/>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B14" s="124" t="s">
+      <c r="B14" s="114" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="32" t="s">
-        <v>260</v>
+      <c r="C14" s="66" t="s">
+        <v>171</v>
       </c>
       <c r="D14" s="32"/>
       <c r="E14" s="44" t="s">
         <v>7</v>
       </c>
       <c r="F14" s="33" t="s">
-        <v>136</v>
+        <v>81</v>
       </c>
       <c r="G14" s="45" t="s">
-        <v>190</v>
-      </c>
-      <c r="H14" s="64"/>
+        <v>131</v>
+      </c>
+      <c r="H14" s="61"/>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B15" s="122" t="s">
+      <c r="B15" s="113" t="s">
         <v>10</v>
       </c>
       <c r="C15" s="34" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="D15" s="34"/>
       <c r="E15" s="47"/>
@@ -7097,11 +6849,11 @@
       <c r="H15" s="35"/>
     </row>
     <row r="16" spans="2:8" ht="32" x14ac:dyDescent="0.2">
-      <c r="B16" s="134" t="s">
+      <c r="B16" s="125" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="48" t="s">
-        <v>271</v>
+      <c r="C16" s="66" t="s">
+        <v>172</v>
       </c>
       <c r="D16" s="25" t="s">
         <v>7</v>
@@ -7110,32 +6862,42 @@
         <v>7</v>
       </c>
       <c r="F16" s="33"/>
-      <c r="G16" s="49" t="s">
-        <v>186</v>
-      </c>
-      <c r="H16" s="64"/>
+      <c r="G16" s="134" t="str">
+        <f>HYPERLINK(
+_xlfn.CONCAT(
+BASE_URL,
+"0x06d-Testing-Data-Storage.md#testing-local-data-storage"),
+"Testing For Sensitive Data in Local Data Storage")</f>
+        <v>Testing For Sensitive Data in Local Data Storage</v>
+      </c>
+      <c r="H16" s="61"/>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B17" s="134" t="s">
-        <v>65</v>
-      </c>
-      <c r="C17" s="48" t="s">
-        <v>272</v>
+      <c r="B17" s="125" t="s">
+        <v>48</v>
+      </c>
+      <c r="C17" s="66" t="s">
+        <v>173</v>
       </c>
       <c r="D17" s="25"/>
       <c r="E17" s="44"/>
       <c r="F17" s="33"/>
-      <c r="G17" s="49" t="s">
-        <v>186</v>
-      </c>
-      <c r="H17" s="64"/>
+      <c r="G17" s="134" t="str">
+        <f>HYPERLINK(
+_xlfn.CONCAT(
+BASE_URL,
+"0x06d-Testing-Data-Storage.md#testing-local-data-storage"),
+"Testing For Sensitive Data in Local Data Storage")</f>
+        <v>Testing For Sensitive Data in Local Data Storage</v>
+      </c>
+      <c r="H17" s="61"/>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B18" s="134" t="s">
-        <v>66</v>
-      </c>
-      <c r="C18" s="48" t="s">
-        <v>70</v>
+      <c r="B18" s="125" t="s">
+        <v>49</v>
+      </c>
+      <c r="C18" s="66" t="s">
+        <v>174</v>
       </c>
       <c r="D18" s="25" t="s">
         <v>7</v>
@@ -7144,17 +6906,22 @@
         <v>7</v>
       </c>
       <c r="F18" s="33"/>
-      <c r="G18" s="49" t="s">
-        <v>187</v>
-      </c>
-      <c r="H18" s="64"/>
+      <c r="G18" s="134" t="str">
+        <f>HYPERLINK(
+_xlfn.CONCAT(
+BASE_URL,
+"0x06d-Testing-Data-Storage.md#checking-logs-for-sensitive-data"),
+"Testing For Sensitive Data in Logs")</f>
+        <v>Testing For Sensitive Data in Logs</v>
+      </c>
+      <c r="H18" s="61"/>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B19" s="134" t="s">
+      <c r="B19" s="125" t="s">
         <v>12</v>
       </c>
-      <c r="C19" s="48" t="s">
-        <v>71</v>
+      <c r="C19" s="66" t="s">
+        <v>175</v>
       </c>
       <c r="D19" s="25" t="s">
         <v>7</v>
@@ -7163,17 +6930,22 @@
         <v>7</v>
       </c>
       <c r="F19" s="33"/>
-      <c r="G19" s="49" t="s">
-        <v>188</v>
-      </c>
-      <c r="H19" s="64"/>
-    </row>
-    <row r="20" spans="2:8" ht="32" x14ac:dyDescent="0.2">
-      <c r="B20" s="134" t="s">
-        <v>67</v>
-      </c>
-      <c r="C20" s="48" t="s">
-        <v>72</v>
+      <c r="G19" s="134" t="str">
+        <f>HYPERLINK(
+_xlfn.CONCAT(
+BASE_URL,
+"0x06d-Testing-Data-Storage.md#determining-whether-sensitive-data-is-sent-to-third-parties"),
+"Testing Whether Sensitive Data Is Sent To Third Parties")</f>
+        <v>Testing Whether Sensitive Data Is Sent To Third Parties</v>
+      </c>
+      <c r="H19" s="61"/>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B20" s="125" t="s">
+        <v>50</v>
+      </c>
+      <c r="C20" s="66" t="s">
+        <v>176</v>
       </c>
       <c r="D20" s="25" t="s">
         <v>7</v>
@@ -7182,17 +6954,22 @@
         <v>7</v>
       </c>
       <c r="F20" s="33"/>
-      <c r="G20" s="49" t="s">
-        <v>189</v>
-      </c>
-      <c r="H20" s="64"/>
+      <c r="G20" s="135" t="str">
+        <f>HYPERLINK(
+_xlfn.CONCAT(
+BASE_URL,
+"0x06d-Testing-Data-Storage.md#finding-sensitive-data-in-the-keyboard-cache"),
+"Testing Whether the Keyboard Cache Is Disabled for Text Input Fields")</f>
+        <v>Testing Whether the Keyboard Cache Is Disabled for Text Input Fields</v>
+      </c>
+      <c r="H20" s="61"/>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B21" s="134" t="s">
+      <c r="B21" s="125" t="s">
         <v>13</v>
       </c>
-      <c r="C21" s="48" t="s">
-        <v>73</v>
+      <c r="C21" s="66" t="s">
+        <v>177</v>
       </c>
       <c r="D21" s="25" t="s">
         <v>7</v>
@@ -7201,17 +6978,22 @@
         <v>7</v>
       </c>
       <c r="F21" s="33"/>
-      <c r="G21" s="49" t="s">
-        <v>191</v>
-      </c>
-      <c r="H21" s="64"/>
+      <c r="G21" s="135" t="str">
+        <f>HYPERLINK(
+_xlfn.CONCAT(
+BASE_URL,
+"0x06d-Testing-Data-Storage.md#determining-whether-sensitive-data-is-exposed-via-ipc-mechanisms"),
+"Testing Whether Sensitive Data Is Exposed via IPC Mechanisms")</f>
+        <v>Testing Whether Sensitive Data Is Exposed via IPC Mechanisms</v>
+      </c>
+      <c r="H21" s="61"/>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B22" s="134" t="s">
+      <c r="B22" s="125" t="s">
         <v>14</v>
       </c>
-      <c r="C22" s="48" t="s">
-        <v>261</v>
+      <c r="C22" s="66" t="s">
+        <v>178</v>
       </c>
       <c r="D22" s="25" t="s">
         <v>7</v>
@@ -7220,108 +7002,134 @@
         <v>7</v>
       </c>
       <c r="F22" s="33" t="s">
-        <v>136</v>
-      </c>
-      <c r="G22" s="49" t="s">
-        <v>230</v>
-      </c>
-      <c r="H22" s="64"/>
+        <v>81</v>
+      </c>
+      <c r="G22" s="135" t="str">
+        <f>HYPERLINK(
+_xlfn.CONCAT(
+BASE_URL,
+"0x06d-Testing-Data-Storage.md#checking-for-sensitive-data-disclosed-through-the-user-interface"),
+"Testing for Sensitive Data Disclosure Through the User Interface")</f>
+        <v>Testing for Sensitive Data Disclosure Through the User Interface</v>
+      </c>
+      <c r="H22" s="61"/>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B23" s="134" t="s">
+      <c r="B23" s="125" t="s">
         <v>15</v>
       </c>
-      <c r="C23" s="48" t="s">
-        <v>262</v>
+      <c r="C23" s="66" t="s">
+        <v>179</v>
       </c>
       <c r="D23" s="48"/>
       <c r="E23" s="44" t="s">
         <v>7</v>
       </c>
       <c r="F23" s="33" t="s">
-        <v>136</v>
-      </c>
-      <c r="G23" s="49" t="s">
-        <v>192</v>
-      </c>
-      <c r="H23" s="64"/>
+        <v>81</v>
+      </c>
+      <c r="G23" s="134" t="str">
+        <f>HYPERLINK(
+_xlfn.CONCAT(
+BASE_URL,
+"0x06d-Testing-Data-Storage.md#testing-backups-for-sensitive-data"),
+"Testing for Sensitive Data in Backups")</f>
+        <v>Testing for Sensitive Data in Backups</v>
+      </c>
+      <c r="H23" s="61"/>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B24" s="134" t="s">
+      <c r="B24" s="125" t="s">
         <v>16</v>
       </c>
-      <c r="C24" s="48" t="s">
-        <v>74</v>
+      <c r="C24" s="66" t="s">
+        <v>180</v>
       </c>
       <c r="D24" s="48"/>
       <c r="E24" s="44" t="s">
         <v>7</v>
       </c>
       <c r="F24" s="33" t="s">
-        <v>136</v>
-      </c>
-      <c r="G24" s="49" t="s">
-        <v>193</v>
-      </c>
-      <c r="H24" s="64"/>
-    </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B25" s="134" t="s">
-        <v>68</v>
-      </c>
-      <c r="C25" s="48" t="s">
-        <v>75</v>
+        <v>81</v>
+      </c>
+      <c r="G24" s="134" t="str">
+        <f>HYPERLINK(
+_xlfn.CONCAT(
+BASE_URL,
+"0x06d-Testing-Data-Storage.md#testing-auto-generated-screenshots-for-sensitive-information"),
+"Testing for Sensitive Information in Auto-Generated Screenshots")</f>
+        <v>Testing for Sensitive Information in Auto-Generated Screenshots</v>
+      </c>
+      <c r="H24" s="61"/>
+    </row>
+    <row r="25" spans="2:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="B25" s="125" t="s">
+        <v>51</v>
+      </c>
+      <c r="C25" s="66" t="s">
+        <v>181</v>
       </c>
       <c r="D25" s="48"/>
       <c r="E25" s="44" t="s">
         <v>7</v>
       </c>
       <c r="F25" s="33" t="s">
-        <v>136</v>
-      </c>
-      <c r="G25" s="49" t="s">
-        <v>194</v>
-      </c>
-      <c r="H25" s="64"/>
+        <v>81</v>
+      </c>
+      <c r="G25" s="135" t="str">
+        <f>HYPERLINK(
+_xlfn.CONCAT(
+BASE_URL,
+"0x06d-Testing-Data-Storage.md#testing-memory-for-sensitive-data"),
+"Testing for Sensitive Data in Memory")</f>
+        <v>Testing for Sensitive Data in Memory</v>
+      </c>
+      <c r="H25" s="61"/>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B26" s="134" t="s">
-        <v>69</v>
-      </c>
-      <c r="C26" s="48" t="s">
-        <v>76</v>
+      <c r="B26" s="125" t="s">
+        <v>52</v>
+      </c>
+      <c r="C26" s="66" t="s">
+        <v>182</v>
       </c>
       <c r="D26" s="48"/>
       <c r="E26" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="F26" s="33"/>
-      <c r="G26" s="49"/>
-      <c r="H26" s="64"/>
+      <c r="F26" s="33" t="s">
+        <v>81</v>
+      </c>
+      <c r="G26" s="45" t="s">
+        <v>131</v>
+      </c>
+      <c r="H26" s="61"/>
     </row>
     <row r="27" spans="2:8" ht="32" x14ac:dyDescent="0.2">
-      <c r="B27" s="134" t="s">
+      <c r="B27" s="125" t="s">
         <v>17</v>
       </c>
-      <c r="C27" s="48" t="s">
-        <v>125</v>
+      <c r="C27" s="66" t="s">
+        <v>183</v>
       </c>
       <c r="D27" s="48"/>
       <c r="E27" s="44" t="s">
         <v>7</v>
       </c>
       <c r="F27" s="33" t="s">
-        <v>136</v>
-      </c>
-      <c r="G27" s="49"/>
-      <c r="H27" s="64"/>
+        <v>81</v>
+      </c>
+      <c r="G27" s="45" t="s">
+        <v>131</v>
+      </c>
+      <c r="H27" s="61"/>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B28" s="122" t="s">
+      <c r="B28" s="113" t="s">
         <v>18</v>
       </c>
       <c r="C28" s="34" t="s">
-        <v>77</v>
+        <v>53</v>
       </c>
       <c r="D28" s="34"/>
       <c r="E28" s="47"/>
@@ -7330,11 +7138,11 @@
       <c r="H28" s="35"/>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B29" s="134" t="s">
+      <c r="B29" s="125" t="s">
         <v>19</v>
       </c>
-      <c r="C29" s="48" t="s">
-        <v>78</v>
+      <c r="C29" s="66" t="s">
+        <v>184</v>
       </c>
       <c r="D29" s="25" t="s">
         <v>7</v>
@@ -7343,17 +7151,22 @@
         <v>7</v>
       </c>
       <c r="F29" s="33"/>
-      <c r="G29" s="49" t="s">
-        <v>195</v>
-      </c>
-      <c r="H29" s="64"/>
+      <c r="G29" s="134" t="str">
+        <f>HYPERLINK(
+_xlfn.CONCAT(
+BASE_URL,
+"0x06e-Testing-Cryptography.md#testing-key-management"),
+"Verifying Key Management")</f>
+        <v>Verifying Key Management</v>
+      </c>
+      <c r="H29" s="61"/>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B30" s="134" t="s">
+      <c r="B30" s="125" t="s">
         <v>20</v>
       </c>
-      <c r="C30" s="48" t="s">
-        <v>79</v>
+      <c r="C30" s="66" t="s">
+        <v>185</v>
       </c>
       <c r="D30" s="25" t="s">
         <v>7</v>
@@ -7362,17 +7175,22 @@
         <v>7</v>
       </c>
       <c r="F30" s="33"/>
-      <c r="G30" s="49" t="s">
-        <v>196</v>
-      </c>
-      <c r="H30" s="64"/>
+      <c r="G30" s="134" t="str">
+        <f>HYPERLINK(
+_xlfn.CONCAT(
+BASE_URL,
+"0x04g-Testing-Cryptography.md#custom-implementations-of-cryptography"),
+"Testing for Custom Implementations of Cryptography")</f>
+        <v>Testing for Custom Implementations of Cryptography</v>
+      </c>
+      <c r="H30" s="61"/>
     </row>
     <row r="31" spans="2:8" ht="32" x14ac:dyDescent="0.2">
-      <c r="B31" s="134" t="s">
+      <c r="B31" s="125" t="s">
         <v>21</v>
       </c>
-      <c r="C31" s="48" t="s">
-        <v>80</v>
+      <c r="C31" s="66" t="s">
+        <v>186</v>
       </c>
       <c r="D31" s="25" t="s">
         <v>7</v>
@@ -7381,17 +7199,22 @@
         <v>7</v>
       </c>
       <c r="F31" s="33"/>
-      <c r="G31" s="49" t="s">
-        <v>197</v>
-      </c>
-      <c r="H31" s="64"/>
-    </row>
-    <row r="32" spans="2:8" ht="32" x14ac:dyDescent="0.2">
-      <c r="B32" s="134" t="s">
+      <c r="G31" s="134" t="str">
+        <f>HYPERLINK(
+_xlfn.CONCAT(
+BASE_URL,
+"0x06e-Testing-Cryptography.md#verifying-the-configuration-of-cryptographic-standard-algorithms"),
+"Verifying the Configuration of Cryptographic Standard Algorithms")</f>
+        <v>Verifying the Configuration of Cryptographic Standard Algorithms</v>
+      </c>
+      <c r="H31" s="61"/>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B32" s="125" t="s">
         <v>22</v>
       </c>
-      <c r="C32" s="48" t="s">
-        <v>126</v>
+      <c r="C32" s="66" t="s">
+        <v>187</v>
       </c>
       <c r="D32" s="25" t="s">
         <v>7</v>
@@ -7400,17 +7223,22 @@
         <v>7</v>
       </c>
       <c r="F32" s="33"/>
-      <c r="G32" s="49" t="s">
-        <v>198</v>
-      </c>
-      <c r="H32" s="64"/>
+      <c r="G32" s="134" t="str">
+        <f>HYPERLINK(
+_xlfn.CONCAT(
+BASE_URL,
+"0x04g-Testing-Cryptography.md#identifying-insecure-andor-deprecated-cryptographic-algorithms"),
+"Testing for Insecure and/or Deprecated Cryptographic Algorithms")</f>
+        <v>Testing for Insecure and/or Deprecated Cryptographic Algorithms</v>
+      </c>
+      <c r="H32" s="61"/>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B33" s="134" t="s">
+      <c r="B33" s="125" t="s">
         <v>23</v>
       </c>
-      <c r="C33" s="48" t="s">
-        <v>81</v>
+      <c r="C33" s="66" t="s">
+        <v>188</v>
       </c>
       <c r="D33" s="25" t="s">
         <v>7</v>
@@ -7419,17 +7247,22 @@
         <v>7</v>
       </c>
       <c r="F33" s="33"/>
-      <c r="G33" s="49" t="s">
-        <v>195</v>
-      </c>
-      <c r="H33" s="64"/>
+      <c r="G33" s="134" t="str">
+        <f>HYPERLINK(
+_xlfn.CONCAT(
+BASE_URL,
+"0x06e-Testing-Cryptography.md#testing-key-management"),
+"Verifying Key Management")</f>
+        <v>Verifying Key Management</v>
+      </c>
+      <c r="H33" s="61"/>
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B34" s="134" t="s">
+      <c r="B34" s="125" t="s">
         <v>24</v>
       </c>
-      <c r="C34" s="48" t="s">
-        <v>82</v>
+      <c r="C34" s="66" t="s">
+        <v>189</v>
       </c>
       <c r="D34" s="25" t="s">
         <v>7</v>
@@ -7438,17 +7271,22 @@
         <v>7</v>
       </c>
       <c r="F34" s="33"/>
-      <c r="G34" s="49" t="s">
-        <v>199</v>
-      </c>
-      <c r="H34" s="64"/>
+      <c r="G34" s="134" t="str">
+        <f>HYPERLINK(
+_xlfn.CONCAT(
+BASE_URL,
+"0x06e-Testing-Cryptography.md#testing-random-number-generation"),
+"Testing Random Number Generation")</f>
+        <v>Testing Random Number Generation</v>
+      </c>
+      <c r="H34" s="61"/>
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B35" s="122" t="s">
+      <c r="B35" s="113" t="s">
         <v>25</v>
       </c>
       <c r="C35" s="34" t="s">
-        <v>83</v>
+        <v>54</v>
       </c>
       <c r="D35" s="34"/>
       <c r="E35" s="47"/>
@@ -7457,11 +7295,11 @@
       <c r="H35" s="35"/>
     </row>
     <row r="36" spans="2:10" ht="32" x14ac:dyDescent="0.2">
-      <c r="B36" s="134" t="s">
+      <c r="B36" s="125" t="s">
         <v>26</v>
       </c>
       <c r="C36" s="48" t="s">
-        <v>88</v>
+        <v>190</v>
       </c>
       <c r="D36" s="25" t="s">
         <v>7</v>
@@ -7470,17 +7308,22 @@
         <v>7</v>
       </c>
       <c r="F36" s="33"/>
-      <c r="G36" s="49" t="s">
-        <v>200</v>
-      </c>
-      <c r="H36" s="64"/>
+      <c r="G36" s="135" t="str">
+        <f>HYPERLINK(
+_xlfn.CONCAT(
+BASE_URL,
+"0x04e-Testing-Authentication-and-Session-Management.md#testing-authentication"),
+"Verifying that Users Are Properly Authenticated")</f>
+        <v>Verifying that Users Are Properly Authenticated</v>
+      </c>
+      <c r="H36" s="61"/>
     </row>
     <row r="37" spans="2:10" ht="32" x14ac:dyDescent="0.2">
-      <c r="B37" s="134" t="s">
-        <v>84</v>
+      <c r="B37" s="125" t="s">
+        <v>55</v>
       </c>
       <c r="C37" s="48" t="s">
-        <v>251</v>
+        <v>191</v>
       </c>
       <c r="D37" s="25" t="s">
         <v>7</v>
@@ -7489,17 +7332,22 @@
         <v>7</v>
       </c>
       <c r="F37" s="33"/>
-      <c r="G37" s="49" t="s">
-        <v>201</v>
-      </c>
-      <c r="H37" s="64"/>
-    </row>
-    <row r="38" spans="2:10" ht="32" x14ac:dyDescent="0.2">
-      <c r="B38" s="134" t="s">
-        <v>85</v>
+      <c r="G37" s="135" t="str">
+        <f>HYPERLINK(
+_xlfn.CONCAT(
+BASE_URL,
+"0x04e-Testing-Authentication-and-Session-Management.md#testing-stateful-session-management"),
+"Testing Session Management")</f>
+        <v>Testing Session Management</v>
+      </c>
+      <c r="H37" s="61"/>
+    </row>
+    <row r="38" spans="2:10" ht="17" x14ac:dyDescent="0.2">
+      <c r="B38" s="125" t="s">
+        <v>56</v>
       </c>
       <c r="C38" s="48" t="s">
-        <v>249</v>
+        <v>192</v>
       </c>
       <c r="D38" s="25" t="s">
         <v>7</v>
@@ -7508,33 +7356,43 @@
         <v>7</v>
       </c>
       <c r="F38" s="33"/>
-      <c r="G38" s="49" t="s">
-        <v>274</v>
-      </c>
-      <c r="H38" s="64"/>
+      <c r="G38" s="135" t="str">
+        <f>HYPERLINK(
+_xlfn.CONCAT(
+BASE_URL,
+"0x04e-Testing-Authentication-and-Session-Management.md#testing-stateless-token-based-authentication"),
+"Testing Stateless Authentication")</f>
+        <v>Testing Stateless Authentication</v>
+      </c>
+      <c r="H38" s="61"/>
     </row>
     <row r="39" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B39" s="134" t="s">
+      <c r="B39" s="125" t="s">
         <v>27</v>
       </c>
       <c r="C39" s="48" t="s">
-        <v>263</v>
+        <v>193</v>
       </c>
       <c r="D39" s="25"/>
       <c r="E39" s="44"/>
       <c r="F39" s="33"/>
-      <c r="G39" s="49" t="s">
-        <v>203</v>
-      </c>
-      <c r="H39" s="64"/>
+      <c r="G39" s="134" t="str">
+        <f>HYPERLINK(
+_xlfn.CONCAT(
+BASE_URL,
+"0x04e-Testing-Authentication-and-Session-Management.md#user-logout-and-session-timeouts"),
+"Testing the Logout Functionality")</f>
+        <v>Testing the Logout Functionality</v>
+      </c>
+      <c r="H39" s="61"/>
       <c r="J39" s="49"/>
     </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B40" s="134" t="s">
+    <row r="40" spans="2:10" ht="17" x14ac:dyDescent="0.2">
+      <c r="B40" s="125" t="s">
         <v>28</v>
       </c>
       <c r="C40" s="48" t="s">
-        <v>89</v>
+        <v>194</v>
       </c>
       <c r="D40" s="25" t="s">
         <v>7</v>
@@ -7543,18 +7401,23 @@
         <v>7</v>
       </c>
       <c r="F40" s="33"/>
-      <c r="G40" s="49" t="s">
-        <v>202</v>
-      </c>
-      <c r="H40" s="64"/>
+      <c r="G40" s="135" t="str">
+        <f>HYPERLINK(
+_xlfn.CONCAT(
+BASE_URL,
+"0x04e-Testing-Authentication-and-Session-Management.md#testing-authentication"),
+"Testing the Password Policy")</f>
+        <v>Testing the Password Policy</v>
+      </c>
+      <c r="H40" s="61"/>
       <c r="J40" s="49"/>
     </row>
     <row r="41" spans="2:10" ht="32" x14ac:dyDescent="0.2">
-      <c r="B41" s="134" t="s">
-        <v>86</v>
+      <c r="B41" s="125" t="s">
+        <v>57</v>
       </c>
       <c r="C41" s="48" t="s">
-        <v>266</v>
+        <v>195</v>
       </c>
       <c r="D41" s="25" t="s">
         <v>7</v>
@@ -7563,17 +7426,22 @@
         <v>7</v>
       </c>
       <c r="F41" s="33"/>
-      <c r="G41" s="49" t="s">
-        <v>204</v>
-      </c>
-      <c r="H41" s="64"/>
-    </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B42" s="134" t="s">
-        <v>87</v>
+      <c r="G41" s="135" t="str">
+        <f>HYPERLINK(
+_xlfn.CONCAT(
+BASE_URL,
+"0x04e-Testing-Authentication-and-Session-Management.md#running-a-password-dictionary-attack"),
+"Testing Excessive Login Attempts")</f>
+        <v>Testing Excessive Login Attempts</v>
+      </c>
+      <c r="H41" s="61"/>
+    </row>
+    <row r="42" spans="2:10" ht="17" x14ac:dyDescent="0.2">
+      <c r="B42" s="125" t="s">
+        <v>58</v>
       </c>
       <c r="C42" s="48" t="s">
-        <v>264</v>
+        <v>197</v>
       </c>
       <c r="D42" s="25" t="s">
         <v>7</v>
@@ -7582,91 +7450,113 @@
         <v>7</v>
       </c>
       <c r="F42" s="33"/>
-      <c r="G42" s="49" t="s">
-        <v>206</v>
-      </c>
-      <c r="H42" s="115"/>
+      <c r="G42" s="135" t="str">
+        <f>HYPERLINK(
+_xlfn.CONCAT(
+BASE_URL,
+"0x04e-Testing-Authentication-and-Session-Management.md#session-timeout"),
+"Testing the Session Timeout")</f>
+        <v>Testing the Session Timeout</v>
+      </c>
+      <c r="H42" s="109"/>
     </row>
     <row r="43" spans="2:10" ht="32" x14ac:dyDescent="0.2">
-      <c r="B43" s="134" t="s">
+      <c r="B43" s="125" t="s">
         <v>29</v>
       </c>
       <c r="C43" s="48" t="s">
-        <v>90</v>
+        <v>196</v>
       </c>
       <c r="D43" s="48"/>
       <c r="E43" s="44" t="s">
         <v>7</v>
       </c>
       <c r="F43" s="33" t="s">
-        <v>136</v>
-      </c>
-      <c r="G43" s="66" t="s">
-        <v>205</v>
-      </c>
-      <c r="H43" s="64"/>
-    </row>
-    <row r="44" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B44" s="134" t="s">
+        <v>81</v>
+      </c>
+      <c r="G43" s="134" t="str">
+        <f>HYPERLINK(
+_xlfn.CONCAT(
+BASE_URL,
+"0x06f-Testing-Local-Authentication.md#testing-local-authentication"),
+"Testing Biometric Authentication")</f>
+        <v>Testing Biometric Authentication</v>
+      </c>
+      <c r="H43" s="61"/>
+    </row>
+    <row r="44" spans="2:10" ht="17" x14ac:dyDescent="0.2">
+      <c r="B44" s="125" t="s">
         <v>30</v>
       </c>
       <c r="C44" s="48" t="s">
-        <v>91</v>
+        <v>198</v>
       </c>
       <c r="D44" s="48"/>
       <c r="E44" s="44" t="s">
         <v>7</v>
       </c>
       <c r="F44" s="33" t="s">
-        <v>136</v>
-      </c>
-      <c r="G44" s="49" t="s">
-        <v>207</v>
-      </c>
-      <c r="H44" s="64"/>
+        <v>81</v>
+      </c>
+      <c r="G44" s="135" t="str">
+        <f>HYPERLINK(
+_xlfn.CONCAT(
+BASE_URL,
+"0x04e-Testing-Authentication-and-Session-Management.md#verifying-that-2fa-is-enforced"),
+"Testing 2-Factor Authentication")</f>
+        <v>Testing 2-Factor Authentication</v>
+      </c>
+      <c r="H44" s="61"/>
     </row>
     <row r="45" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B45" s="134" t="s">
+      <c r="B45" s="125" t="s">
         <v>31</v>
       </c>
       <c r="C45" s="48" t="s">
-        <v>92</v>
+        <v>199</v>
       </c>
       <c r="D45" s="48"/>
       <c r="E45" s="44" t="s">
         <v>7</v>
       </c>
       <c r="F45" s="33" t="s">
-        <v>136</v>
-      </c>
-      <c r="G45" s="49" t="s">
-        <v>208</v>
-      </c>
-      <c r="H45" s="64"/>
+        <v>81</v>
+      </c>
+      <c r="G45" s="134" t="str">
+        <f>HYPERLINK(
+_xlfn.CONCAT(
+BASE_URL,
+"0x04e-Testing-Authentication-and-Session-Management.md#verifying-that-2fa-is-enforced"),
+"Testing Step-up Authentication")</f>
+        <v>Testing Step-up Authentication</v>
+      </c>
+      <c r="H45" s="61"/>
     </row>
     <row r="46" spans="2:10" ht="32" x14ac:dyDescent="0.2">
-      <c r="B46" s="134" t="s">
-        <v>250</v>
+      <c r="B46" s="125" t="s">
+        <v>153</v>
       </c>
       <c r="C46" s="48" t="s">
-        <v>93</v>
+        <v>200</v>
       </c>
       <c r="D46" s="48"/>
       <c r="E46" s="44" t="s">
         <v>7</v>
       </c>
       <c r="F46" s="33" t="s">
-        <v>136</v>
-      </c>
-      <c r="G46" s="49"/>
-      <c r="H46" s="64"/>
+        <v>81</v>
+      </c>
+      <c r="G46" s="45" t="s">
+        <v>131</v>
+      </c>
+      <c r="H46" s="61"/>
     </row>
     <row r="47" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B47" s="122" t="s">
+      <c r="B47" s="113" t="s">
         <v>32</v>
       </c>
       <c r="C47" s="34" t="s">
-        <v>94</v>
+        <v>59</v>
       </c>
       <c r="D47" s="34"/>
       <c r="E47" s="47"/>
@@ -7675,11 +7565,11 @@
       <c r="H47" s="35"/>
     </row>
     <row r="48" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B48" s="134" t="s">
+      <c r="B48" s="125" t="s">
         <v>33</v>
       </c>
       <c r="C48" s="48" t="s">
-        <v>97</v>
+        <v>201</v>
       </c>
       <c r="D48" s="25" t="s">
         <v>7</v>
@@ -7688,17 +7578,22 @@
         <v>7</v>
       </c>
       <c r="F48" s="33"/>
-      <c r="G48" s="49" t="s">
-        <v>209</v>
-      </c>
-      <c r="H48" s="64"/>
-    </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B49" s="134" t="s">
-        <v>95</v>
+      <c r="G48" s="134" t="str">
+        <f>HYPERLINK(
+_xlfn.CONCAT(
+BASE_URL,
+"0x04f-Testing-Network-Communication.md#verifying-data-encryption-on-the-network"),
+"Testing for Unencrypted Sensitive Data on the Network")</f>
+        <v>Testing for Unencrypted Sensitive Data on the Network</v>
+      </c>
+      <c r="H48" s="61"/>
+    </row>
+    <row r="49" spans="2:8" ht="32" x14ac:dyDescent="0.2">
+      <c r="B49" s="125" t="s">
+        <v>60</v>
       </c>
       <c r="C49" s="48" t="s">
-        <v>127</v>
+        <v>202</v>
       </c>
       <c r="D49" s="25" t="s">
         <v>7</v>
@@ -7707,17 +7602,22 @@
         <v>7</v>
       </c>
       <c r="F49" s="33"/>
-      <c r="G49" s="49" t="s">
-        <v>210</v>
-      </c>
-      <c r="H49" s="64"/>
+      <c r="G49" s="134" t="str">
+        <f>HYPERLINK(
+_xlfn.CONCAT(
+BASE_URL,
+"0x04f-Testing-Network-Communication.md#recommended-tls-settings"),
+"Verifying the TLS Settings")</f>
+        <v>Verifying the TLS Settings</v>
+      </c>
+      <c r="H49" s="61"/>
     </row>
     <row r="50" spans="2:8" ht="32" x14ac:dyDescent="0.2">
-      <c r="B50" s="134" t="s">
+      <c r="B50" s="125" t="s">
         <v>34</v>
       </c>
       <c r="C50" s="48" t="s">
-        <v>98</v>
+        <v>203</v>
       </c>
       <c r="D50" s="25" t="s">
         <v>7</v>
@@ -7726,72 +7626,89 @@
         <v>7</v>
       </c>
       <c r="F50" s="33"/>
-      <c r="G50" s="49" t="s">
-        <v>211</v>
-      </c>
-      <c r="H50" s="64"/>
+      <c r="G50" s="134" t="str">
+        <f>HYPERLINK(
+_xlfn.CONCAT(
+BASE_URL,
+"0x06g-Testing-Network-Communication.md#testing-custom-certificate-stores-and-certificate-pinning"),
+"Testing Custom Certificate Stores and SSL Pinning")</f>
+        <v>Testing Custom Certificate Stores and SSL Pinning</v>
+      </c>
+      <c r="H50" s="61"/>
     </row>
     <row r="51" spans="2:8" ht="32" x14ac:dyDescent="0.2">
-      <c r="B51" s="134" t="s">
-        <v>96</v>
+      <c r="B51" s="125" t="s">
+        <v>61</v>
       </c>
       <c r="C51" s="48" t="s">
-        <v>99</v>
+        <v>204</v>
       </c>
       <c r="D51" s="48"/>
       <c r="E51" s="44" t="s">
         <v>7</v>
       </c>
       <c r="F51" s="33" t="s">
-        <v>136</v>
-      </c>
-      <c r="G51" s="49" t="s">
-        <v>212</v>
-      </c>
-      <c r="H51" s="64"/>
+        <v>81</v>
+      </c>
+      <c r="G51" s="134" t="str">
+        <f>HYPERLINK(
+_xlfn.CONCAT(
+BASE_URL,
+"0x06g-Testing-Network-Communication.md#testing-custom-certificate-stores-and-certificate-pinning"),
+"Testing Custom Certificate Stores and SSL Pinning")</f>
+        <v>Testing Custom Certificate Stores and SSL Pinning</v>
+      </c>
+      <c r="H51" s="61"/>
     </row>
     <row r="52" spans="2:8" ht="32" x14ac:dyDescent="0.2">
-      <c r="B52" s="134" t="s">
+      <c r="B52" s="125" t="s">
         <v>35</v>
       </c>
       <c r="C52" s="48" t="s">
-        <v>100</v>
+        <v>205</v>
       </c>
       <c r="D52" s="48"/>
       <c r="E52" s="44" t="s">
         <v>7</v>
       </c>
       <c r="F52" s="33" t="s">
-        <v>136</v>
-      </c>
-      <c r="G52" s="49" t="s">
-        <v>213</v>
-      </c>
-      <c r="H52" s="64"/>
+        <v>81</v>
+      </c>
+      <c r="G52" s="134" t="str">
+        <f>HYPERLINK(
+_xlfn.CONCAT(
+BASE_URL,
+"0x04f-Testing-Network-Communication.md#making-sure-that-critical-operations-use-secure-communication-channels"),
+"Verifying that Critical Operations Use Secure Communication Channels")</f>
+        <v>Verifying that Critical Operations Use Secure Communication Channels</v>
+      </c>
+      <c r="H52" s="61"/>
     </row>
     <row r="53" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B53" s="134">
-        <v>5.6</v>
+      <c r="B53" s="125" t="s">
+        <v>232</v>
       </c>
       <c r="C53" s="48" t="s">
-        <v>248</v>
+        <v>206</v>
       </c>
       <c r="D53" s="48"/>
       <c r="E53" s="44" t="s">
         <v>7</v>
       </c>
       <c r="F53" s="33" t="s">
-        <v>136</v>
-      </c>
-      <c r="G53" s="49"/>
-      <c r="H53" s="64"/>
+        <v>81</v>
+      </c>
+      <c r="G53" s="45" t="s">
+        <v>131</v>
+      </c>
+      <c r="H53" s="61"/>
     </row>
     <row r="54" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B54" s="122" t="s">
+      <c r="B54" s="113" t="s">
         <v>36</v>
       </c>
       <c r="C54" s="34" t="s">
-        <v>222</v>
+        <v>132</v>
       </c>
       <c r="D54" s="34"/>
       <c r="E54" s="47"/>
@@ -7800,11 +7717,11 @@
       <c r="H54" s="35"/>
     </row>
     <row r="55" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B55" s="134" t="s">
-        <v>101</v>
+      <c r="B55" s="125" t="s">
+        <v>62</v>
       </c>
       <c r="C55" s="48" t="s">
-        <v>107</v>
+        <v>207</v>
       </c>
       <c r="D55" s="25" t="s">
         <v>7</v>
@@ -7813,15 +7730,22 @@
         <v>7</v>
       </c>
       <c r="F55" s="33"/>
-      <c r="G55" s="49"/>
-      <c r="H55" s="64"/>
+      <c r="G55" s="134" t="str">
+        <f>HYPERLINK(
+_xlfn.CONCAT(
+BASE_URL,
+"0x06h-Testing-Platform-Interaction.md#testing-app-permissions"),
+"Testing App Permissions")</f>
+        <v>Testing App Permissions</v>
+      </c>
+      <c r="H55" s="61"/>
     </row>
     <row r="56" spans="2:8" ht="32" x14ac:dyDescent="0.2">
-      <c r="B56" s="134" t="s">
-        <v>102</v>
+      <c r="B56" s="125" t="s">
+        <v>63</v>
       </c>
       <c r="C56" s="48" t="s">
-        <v>108</v>
+        <v>208</v>
       </c>
       <c r="D56" s="25" t="s">
         <v>7</v>
@@ -7830,17 +7754,22 @@
         <v>7</v>
       </c>
       <c r="F56" s="33"/>
-      <c r="G56" s="49" t="s">
-        <v>214</v>
-      </c>
-      <c r="H56" s="64"/>
-    </row>
-    <row r="57" spans="2:8" ht="32" x14ac:dyDescent="0.2">
-      <c r="B57" s="134" t="s">
-        <v>103</v>
+      <c r="G56" s="134" t="str">
+        <f>HYPERLINK(
+_xlfn.CONCAT(
+BASE_URL,
+"0x04h-Testing-Code-Quality.md#injection-flaws"),
+"Testing Input Validation and Sanitization")</f>
+        <v>Testing Input Validation and Sanitization</v>
+      </c>
+      <c r="H56" s="61"/>
+    </row>
+    <row r="57" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B57" s="125" t="s">
+        <v>64</v>
       </c>
       <c r="C57" s="48" t="s">
-        <v>109</v>
+        <v>209</v>
       </c>
       <c r="D57" s="25" t="s">
         <v>7</v>
@@ -7849,17 +7778,22 @@
         <v>7</v>
       </c>
       <c r="F57" s="33"/>
-      <c r="G57" s="49" t="s">
-        <v>215</v>
-      </c>
-      <c r="H57" s="64"/>
-    </row>
-    <row r="58" spans="2:8" ht="32" x14ac:dyDescent="0.2">
-      <c r="B58" s="134" t="s">
-        <v>104</v>
+      <c r="G57" s="134" t="str">
+        <f>HYPERLINK(
+_xlfn.CONCAT(
+BASE_URL,
+"0x06h-Testing-Platform-Interaction.md#testing-custom-url-schemes"),
+"Testing Custom URL Schemes")</f>
+        <v>Testing Custom URL Schemes</v>
+      </c>
+      <c r="H57" s="61"/>
+    </row>
+    <row r="58" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B58" s="125" t="s">
+        <v>65</v>
       </c>
       <c r="C58" s="48" t="s">
-        <v>110</v>
+        <v>210</v>
       </c>
       <c r="D58" s="25" t="s">
         <v>7</v>
@@ -7868,15 +7802,17 @@
         <v>7</v>
       </c>
       <c r="F58" s="33"/>
-      <c r="G58" s="49"/>
-      <c r="H58" s="64"/>
+      <c r="G58" s="45" t="s">
+        <v>131</v>
+      </c>
+      <c r="H58" s="61"/>
     </row>
     <row r="59" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B59" s="134" t="s">
-        <v>105</v>
+      <c r="B59" s="125" t="s">
+        <v>66</v>
       </c>
       <c r="C59" s="48" t="s">
-        <v>111</v>
+        <v>211</v>
       </c>
       <c r="D59" s="25" t="s">
         <v>7</v>
@@ -7885,17 +7821,22 @@
         <v>7</v>
       </c>
       <c r="F59" s="33"/>
-      <c r="G59" s="49" t="s">
-        <v>216</v>
-      </c>
-      <c r="H59" s="64"/>
+      <c r="G59" s="134" t="str">
+        <f>HYPERLINK(
+_xlfn.CONCAT(
+BASE_URL,
+"0x06h-Testing-Platform-Interaction.md#testing-ios-webviews"),
+"Testing JavaScript Execution in WebViews")</f>
+        <v>Testing JavaScript Execution in WebViews</v>
+      </c>
+      <c r="H59" s="61"/>
     </row>
     <row r="60" spans="2:8" ht="32" x14ac:dyDescent="0.2">
-      <c r="B60" s="134" t="s">
-        <v>106</v>
+      <c r="B60" s="125" t="s">
+        <v>67</v>
       </c>
       <c r="C60" s="48" t="s">
-        <v>112</v>
+        <v>212</v>
       </c>
       <c r="D60" s="25" t="s">
         <v>7</v>
@@ -7904,15 +7845,22 @@
         <v>7</v>
       </c>
       <c r="F60" s="33"/>
-      <c r="G60" s="49"/>
-      <c r="H60" s="64"/>
+      <c r="G60" s="134" t="str">
+        <f>HYPERLINK(
+_xlfn.CONCAT(
+BASE_URL,
+"0x06h-Testing-Platform-Interaction.md#testing-webview-protocol-handlers"),
+"Testing WebView Protocol Handlers")</f>
+        <v>Testing WebView Protocol Handlers</v>
+      </c>
+      <c r="H60" s="61"/>
     </row>
     <row r="61" spans="2:8" ht="32" x14ac:dyDescent="0.2">
-      <c r="B61" s="134">
-        <v>6.7</v>
+      <c r="B61" s="125" t="s">
+        <v>231</v>
       </c>
       <c r="C61" s="48" t="s">
-        <v>247</v>
+        <v>152</v>
       </c>
       <c r="D61" s="25" t="s">
         <v>7</v>
@@ -7921,15 +7869,22 @@
         <v>7</v>
       </c>
       <c r="F61" s="33"/>
-      <c r="G61" s="49"/>
-      <c r="H61" s="64"/>
+      <c r="G61" s="134" t="str">
+        <f>HYPERLINK(
+_xlfn.CONCAT(
+BASE_URL,
+"0x06h-Testing-Platform-Interaction.md#determining-whether-native-methods-are-exposed-through-webviews"),
+"Testing Whether Native Methods Are Exposed Through WebViews")</f>
+        <v>Testing Whether Native Methods Are Exposed Through WebViews</v>
+      </c>
+      <c r="H61" s="61"/>
     </row>
     <row r="62" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B62" s="134">
-        <v>6.8</v>
+      <c r="B62" s="125" t="s">
+        <v>230</v>
       </c>
       <c r="C62" s="48" t="s">
-        <v>113</v>
+        <v>213</v>
       </c>
       <c r="D62" s="25" t="s">
         <v>7</v>
@@ -7938,15 +7893,22 @@
         <v>7</v>
       </c>
       <c r="F62" s="33"/>
-      <c r="G62" s="49"/>
-      <c r="H62" s="64"/>
+      <c r="G62" s="134" t="str">
+        <f>HYPERLINK(
+_xlfn.CONCAT(
+BASE_URL,
+"0x06h-Testing-Platform-Interaction.md#testing-object-persistence"),
+"Testing Object (De-)Serialization")</f>
+        <v>Testing Object (De-)Serialization</v>
+      </c>
+      <c r="H62" s="61"/>
     </row>
     <row r="63" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B63" s="122" t="s">
+      <c r="B63" s="113" t="s">
         <v>37</v>
       </c>
       <c r="C63" s="34" t="s">
-        <v>118</v>
+        <v>72</v>
       </c>
       <c r="D63" s="34"/>
       <c r="E63" s="47"/>
@@ -7955,11 +7917,11 @@
       <c r="H63" s="35"/>
     </row>
     <row r="64" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B64" s="134" t="s">
-        <v>114</v>
-      </c>
-      <c r="C64" s="48" t="s">
-        <v>119</v>
+      <c r="B64" s="125" t="s">
+        <v>68</v>
+      </c>
+      <c r="C64" s="66" t="s">
+        <v>214</v>
       </c>
       <c r="D64" s="25" t="s">
         <v>7</v>
@@ -7968,90 +7930,119 @@
         <v>7</v>
       </c>
       <c r="F64" s="33"/>
-      <c r="G64" s="49" t="s">
+      <c r="G64" s="134" t="str">
+        <f>HYPERLINK(
+_xlfn.CONCAT(
+BASE_URL,
+"0x06i-Testing-Code-Quality-and-Build-Settings.md#making-sure-that-the-app-is-properly-signed"),
+"Verifying That the App is Properly Signed")</f>
+        <v>Verifying That the App is Properly Signed</v>
+      </c>
+      <c r="H64" s="61"/>
+    </row>
+    <row r="65" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B65" s="125" t="s">
+        <v>38</v>
+      </c>
+      <c r="C65" s="66" t="s">
+        <v>215</v>
+      </c>
+      <c r="D65" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="E65" s="44" t="s">
+        <v>7</v>
+      </c>
+      <c r="F65" s="33"/>
+      <c r="G65" s="134" t="str">
+        <f>HYPERLINK(
+_xlfn.CONCAT(
+BASE_URL,
+"0x06i-Testing-Code-Quality-and-Build-Settings.md#determining-whether-the-app-is-debuggable"),
+"Testing If the App is Debuggable")</f>
+        <v>Testing If the App is Debuggable</v>
+      </c>
+      <c r="H65" s="61"/>
+    </row>
+    <row r="66" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B66" s="125" t="s">
+        <v>69</v>
+      </c>
+      <c r="C66" s="66" t="s">
+        <v>216</v>
+      </c>
+      <c r="D66" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="E66" s="44" t="s">
+        <v>7</v>
+      </c>
+      <c r="F66" s="33"/>
+      <c r="G66" s="134" t="str">
+        <f>HYPERLINK(
+_xlfn.CONCAT(
+BASE_URL,
+"0x06i-Testing-Code-Quality-and-Build-Settings.md#finding-debugging-symbols"),
+"Testing for Debugging Symbols")</f>
+        <v>Testing for Debugging Symbols</v>
+      </c>
+      <c r="H66" s="61"/>
+    </row>
+    <row r="67" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B67" s="125" t="s">
+        <v>70</v>
+      </c>
+      <c r="C67" s="66" t="s">
         <v>217</v>
       </c>
-      <c r="H64" s="64"/>
-    </row>
-    <row r="65" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B65" s="134" t="s">
-        <v>38</v>
-      </c>
-      <c r="C65" s="48" t="s">
-        <v>120</v>
-      </c>
-      <c r="D65" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="E65" s="44" t="s">
-        <v>7</v>
-      </c>
-      <c r="F65" s="33"/>
-      <c r="G65" s="49"/>
-      <c r="H65" s="64"/>
-    </row>
-    <row r="66" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B66" s="134" t="s">
-        <v>115</v>
-      </c>
-      <c r="C66" s="48" t="s">
-        <v>121</v>
-      </c>
-      <c r="D66" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="E66" s="44" t="s">
-        <v>7</v>
-      </c>
-      <c r="F66" s="33"/>
-      <c r="G66" s="49" t="s">
+      <c r="D67" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="E67" s="44" t="s">
+        <v>7</v>
+      </c>
+      <c r="F67" s="33"/>
+      <c r="G67" s="134" t="str">
+        <f>HYPERLINK(
+_xlfn.CONCAT(
+BASE_URL,
+"0x06i-Testing-Code-Quality-and-Build-Settings.md#finding-debugging-code-and-verbose-error-logging"),
+"Testing for Debugging Code and Verbose Error Logging")</f>
+        <v>Testing for Debugging Code and Verbose Error Logging</v>
+      </c>
+      <c r="H67" s="61"/>
+    </row>
+    <row r="68" spans="2:8" ht="32" x14ac:dyDescent="0.2">
+      <c r="B68" s="125" t="s">
+        <v>71</v>
+      </c>
+      <c r="C68" s="66" t="s">
         <v>218</v>
       </c>
-      <c r="H66" s="64"/>
-    </row>
-    <row r="67" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B67" s="134" t="s">
-        <v>116</v>
-      </c>
-      <c r="C67" s="48" t="s">
-        <v>122</v>
-      </c>
-      <c r="D67" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="E67" s="44" t="s">
-        <v>7</v>
-      </c>
-      <c r="F67" s="33"/>
-      <c r="G67" s="49" t="s">
+      <c r="D68" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="E68" s="44" t="s">
+        <v>7</v>
+      </c>
+      <c r="F68" s="33"/>
+      <c r="G68" s="63" t="str">
+        <f>HYPERLINK(
+_xlfn.CONCAT(
+BASE_URL,
+"0x06i-Testing-Code-Quality-and-Build-Settings.md#checking-for-weaknesses-in-third-party-libraries"),
+"Testing for Weaknesses in Third Party Libraries")</f>
+        <v>Testing for Weaknesses in Third Party Libraries</v>
+      </c>
+      <c r="H68" s="61"/>
+    </row>
+    <row r="69" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B69" s="125" t="s">
+        <v>39</v>
+      </c>
+      <c r="C69" s="66" t="s">
         <v>219</v>
       </c>
-      <c r="H67" s="64"/>
-    </row>
-    <row r="68" spans="2:8" ht="32" x14ac:dyDescent="0.2">
-      <c r="B68" s="134" t="s">
-        <v>117</v>
-      </c>
-      <c r="C68" s="48" t="s">
-        <v>258</v>
-      </c>
-      <c r="D68" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="E68" s="44" t="s">
-        <v>7</v>
-      </c>
-      <c r="F68" s="33"/>
-      <c r="G68" s="49"/>
-      <c r="H68" s="64"/>
-    </row>
-    <row r="69" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B69" s="134" t="s">
-        <v>39</v>
-      </c>
-      <c r="C69" s="48" t="s">
-        <v>123</v>
-      </c>
       <c r="D69" s="25" t="s">
         <v>7</v>
       </c>
@@ -8059,37 +8050,47 @@
         <v>7</v>
       </c>
       <c r="F69" s="33"/>
-      <c r="G69" s="49" t="s">
+      <c r="G69" s="134" t="str">
+        <f>HYPERLINK(
+_xlfn.CONCAT(
+BASE_URL,
+"0x06i-Testing-Code-Quality-and-Build-Settings.md#testing-exception-handling"),
+"Testing Exception Handling")</f>
+        <v>Testing Exception Handling</v>
+      </c>
+      <c r="H69" s="61"/>
+    </row>
+    <row r="70" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B70" s="125" t="s">
+        <v>40</v>
+      </c>
+      <c r="C70" s="66" t="s">
+        <v>220</v>
+      </c>
+      <c r="D70" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="E70" s="44" t="s">
+        <v>7</v>
+      </c>
+      <c r="F70" s="33"/>
+      <c r="G70" s="134" t="str">
+        <f>HYPERLINK(
+_xlfn.CONCAT(
+BASE_URL,
+"0x06i-Testing-Code-Quality-and-Build-Settings.md#testing-exception-handling"),
+"Testing  Error Handling in Security Controls")</f>
+        <v>Testing  Error Handling in Security Controls</v>
+      </c>
+      <c r="H70" s="61"/>
+    </row>
+    <row r="71" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B71" s="125" t="s">
+        <v>41</v>
+      </c>
+      <c r="C71" s="66" t="s">
         <v>221</v>
       </c>
-      <c r="H69" s="64"/>
-    </row>
-    <row r="70" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B70" s="134" t="s">
-        <v>40</v>
-      </c>
-      <c r="C70" s="48" t="s">
-        <v>42</v>
-      </c>
-      <c r="D70" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="E70" s="44" t="s">
-        <v>7</v>
-      </c>
-      <c r="F70" s="33"/>
-      <c r="G70" s="49" t="s">
-        <v>221</v>
-      </c>
-      <c r="H70" s="64"/>
-    </row>
-    <row r="71" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B71" s="134" t="s">
-        <v>41</v>
-      </c>
-      <c r="C71" s="48" t="s">
-        <v>124</v>
-      </c>
       <c r="D71" s="25" t="s">
         <v>7</v>
       </c>
@@ -8097,15 +8098,22 @@
         <v>7</v>
       </c>
       <c r="F71" s="33"/>
-      <c r="G71" s="49"/>
-      <c r="H71" s="64"/>
+      <c r="G71" s="135" t="str">
+        <f>HYPERLINK(
+_xlfn.CONCAT(
+BASE_URL,
+"0x06i-Testing-Code-Quality-and-Build-Settings.md#testing-exception-handling"),
+"Testing for Memory Management Bugs")</f>
+        <v>Testing for Memory Management Bugs</v>
+      </c>
+      <c r="H71" s="61"/>
     </row>
     <row r="72" spans="2:8" ht="32" x14ac:dyDescent="0.2">
-      <c r="B72" s="134" t="s">
-        <v>257</v>
-      </c>
-      <c r="C72" s="48" t="s">
-        <v>243</v>
+      <c r="B72" s="125" t="s">
+        <v>155</v>
+      </c>
+      <c r="C72" s="66" t="s">
+        <v>148</v>
       </c>
       <c r="D72" s="25" t="s">
         <v>7</v>
@@ -8114,13 +8122,18 @@
         <v>7</v>
       </c>
       <c r="F72" s="33"/>
-      <c r="G72" s="49" t="s">
-        <v>220</v>
-      </c>
-      <c r="H72" s="64"/>
+      <c r="G72" s="134" t="str">
+        <f>HYPERLINK(
+_xlfn.CONCAT(
+BASE_URL,
+"0x06i-Testing-Code-Quality-and-Build-Settings.md#make-sure-that-free-security-features-are-activated"),
+"Verifying usage of Free Security Features")</f>
+        <v>Verifying usage of Free Security Features</v>
+      </c>
+      <c r="H72" s="61"/>
     </row>
     <row r="73" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B73" s="125"/>
+      <c r="B73" s="116"/>
       <c r="C73" s="36"/>
       <c r="D73" s="37"/>
       <c r="E73" s="37"/>
@@ -8129,7 +8142,7 @@
       <c r="H73" s="38"/>
     </row>
     <row r="74" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B74" s="126"/>
+      <c r="B74" s="117"/>
       <c r="C74" s="39"/>
       <c r="D74" s="39"/>
       <c r="E74" s="39"/>
@@ -8138,7 +8151,7 @@
       <c r="H74" s="39"/>
     </row>
     <row r="75" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B75" s="126"/>
+      <c r="B75" s="117"/>
       <c r="C75" s="39"/>
       <c r="D75" s="39"/>
       <c r="E75" s="39"/>
@@ -8147,7 +8160,7 @@
       <c r="H75" s="39"/>
     </row>
     <row r="76" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B76" s="126"/>
+      <c r="B76" s="117"/>
       <c r="C76" s="39"/>
       <c r="D76" s="39"/>
       <c r="E76" s="39"/>
@@ -8156,8 +8169,8 @@
       <c r="H76" s="39"/>
     </row>
     <row r="77" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B77" s="127" t="s">
-        <v>132</v>
+      <c r="B77" s="118" t="s">
+        <v>77</v>
       </c>
       <c r="C77" s="40"/>
       <c r="D77" s="39"/>
@@ -8167,11 +8180,11 @@
       <c r="H77" s="39"/>
     </row>
     <row r="78" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B78" s="128" t="s">
-        <v>133</v>
+      <c r="B78" s="119" t="s">
+        <v>78</v>
       </c>
       <c r="C78" s="41" t="s">
-        <v>134</v>
+        <v>79</v>
       </c>
       <c r="D78" s="39"/>
       <c r="E78" s="39"/>
@@ -8180,11 +8193,11 @@
       <c r="H78" s="39"/>
     </row>
     <row r="79" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B79" s="129" t="s">
-        <v>166</v>
+      <c r="B79" s="120" t="s">
+        <v>111</v>
       </c>
       <c r="C79" s="42" t="s">
-        <v>135</v>
+        <v>80</v>
       </c>
       <c r="D79" s="39"/>
       <c r="E79" s="39"/>
@@ -8193,11 +8206,11 @@
       <c r="H79" s="39"/>
     </row>
     <row r="80" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B80" s="129" t="s">
-        <v>167</v>
+      <c r="B80" s="120" t="s">
+        <v>112</v>
       </c>
       <c r="C80" s="42" t="s">
-        <v>138</v>
+        <v>83</v>
       </c>
       <c r="D80" s="39"/>
       <c r="E80" s="39"/>
@@ -8206,11 +8219,11 @@
       <c r="H80" s="39"/>
     </row>
     <row r="81" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B81" s="129" t="s">
-        <v>136</v>
+      <c r="B81" s="120" t="s">
+        <v>81</v>
       </c>
       <c r="C81" s="42" t="s">
-        <v>137</v>
+        <v>82</v>
       </c>
       <c r="D81" s="39"/>
       <c r="E81" s="39"/>
@@ -8219,7 +8232,7 @@
       <c r="H81" s="39"/>
     </row>
     <row r="82" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B82" s="135"/>
+      <c r="B82" s="126"/>
       <c r="C82" s="23"/>
       <c r="D82" s="23"/>
       <c r="E82" s="23"/>
@@ -8228,7 +8241,7 @@
       <c r="H82" s="23"/>
     </row>
     <row r="83" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B83" s="135"/>
+      <c r="B83" s="126"/>
       <c r="C83" s="23"/>
       <c r="D83" s="23"/>
       <c r="E83" s="23"/>
@@ -8237,7 +8250,7 @@
       <c r="H83" s="23"/>
     </row>
     <row r="84" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B84" s="135"/>
+      <c r="B84" s="126"/>
       <c r="C84" s="23"/>
       <c r="D84" s="23"/>
       <c r="E84" s="23"/>
@@ -8246,7 +8259,7 @@
       <c r="H84" s="23"/>
     </row>
     <row r="85" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B85" s="135"/>
+      <c r="B85" s="126"/>
       <c r="C85" s="23"/>
       <c r="D85" s="23"/>
       <c r="E85" s="23"/>
@@ -8255,6 +8268,16 @@
       <c r="H85" s="23"/>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="J1:J1048576">
+    <cfRule type="containsText" dxfId="11" priority="2" operator="containsText" text="0x05">
+      <formula>NOT(ISERROR(SEARCH("0x05",J1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G1:G1048576">
+    <cfRule type="containsText" dxfId="10" priority="1" operator="containsText" text="0x05">
+      <formula>NOT(ISERROR(SEARCH("0x05",G1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F74:F1048576 H74:H1048576" xr:uid="{00000000-0002-0000-0400-000000000000}">
       <formula1>"Yes,No,N/A"</formula1>
@@ -8263,48 +8286,6 @@
       <formula1>"Pass,Fail,N/A"</formula1>
     </dataValidation>
   </dataValidations>
-  <hyperlinks>
-    <hyperlink ref="G16" r:id="rId1" location="testing-local-data-storage" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
-    <hyperlink ref="G57" r:id="rId2" location="testing-custom-url-schemes" xr:uid="{00000000-0004-0000-0400-00001B000000}"/>
-    <hyperlink ref="G59" r:id="rId3" location="testing-ios-webviews" xr:uid="{00000000-0004-0000-0400-00001D000000}"/>
-    <hyperlink ref="G64" r:id="rId4" location="making-sure-that-the-app-is-properly-signed" xr:uid="{00000000-0004-0000-0400-000021000000}"/>
-    <hyperlink ref="G66" r:id="rId5" location="finding-debugging-symbols" xr:uid="{00000000-0004-0000-0400-000023000000}"/>
-    <hyperlink ref="G67" r:id="rId6" location="finding-debugging-code-and-verbose-error-logging" xr:uid="{00000000-0004-0000-0400-000024000000}"/>
-    <hyperlink ref="G72" r:id="rId7" location="make-sure-that-free-security-features-are-activated" xr:uid="{00000000-0004-0000-0400-000026000000}"/>
-    <hyperlink ref="G51" r:id="rId8" location="testing-custom-certificate-stores-and-certificate-pinning" xr:uid="{00000000-0004-0000-0400-00002F000000}"/>
-    <hyperlink ref="G69" r:id="rId9" location="testing-exception-handling" xr:uid="{00000000-0004-0000-0400-000032000000}"/>
-    <hyperlink ref="G18" r:id="rId10" location="checking-logs-for-sensitive-data" xr:uid="{46731861-EBBD-3340-B6B4-166DCFAD95AE}"/>
-    <hyperlink ref="G19" r:id="rId11" location="determining-whether-sensitive-data-is-sent-to-third-parties" xr:uid="{AE7B6F9B-7236-FD4A-8CDD-4D8C964B4EED}"/>
-    <hyperlink ref="G20" r:id="rId12" location="finding-sensitive-data-in-the-keyboard-cache" xr:uid="{9AE35269-EFC8-E643-9FCD-79431130C877}"/>
-    <hyperlink ref="G21" r:id="rId13" location="determining-whether-sensitive-data-is-exposed-via-ipc-mechanisms" xr:uid="{F3ED19E9-DBDC-8E4E-A5B6-FA8D0E47AE00}"/>
-    <hyperlink ref="G22" r:id="rId14" location="checking-for-sensitive-data-disclosed-through-the-user-interface" xr:uid="{4A839362-4FC0-0546-AD7C-1E9C63A9CA53}"/>
-    <hyperlink ref="G23" r:id="rId15" location="testing-backups-for-sensitive-data" xr:uid="{6035E15B-33A5-9E4F-B19C-87D4A1286459}"/>
-    <hyperlink ref="G24" r:id="rId16" location="testing-auto-generated-screenshots-for-sensitive-information" xr:uid="{3E9B0B2B-9503-CA4B-AEDB-CCB996D6DEBF}"/>
-    <hyperlink ref="G25" r:id="rId17" location="testing-memory-for-sensitive-data" xr:uid="{FBEB4D5D-9B5F-5E4E-B240-556982D6D6B5}"/>
-    <hyperlink ref="G43" r:id="rId18" location="testing-local-authentication" xr:uid="{280EFCC5-10BC-A045-92DF-D92EE814FB92}"/>
-    <hyperlink ref="G17" r:id="rId19" location="testing-local-data-storage" xr:uid="{DCDB9649-8EB0-2A41-84DB-35E9D40A5832}"/>
-    <hyperlink ref="G30" r:id="rId20" location="custom-implementations-of-cryptography" xr:uid="{00000000-0004-0000-0400-000009000000}"/>
-    <hyperlink ref="G32" r:id="rId21" location="identifying-insecure-and-or-deprecated-cryptographic-algorithms" xr:uid="{00000000-0004-0000-0400-00000B000000}"/>
-    <hyperlink ref="G31" r:id="rId22" location="common-configuration-issues" xr:uid="{00000000-0004-0000-0400-00000A000000}"/>
-    <hyperlink ref="G29" r:id="rId23" location="key-concepts" xr:uid="{00000000-0004-0000-0400-000008000000}"/>
-    <hyperlink ref="G34" r:id="rId24" location="random-number-generation-on-ios" xr:uid="{9F72DE31-A63E-F142-95B7-00687A8836E3}"/>
-    <hyperlink ref="G33" r:id="rId25" location="key-concepts" xr:uid="{857E130A-F093-294E-A0EB-D1CB72C7F260}"/>
-    <hyperlink ref="G41" r:id="rId26" location="running-a-password-dictionary-attack" xr:uid="{E2CB986A-236D-324E-BC9D-70BB7DDF6AF1}"/>
-    <hyperlink ref="G36" r:id="rId27" location="testing-authentication" xr:uid="{46A815C2-7719-7440-A3DA-ECFE48503304}"/>
-    <hyperlink ref="G40" r:id="rId28" location="best-practices-for-passwords" xr:uid="{71F2E91B-4865-944E-B512-CA7AAEC7DF58}"/>
-    <hyperlink ref="G39" r:id="rId29" location="user-logout-and-session-timeouts" xr:uid="{C3A0E459-A842-734A-9A34-A73770867D09}"/>
-    <hyperlink ref="G38" r:id="rId30" location="testing-stateless-token-based-authentication" xr:uid="{4E1DF7BA-5D00-4449-AA84-0CA84D2CFE0B}"/>
-    <hyperlink ref="G42" r:id="rId31" location="session-timeout" xr:uid="{50F3CC18-440C-724F-8BA2-E41AEFD19C7E}"/>
-    <hyperlink ref="G37" r:id="rId32" location="testing-stateful-session-management" xr:uid="{2DC02B43-93BE-0248-B857-8DC49E761130}"/>
-    <hyperlink ref="G44" r:id="rId33" location="verifying-that-2fa-is-enforced" xr:uid="{F329C298-6BE9-F845-B0B0-5D9492022AE3}"/>
-    <hyperlink ref="G45" r:id="rId34" location="verifying-that-2fa-is-enforced" xr:uid="{6B1C9CEB-A3B0-D449-BF6B-36ED8EC3C07E}"/>
-    <hyperlink ref="G50" r:id="rId35" location="app-transport-security" xr:uid="{00000000-0004-0000-0400-000018000000}"/>
-    <hyperlink ref="G48" r:id="rId36" location="verifying-data-encryption-on-the-network" xr:uid="{19091139-DCA3-1141-A151-E2172DBE92C3}"/>
-    <hyperlink ref="G49" r:id="rId37" location="verifying-data-encryption-on-the-network" xr:uid="{32DB5B9E-A743-114D-9239-8C43612B6BE7}"/>
-    <hyperlink ref="G52" r:id="rId38" location="making-sure-that-critical-operations-use-secure-communication-channels" xr:uid="{F320939B-B772-6944-8A7B-6CB1CC0EC617}"/>
-    <hyperlink ref="G56" r:id="rId39" location="injection-flaws" xr:uid="{7D24DE41-9983-AC42-A320-F51AAF1E7964}"/>
-    <hyperlink ref="G70" r:id="rId40" location="testing-exception-handling" xr:uid="{937EA1CD-B7DF-F44A-8618-52496B470E29}"/>
-  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -8316,23 +8297,23 @@
   <dimension ref="B1:G32"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="1.83203125" customWidth="1"/>
-    <col min="2" max="2" width="7.33203125" style="120" customWidth="1"/>
-    <col min="3" max="3" width="99.6640625" customWidth="1"/>
+    <col min="2" max="2" width="7.33203125" style="111" customWidth="1"/>
+    <col min="3" max="3" width="93.33203125" customWidth="1"/>
     <col min="4" max="4" width="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="42.1640625" style="23" customWidth="1"/>
+    <col min="6" max="6" width="42.5" style="23" customWidth="1"/>
     <col min="7" max="7" width="30.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:7" ht="19" x14ac:dyDescent="0.25">
-      <c r="B1" s="119" t="s">
-        <v>227</v>
+      <c r="B1" s="110" t="s">
+        <v>133</v>
       </c>
       <c r="G1" s="23"/>
     </row>
@@ -8340,29 +8321,29 @@
       <c r="G2" s="23"/>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B3" s="121" t="s">
+      <c r="B3" s="112" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="26" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="D3" s="27" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="E3" s="27" t="s">
-        <v>164</v>
+        <v>109</v>
       </c>
       <c r="F3" s="28" t="s">
-        <v>178</v>
+        <v>123</v>
       </c>
       <c r="G3" s="28" t="s">
-        <v>165</v>
+        <v>110</v>
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B4" s="122"/>
+      <c r="B4" s="113"/>
       <c r="C4" s="34" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="D4" s="34"/>
       <c r="E4" s="34"/>
@@ -8370,159 +8351,186 @@
       <c r="G4" s="35"/>
     </row>
     <row r="5" spans="2:7" ht="32" x14ac:dyDescent="0.2">
-      <c r="B5" s="123">
-        <v>8.1</v>
+      <c r="B5" s="127" t="s">
+        <v>240</v>
       </c>
       <c r="C5" s="32" t="s">
-        <v>57</v>
+        <v>250</v>
       </c>
       <c r="D5" s="24" t="s">
         <v>7</v>
       </c>
       <c r="E5" s="33" t="s">
-        <v>136</v>
-      </c>
-      <c r="F5" s="49" t="s">
-        <v>223</v>
-      </c>
-      <c r="G5" s="64"/>
-    </row>
-    <row r="6" spans="2:7" ht="48" x14ac:dyDescent="0.2">
-      <c r="B6" s="123">
-        <v>8.1999999999999993</v>
+        <v>81</v>
+      </c>
+      <c r="F5" s="67" t="str">
+        <f>HYPERLINK(
+_xlfn.CONCAT(
+BASE_URL,
+"0x06j-Testing-Resiliency-Against-Reverse-Engineering.md#jailbreak-detection"),
+"Testing Jailbreak Detection")</f>
+        <v>Testing Jailbreak Detection</v>
+      </c>
+      <c r="G5" s="61"/>
+    </row>
+    <row r="6" spans="2:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="B6" s="127" t="s">
+        <v>241</v>
       </c>
       <c r="C6" s="32" t="s">
-        <v>58</v>
+        <v>251</v>
       </c>
       <c r="D6" s="24" t="s">
         <v>7</v>
       </c>
       <c r="E6" s="33" t="s">
-        <v>136</v>
-      </c>
-      <c r="F6" s="49" t="s">
-        <v>224</v>
-      </c>
-      <c r="G6" s="64"/>
+        <v>81</v>
+      </c>
+      <c r="F6" s="67" t="str">
+        <f>HYPERLINK(
+_xlfn.CONCAT(
+BASE_URL,
+"0x06j-Testing-Resiliency-Against-Reverse-Engineering.md#anti-debugging-checks"),
+"Testing Debugging Defenses")</f>
+        <v>Testing Debugging Defenses</v>
+      </c>
+      <c r="G6" s="61"/>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B7" s="123">
-        <v>8.3000000000000007</v>
+      <c r="B7" s="127" t="s">
+        <v>242</v>
       </c>
       <c r="C7" s="32" t="s">
-        <v>59</v>
+        <v>252</v>
       </c>
       <c r="D7" s="24" t="s">
         <v>7</v>
       </c>
       <c r="E7" s="33" t="s">
-        <v>136</v>
-      </c>
-      <c r="F7" s="49" t="s">
-        <v>225</v>
-      </c>
-      <c r="G7" s="64"/>
-    </row>
-    <row r="8" spans="2:7" ht="32" x14ac:dyDescent="0.2">
-      <c r="B8" s="123">
-        <v>8.4</v>
+        <v>81</v>
+      </c>
+      <c r="F7" s="67" t="str">
+        <f>HYPERLINK(
+_xlfn.CONCAT(
+BASE_URL,
+"0x06j-Testing-Resiliency-Against-Reverse-Engineering.md#file-integrity-checks"),
+"Testing File Integrity Checks")</f>
+        <v>Testing File Integrity Checks</v>
+      </c>
+      <c r="G7" s="61"/>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B8" s="127" t="s">
+        <v>243</v>
       </c>
       <c r="C8" s="32" t="s">
-        <v>60</v>
+        <v>253</v>
       </c>
       <c r="D8" s="24" t="s">
         <v>7</v>
       </c>
       <c r="E8" s="33" t="s">
-        <v>136</v>
-      </c>
-      <c r="F8" s="49"/>
-      <c r="G8" s="64"/>
+        <v>81</v>
+      </c>
+      <c r="F8" s="45" t="s">
+        <v>131</v>
+      </c>
+      <c r="G8" s="61"/>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B9" s="123">
-        <v>8.5</v>
+      <c r="B9" s="127" t="s">
+        <v>244</v>
       </c>
       <c r="C9" s="32" t="s">
-        <v>61</v>
+        <v>254</v>
       </c>
       <c r="D9" s="24" t="s">
         <v>7</v>
       </c>
       <c r="E9" s="33" t="s">
-        <v>136</v>
-      </c>
-      <c r="F9" s="49"/>
-      <c r="G9" s="64"/>
-    </row>
-    <row r="10" spans="2:7" ht="32" x14ac:dyDescent="0.2">
-      <c r="B10" s="123">
-        <v>8.6</v>
+        <v>81</v>
+      </c>
+      <c r="F9" s="45" t="s">
+        <v>131</v>
+      </c>
+      <c r="G9" s="61"/>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B10" s="127" t="s">
+        <v>245</v>
       </c>
       <c r="C10" s="32" t="s">
-        <v>62</v>
+        <v>255</v>
       </c>
       <c r="D10" s="24" t="s">
         <v>7</v>
       </c>
       <c r="E10" s="33" t="s">
-        <v>136</v>
-      </c>
-      <c r="F10" s="49"/>
-      <c r="G10" s="64"/>
+        <v>81</v>
+      </c>
+      <c r="F10" s="45" t="s">
+        <v>131</v>
+      </c>
+      <c r="G10" s="61"/>
     </row>
     <row r="11" spans="2:7" ht="32" x14ac:dyDescent="0.2">
-      <c r="B11" s="123">
-        <v>8.6999999999999993</v>
+      <c r="B11" s="127" t="s">
+        <v>246</v>
       </c>
       <c r="C11" s="32" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="D11" s="24" t="s">
         <v>7</v>
       </c>
       <c r="E11" s="33" t="s">
-        <v>136</v>
-      </c>
-      <c r="F11" s="49"/>
-      <c r="G11" s="64"/>
+        <v>81</v>
+      </c>
+      <c r="F11" s="45" t="s">
+        <v>131</v>
+      </c>
+      <c r="G11" s="61"/>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B12" s="123">
-        <v>8.8000000000000007</v>
+      <c r="B12" s="127" t="s">
+        <v>247</v>
       </c>
       <c r="C12" s="32" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="D12" s="24" t="s">
         <v>7</v>
       </c>
       <c r="E12" s="33" t="s">
-        <v>136</v>
-      </c>
-      <c r="F12" s="49"/>
-      <c r="G12" s="64"/>
+        <v>81</v>
+      </c>
+      <c r="F12" s="45" t="s">
+        <v>131</v>
+      </c>
+      <c r="G12" s="61"/>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B13" s="124" t="s">
-        <v>267</v>
+      <c r="B13" s="127" t="s">
+        <v>157</v>
       </c>
       <c r="C13" s="32" t="s">
-        <v>63</v>
+        <v>258</v>
       </c>
       <c r="D13" s="24" t="s">
         <v>7</v>
       </c>
       <c r="E13" s="33" t="s">
-        <v>136</v>
-      </c>
-      <c r="F13" s="49"/>
-      <c r="G13" s="64"/>
+        <v>81</v>
+      </c>
+      <c r="F13" s="45" t="s">
+        <v>131</v>
+      </c>
+      <c r="G13" s="61"/>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B14" s="122"/>
+      <c r="B14" s="113"/>
       <c r="C14" s="34" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="D14" s="34"/>
       <c r="E14" s="34"/>
@@ -8530,67 +8538,76 @@
       <c r="G14" s="35"/>
     </row>
     <row r="15" spans="2:7" ht="32" x14ac:dyDescent="0.2">
-      <c r="B15" s="124" t="s">
-        <v>128</v>
+      <c r="B15" s="115" t="s">
+        <v>73</v>
       </c>
       <c r="C15" s="32" t="s">
-        <v>64</v>
+        <v>259</v>
       </c>
       <c r="D15" s="24" t="s">
         <v>7</v>
       </c>
       <c r="E15" s="33" t="s">
-        <v>136</v>
-      </c>
-      <c r="F15" s="49" t="s">
-        <v>226</v>
-      </c>
-      <c r="G15" s="64"/>
+        <v>81</v>
+      </c>
+      <c r="F15" s="67" t="str">
+        <f>HYPERLINK(
+_xlfn.CONCAT(
+BASE_URL,
+"0x06j-Testing-Resiliency-Against-Reverse-Engineering.md#device-binding"),
+"Testing Device Binding")</f>
+        <v>Testing Device Binding</v>
+      </c>
+      <c r="G15" s="61"/>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B16" s="122"/>
+      <c r="B16" s="113"/>
       <c r="C16" s="34" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="D16" s="34"/>
       <c r="E16" s="34"/>
       <c r="F16" s="34"/>
       <c r="G16" s="35"/>
     </row>
-    <row r="17" spans="2:7" ht="32" x14ac:dyDescent="0.2">
-      <c r="B17" s="123">
-        <v>8.11</v>
+    <row r="17" spans="2:7" ht="48" x14ac:dyDescent="0.2">
+      <c r="B17" s="127" t="s">
+        <v>248</v>
       </c>
       <c r="C17" s="32" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="D17" s="24" t="s">
         <v>7</v>
       </c>
       <c r="E17" s="33" t="s">
-        <v>136</v>
-      </c>
-      <c r="F17" s="49"/>
-      <c r="G17" s="64"/>
+        <v>81</v>
+      </c>
+      <c r="F17" s="45" t="s">
+        <v>131</v>
+      </c>
+      <c r="G17" s="61"/>
     </row>
     <row r="18" spans="2:7" ht="64" x14ac:dyDescent="0.2">
-      <c r="B18" s="123">
-        <v>8.1199999999999992</v>
+      <c r="B18" s="127" t="s">
+        <v>249</v>
       </c>
       <c r="C18" s="32" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="D18" s="24" t="s">
         <v>7</v>
       </c>
       <c r="E18" s="33" t="s">
-        <v>136</v>
-      </c>
-      <c r="F18" s="49"/>
-      <c r="G18" s="64"/>
+        <v>81</v>
+      </c>
+      <c r="F18" s="45" t="s">
+        <v>131</v>
+      </c>
+      <c r="G18" s="61"/>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B19" s="125"/>
+      <c r="B19" s="116"/>
       <c r="C19" s="36"/>
       <c r="D19" s="37"/>
       <c r="E19" s="37"/>
@@ -8598,7 +8615,7 @@
       <c r="G19" s="38"/>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B20" s="126"/>
+      <c r="B20" s="117"/>
       <c r="C20" s="39"/>
       <c r="D20" s="39"/>
       <c r="E20" s="39"/>
@@ -8606,7 +8623,7 @@
       <c r="G20" s="39"/>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B21" s="126"/>
+      <c r="B21" s="117"/>
       <c r="C21" s="39"/>
       <c r="D21" s="39"/>
       <c r="E21" s="39"/>
@@ -8614,8 +8631,8 @@
       <c r="G21" s="39"/>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B22" s="127" t="s">
-        <v>132</v>
+      <c r="B22" s="118" t="s">
+        <v>77</v>
       </c>
       <c r="C22" s="40"/>
       <c r="D22" s="39"/>
@@ -8624,11 +8641,11 @@
       <c r="G22" s="39"/>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B23" s="128" t="s">
-        <v>133</v>
+      <c r="B23" s="119" t="s">
+        <v>78</v>
       </c>
       <c r="C23" s="41" t="s">
-        <v>134</v>
+        <v>79</v>
       </c>
       <c r="D23" s="39"/>
       <c r="E23" s="39"/>
@@ -8636,11 +8653,11 @@
       <c r="G23" s="39"/>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B24" s="129" t="s">
-        <v>166</v>
+      <c r="B24" s="120" t="s">
+        <v>111</v>
       </c>
       <c r="C24" s="42" t="s">
-        <v>135</v>
+        <v>80</v>
       </c>
       <c r="D24" s="39"/>
       <c r="E24" s="39"/>
@@ -8648,11 +8665,11 @@
       <c r="G24" s="39"/>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B25" s="129" t="s">
-        <v>167</v>
+      <c r="B25" s="120" t="s">
+        <v>112</v>
       </c>
       <c r="C25" s="42" t="s">
-        <v>138</v>
+        <v>83</v>
       </c>
       <c r="D25" s="39"/>
       <c r="E25" s="39"/>
@@ -8660,11 +8677,11 @@
       <c r="G25" s="39"/>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B26" s="129" t="s">
-        <v>136</v>
+      <c r="B26" s="120" t="s">
+        <v>81</v>
       </c>
       <c r="C26" s="42" t="s">
-        <v>137</v>
+        <v>82</v>
       </c>
       <c r="D26" s="39"/>
       <c r="E26" s="39"/>
@@ -8672,7 +8689,7 @@
       <c r="G26" s="39"/>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B27" s="126"/>
+      <c r="B27" s="117"/>
       <c r="C27" s="39"/>
       <c r="D27" s="39"/>
       <c r="E27" s="39"/>
@@ -8680,7 +8697,7 @@
       <c r="G27" s="23"/>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B28" s="126"/>
+      <c r="B28" s="117"/>
       <c r="C28" s="39"/>
       <c r="D28" s="39"/>
       <c r="E28" s="39"/>
@@ -8688,7 +8705,7 @@
       <c r="G28" s="23"/>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B29" s="126"/>
+      <c r="B29" s="117"/>
       <c r="C29" s="39"/>
       <c r="D29" s="39"/>
       <c r="E29" s="39"/>
@@ -8696,38 +8713,72 @@
       <c r="G29" s="23"/>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B30" s="126"/>
+      <c r="B30" s="117"/>
       <c r="C30" s="39"/>
       <c r="D30" s="39"/>
       <c r="E30" s="39"/>
       <c r="F30" s="39"/>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B31" s="126"/>
+      <c r="B31" s="117"/>
       <c r="C31" s="39"/>
       <c r="D31" s="39"/>
       <c r="E31" s="39"/>
       <c r="F31" s="39"/>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B32" s="126"/>
+      <c r="B32" s="117"/>
       <c r="C32" s="39"/>
       <c r="D32" s="39"/>
       <c r="E32" s="39"/>
       <c r="F32" s="39"/>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="F8">
+    <cfRule type="containsText" dxfId="7" priority="8" operator="containsText" text="0x05">
+      <formula>NOT(ISERROR(SEARCH("0x05",F8)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F9">
+    <cfRule type="containsText" dxfId="6" priority="7" operator="containsText" text="0x05">
+      <formula>NOT(ISERROR(SEARCH("0x05",F9)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F10">
+    <cfRule type="containsText" dxfId="5" priority="6" operator="containsText" text="0x05">
+      <formula>NOT(ISERROR(SEARCH("0x05",F10)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F11">
+    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="0x05">
+      <formula>NOT(ISERROR(SEARCH("0x05",F11)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F12">
+    <cfRule type="containsText" dxfId="3" priority="4" operator="containsText" text="0x05">
+      <formula>NOT(ISERROR(SEARCH("0x05",F12)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F13">
+    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="0x05">
+      <formula>NOT(ISERROR(SEARCH("0x05",F13)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F17">
+    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="0x05">
+      <formula>NOT(ISERROR(SEARCH("0x05",F17)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F18">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="0x05">
+      <formula>NOT(ISERROR(SEARCH("0x05",F18)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E15 E17:E18 E5:E13" xr:uid="{00000000-0002-0000-0500-000000000000}">
       <formula1>"Pass,Fail,N/A"</formula1>
     </dataValidation>
   </dataValidations>
-  <hyperlinks>
-    <hyperlink ref="F5" r:id="rId1" location="jailbreak-detection" xr:uid="{00000000-0004-0000-0500-000000000000}"/>
-    <hyperlink ref="F6" r:id="rId2" location="anti-debugging-checks" xr:uid="{00000000-0004-0000-0500-000001000000}"/>
-    <hyperlink ref="F7" r:id="rId3" location="file-integrity-checks" xr:uid="{00000000-0004-0000-0500-000002000000}"/>
-    <hyperlink ref="F15" r:id="rId4" location="device-binding" xr:uid="{00000000-0004-0000-0500-000007000000}"/>
-  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -8738,8 +8789,8 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8750,196 +8801,196 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="112" t="s">
-        <v>129</v>
-      </c>
-      <c r="B1" s="112"/>
-      <c r="C1" s="72"/>
+      <c r="A1" s="107" t="s">
+        <v>74</v>
+      </c>
+      <c r="B1" s="107"/>
+      <c r="C1" s="69"/>
       <c r="D1" s="43"/>
       <c r="E1" s="43"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="58" t="s">
-        <v>235</v>
-      </c>
-      <c r="B2" s="58" t="s">
-        <v>155</v>
-      </c>
-      <c r="C2" s="58" t="s">
-        <v>340</v>
-      </c>
-      <c r="D2" s="58" t="s">
-        <v>236</v>
-      </c>
-      <c r="E2" s="59" t="s">
-        <v>165</v>
+      <c r="A2" s="55" t="s">
+        <v>140</v>
+      </c>
+      <c r="B2" s="55" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2" s="55" t="s">
+        <v>227</v>
+      </c>
+      <c r="D2" s="55" t="s">
+        <v>141</v>
+      </c>
+      <c r="E2" s="56" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="56" t="s">
-        <v>130</v>
-      </c>
-      <c r="B3" s="60">
+      <c r="A3" s="53" t="s">
+        <v>75</v>
+      </c>
+      <c r="B3" s="57">
         <v>0.1</v>
       </c>
-      <c r="C3" s="60"/>
-      <c r="D3" s="57">
+      <c r="C3" s="57"/>
+      <c r="D3" s="54">
         <v>42765</v>
       </c>
-      <c r="E3" s="55" t="s">
-        <v>237</v>
+      <c r="E3" s="52" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="55" t="s">
-        <v>131</v>
-      </c>
-      <c r="B4" s="60">
+      <c r="A4" s="52" t="s">
+        <v>76</v>
+      </c>
+      <c r="B4" s="57">
         <v>0.2</v>
       </c>
-      <c r="C4" s="60"/>
-      <c r="D4" s="57">
+      <c r="C4" s="57"/>
+      <c r="D4" s="54">
         <v>42766</v>
       </c>
-      <c r="E4" s="55" t="s">
-        <v>238</v>
+      <c r="E4" s="52" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="55" t="s">
-        <v>176</v>
-      </c>
-      <c r="B5" s="60">
+      <c r="A5" s="52" t="s">
+        <v>121</v>
+      </c>
+      <c r="B5" s="57">
         <v>0.3</v>
       </c>
-      <c r="C5" s="60"/>
-      <c r="D5" s="57">
+      <c r="C5" s="57"/>
+      <c r="D5" s="54">
         <v>42778</v>
       </c>
-      <c r="E5" s="55" t="s">
-        <v>239</v>
+      <c r="E5" s="52" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="55" t="s">
-        <v>177</v>
-      </c>
-      <c r="B6" s="60" t="s">
-        <v>231</v>
-      </c>
-      <c r="C6" s="60"/>
-      <c r="D6" s="57">
+      <c r="A6" s="52" t="s">
+        <v>122</v>
+      </c>
+      <c r="B6" s="57" t="s">
+        <v>136</v>
+      </c>
+      <c r="C6" s="57"/>
+      <c r="D6" s="54">
         <v>42780</v>
       </c>
-      <c r="E6" s="55" t="s">
-        <v>240</v>
+      <c r="E6" s="52" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="55" t="s">
-        <v>131</v>
-      </c>
-      <c r="B7" s="61" t="s">
-        <v>241</v>
-      </c>
-      <c r="C7" s="61"/>
-      <c r="D7" s="57">
+      <c r="A7" s="52" t="s">
+        <v>76</v>
+      </c>
+      <c r="B7" s="58" t="s">
+        <v>146</v>
+      </c>
+      <c r="C7" s="58"/>
+      <c r="D7" s="54">
         <v>42781</v>
       </c>
-      <c r="E7" s="55" t="s">
-        <v>242</v>
+      <c r="E7" s="52" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="55" t="s">
-        <v>177</v>
-      </c>
-      <c r="B8" s="61" t="s">
-        <v>244</v>
-      </c>
-      <c r="C8" s="61"/>
-      <c r="D8" s="57">
+      <c r="A8" s="52" t="s">
+        <v>122</v>
+      </c>
+      <c r="B8" s="58" t="s">
+        <v>149</v>
+      </c>
+      <c r="C8" s="58"/>
+      <c r="D8" s="54">
         <v>42829</v>
       </c>
-      <c r="E8" s="55" t="s">
-        <v>245</v>
+      <c r="E8" s="52" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="55" t="s">
-        <v>131</v>
-      </c>
-      <c r="B9" s="61" t="s">
-        <v>244</v>
-      </c>
-      <c r="C9" s="61"/>
-      <c r="D9" s="57">
+      <c r="A9" s="52" t="s">
+        <v>76</v>
+      </c>
+      <c r="B9" s="58" t="s">
+        <v>149</v>
+      </c>
+      <c r="C9" s="58"/>
+      <c r="D9" s="54">
         <v>42919</v>
       </c>
-      <c r="E9" s="55" t="s">
-        <v>256</v>
+      <c r="E9" s="52" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="55" t="s">
-        <v>131</v>
-      </c>
-      <c r="B10" s="61" t="s">
-        <v>268</v>
-      </c>
-      <c r="C10" s="61"/>
-      <c r="D10" s="57">
+      <c r="A10" s="52" t="s">
+        <v>76</v>
+      </c>
+      <c r="B10" s="58" t="s">
+        <v>158</v>
+      </c>
+      <c r="C10" s="58"/>
+      <c r="D10" s="54">
         <v>42963</v>
       </c>
-      <c r="E10" s="55" t="s">
-        <v>265</v>
+      <c r="E10" s="52" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="55" t="s">
-        <v>131</v>
-      </c>
-      <c r="B11" s="65" t="s">
-        <v>269</v>
-      </c>
-      <c r="C11" s="65"/>
-      <c r="D11" s="57">
+      <c r="A11" s="52" t="s">
+        <v>76</v>
+      </c>
+      <c r="B11" s="62" t="s">
+        <v>159</v>
+      </c>
+      <c r="C11" s="62"/>
+      <c r="D11" s="54">
         <v>43113</v>
       </c>
-      <c r="E11" s="55" t="s">
-        <v>270</v>
+      <c r="E11" s="52" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="55" t="s">
-        <v>131</v>
-      </c>
-      <c r="B12" s="65">
+      <c r="A12" s="52" t="s">
+        <v>76</v>
+      </c>
+      <c r="B12" s="62">
         <v>1.1000000000000001</v>
       </c>
-      <c r="C12" s="65"/>
-      <c r="D12" s="57">
+      <c r="C12" s="62"/>
+      <c r="D12" s="54">
         <v>43289</v>
       </c>
-      <c r="E12" s="55" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="340" x14ac:dyDescent="0.2">
-      <c r="A13" s="113" t="s">
-        <v>341</v>
-      </c>
-      <c r="B13" s="65" t="s">
-        <v>339</v>
-      </c>
-      <c r="C13" s="65" t="s">
-        <v>337</v>
-      </c>
-      <c r="D13" s="57">
+      <c r="E12" s="52" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="408" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="108" t="s">
+        <v>228</v>
+      </c>
+      <c r="B13" s="62" t="s">
+        <v>226</v>
+      </c>
+      <c r="C13" s="62" t="s">
+        <v>224</v>
+      </c>
+      <c r="D13" s="54">
         <v>43471</v>
       </c>
-      <c r="E13" s="113" t="s">
-        <v>375</v>
+      <c r="E13" s="108" t="s">
+        <v>262</v>
       </c>
     </row>
   </sheetData>

--- a/Checklists/Mobile_App_Security_Checklist-English_1.1.0.xlsx
+++ b/Checklists/Mobile_App_Security_Checklist-English_1.1.0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mitm/git-repos/owasp-mstg/Checklists/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0D4CD9B-7B0B-7C49-95A1-3AFB57E83568}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F2B6841-07AC-3340-98FD-EC00A82B2165}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-4200" yWindow="-21140" windowWidth="38400" windowHeight="21140" tabRatio="500" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -8789,8 +8789,8 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
